--- a/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E856AC-39BC-414B-926B-2BE2D1DA829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB5E9EE-2D35-4DF0-B5D8-8F58E6A26EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36240" yWindow="0" windowWidth="15465" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36405" yWindow="0" windowWidth="15360" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relationships_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8483" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="1440">
   <si>
     <t>doc_id</t>
   </si>
@@ -4350,6 +4350,12 @@
   </si>
   <si>
     <t>should be hosts</t>
+  </si>
+  <si>
+    <t>correct although vectoring not explicitly described in text</t>
+  </si>
+  <si>
+    <t>sarcoptic disease is mentioned but not this specific parasite, again debatable as to whether this should reasonably be inferred from the text</t>
   </si>
 </sst>
 </file>
@@ -4884,8 +4890,8 @@
   <dimension ref="A1:P1715"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1085" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1105" sqref="H1105"/>
+      <pane ySplit="1" topLeftCell="A1178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1222" sqref="H1222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30933,6 +30939,15 @@
       <c r="D1119" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F1119" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1119" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1119" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1120">
@@ -30947,8 +30962,17 @@
       <c r="D1120" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1120" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1120" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1120" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1121">
         <v>60423</v>
       </c>
@@ -30961,8 +30985,17 @@
       <c r="D1121" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1121" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1121" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1121" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1122">
         <v>60423</v>
       </c>
@@ -30975,8 +31008,17 @@
       <c r="D1122" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1122" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1122" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1122" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1123">
         <v>60423</v>
       </c>
@@ -30989,8 +31031,17 @@
       <c r="D1123" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1123" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1123" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1123" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1124">
         <v>60423</v>
       </c>
@@ -31003,8 +31054,17 @@
       <c r="D1124" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1124" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1124" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1124" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1125">
         <v>60423</v>
       </c>
@@ -31017,8 +31077,17 @@
       <c r="D1125" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1125" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1125" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1125" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1126">
         <v>60423</v>
       </c>
@@ -31031,8 +31100,17 @@
       <c r="D1126" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1126" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1126" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1126" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1127">
         <v>60423</v>
       </c>
@@ -31045,8 +31123,17 @@
       <c r="D1127" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1127" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1127" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1127" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1128">
         <v>60423</v>
       </c>
@@ -31059,8 +31146,17 @@
       <c r="D1128" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1128" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1128" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1128" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1129">
         <v>60423</v>
       </c>
@@ -31073,8 +31169,17 @@
       <c r="D1129" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1129" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1129" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1129" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1130">
         <v>60444</v>
       </c>
@@ -31087,8 +31192,17 @@
       <c r="D1130" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1130" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1130" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1130" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1131">
         <v>60444</v>
       </c>
@@ -31101,8 +31215,17 @@
       <c r="D1131" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1131" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1131" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1131" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1132">
         <v>60444</v>
       </c>
@@ -31115,8 +31238,17 @@
       <c r="D1132" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1132" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1132" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1132" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1133">
         <v>60444</v>
       </c>
@@ -31129,8 +31261,17 @@
       <c r="D1133" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1133" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1133" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1133" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1134">
         <v>60444</v>
       </c>
@@ -31143,8 +31284,17 @@
       <c r="D1134" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1134" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1134" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1134" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1135">
         <v>60444</v>
       </c>
@@ -31157,8 +31307,17 @@
       <c r="D1135" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1135" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1135" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1135" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1136">
         <v>60444</v>
       </c>
@@ -31171,8 +31330,17 @@
       <c r="D1136" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1136" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1136" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1136" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1137">
         <v>60444</v>
       </c>
@@ -31185,8 +31353,17 @@
       <c r="D1137" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1137" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1137" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1137" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1138">
         <v>60444</v>
       </c>
@@ -31199,8 +31376,17 @@
       <c r="D1138" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1138" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1138" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1138" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1139">
         <v>60444</v>
       </c>
@@ -31213,8 +31399,17 @@
       <c r="D1139" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1139" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1139" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1139" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1140">
         <v>60444</v>
       </c>
@@ -31227,8 +31422,20 @@
       <c r="D1140" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1140" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1140" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1140" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1140" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1141">
         <v>60444</v>
       </c>
@@ -31241,8 +31448,17 @@
       <c r="D1141" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1141" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1141" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1141" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1142">
         <v>60444</v>
       </c>
@@ -31255,8 +31471,17 @@
       <c r="D1142" s="7" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1142" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1142" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1142" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1143">
         <v>60444</v>
       </c>
@@ -31269,8 +31494,17 @@
       <c r="D1143" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1143" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1143" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1143" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1144">
         <v>60444</v>
       </c>
@@ -31283,8 +31517,17 @@
       <c r="D1144" s="7" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1144" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1144" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1144" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1145">
         <v>60444</v>
       </c>
@@ -31297,8 +31540,17 @@
       <c r="D1145" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1145" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1145" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1145" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1146">
         <v>60444</v>
       </c>
@@ -31311,8 +31563,17 @@
       <c r="D1146" s="7" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1146" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1146" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1146" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1147">
         <v>60444</v>
       </c>
@@ -31325,8 +31586,17 @@
       <c r="D1147" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1147" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1147" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1147" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1148">
         <v>60444</v>
       </c>
@@ -31339,8 +31609,17 @@
       <c r="D1148" s="7" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1148" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1148" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1148" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1149">
         <v>60444</v>
       </c>
@@ -31353,8 +31632,17 @@
       <c r="D1149" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1149" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1149" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1149" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1150">
         <v>60444</v>
       </c>
@@ -31367,8 +31655,17 @@
       <c r="D1150" s="7" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1150" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1150" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1150" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1151">
         <v>60444</v>
       </c>
@@ -31381,8 +31678,17 @@
       <c r="D1151" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1151" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1151" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1151" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1152">
         <v>60444</v>
       </c>
@@ -31395,8 +31701,17 @@
       <c r="D1152" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1152" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1152" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1152" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1153">
         <v>60444</v>
       </c>
@@ -31409,8 +31724,17 @@
       <c r="D1153" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1153" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1153" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1153" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1154">
         <v>60444</v>
       </c>
@@ -31423,8 +31747,17 @@
       <c r="D1154" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1154" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1154" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1154" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1155">
         <v>60444</v>
       </c>
@@ -31437,8 +31770,17 @@
       <c r="D1155" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1155" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1155" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1155" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1156">
         <v>60444</v>
       </c>
@@ -31451,8 +31793,17 @@
       <c r="D1156" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1156" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1156" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1156" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1157">
         <v>60444</v>
       </c>
@@ -31465,8 +31816,17 @@
       <c r="D1157" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1157" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1157" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1157" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1158">
         <v>60444</v>
       </c>
@@ -31479,8 +31839,17 @@
       <c r="D1158" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1158" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1158" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1158" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1159">
         <v>60487</v>
       </c>
@@ -31493,8 +31862,17 @@
       <c r="D1159" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1159" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1159" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1159" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1160">
         <v>60487</v>
       </c>
@@ -31507,8 +31885,17 @@
       <c r="D1160" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1160" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1160" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1160" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1161">
         <v>60487</v>
       </c>
@@ -31521,8 +31908,17 @@
       <c r="D1161" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1161" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1161" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1161" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1162">
         <v>60487</v>
       </c>
@@ -31535,8 +31931,17 @@
       <c r="D1162" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1162" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1162" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1162" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1163">
         <v>60487</v>
       </c>
@@ -31549,8 +31954,17 @@
       <c r="D1163" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1163" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1163" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1163" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1164">
         <v>60487</v>
       </c>
@@ -31563,8 +31977,17 @@
       <c r="D1164" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1164" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1164" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1164" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1165">
         <v>60487</v>
       </c>
@@ -31577,8 +32000,17 @@
       <c r="D1165" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1165" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1165" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1165" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1166">
         <v>60487</v>
       </c>
@@ -31591,8 +32023,17 @@
       <c r="D1166" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1166" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1166" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1166" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1167">
         <v>60487</v>
       </c>
@@ -31605,8 +32046,17 @@
       <c r="D1167" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1167" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1167" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1167" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1168">
         <v>60487</v>
       </c>
@@ -31619,8 +32069,17 @@
       <c r="D1168" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1168" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1168" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1168" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1169">
         <v>60487</v>
       </c>
@@ -31633,8 +32092,17 @@
       <c r="D1169" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1169" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1169" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1169" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1170">
         <v>60487</v>
       </c>
@@ -31647,8 +32115,17 @@
       <c r="D1170" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1170" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1170" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1170" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1171">
         <v>60487</v>
       </c>
@@ -31661,8 +32138,17 @@
       <c r="D1171" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1171" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1171" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1171" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1172">
         <v>60487</v>
       </c>
@@ -31675,8 +32161,17 @@
       <c r="D1172" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1172" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1172" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1172" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1173">
         <v>60487</v>
       </c>
@@ -31689,8 +32184,17 @@
       <c r="D1173" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1173" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1173" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1173" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1174">
         <v>60487</v>
       </c>
@@ -31703,8 +32207,17 @@
       <c r="D1174" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1174" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1174" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1175">
         <v>60487</v>
       </c>
@@ -31717,8 +32230,17 @@
       <c r="D1175" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1175" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1175" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1176">
         <v>60487</v>
       </c>
@@ -31731,8 +32253,17 @@
       <c r="D1176" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1176" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1176" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1177">
         <v>60487</v>
       </c>
@@ -31745,8 +32276,17 @@
       <c r="D1177" s="7" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1177" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J1177" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1178">
         <v>60487</v>
       </c>
@@ -31759,8 +32299,17 @@
       <c r="D1178" s="7" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1178" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1179">
         <v>60487</v>
       </c>
@@ -31773,8 +32322,17 @@
       <c r="D1179" s="7" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1179" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1179" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1180">
         <v>60487</v>
       </c>
@@ -31787,8 +32345,17 @@
       <c r="D1180" s="7" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1180" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1180" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1181">
         <v>60487</v>
       </c>
@@ -31801,8 +32368,17 @@
       <c r="D1181" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1181" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1181" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1182">
         <v>60487</v>
       </c>
@@ -31815,36 +32391,69 @@
       <c r="D1182" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1183">
+      <c r="F1182" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1182" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1182" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1183" s="9">
         <v>60566</v>
       </c>
-      <c r="B1183" s="7" t="s">
+      <c r="B1183" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C1183" s="7" t="s">
+      <c r="C1183" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="D1183" s="7" t="s">
+      <c r="D1183" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1184">
+      <c r="E1183" s="11"/>
+      <c r="F1183" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G1183" s="11"/>
+      <c r="H1183" s="11"/>
+      <c r="I1183" s="11"/>
+      <c r="J1183" s="11"/>
+      <c r="K1183" s="9"/>
+      <c r="L1183" s="9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1184" s="9">
         <v>60566</v>
       </c>
-      <c r="B1184" s="7" t="s">
+      <c r="B1184" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="C1184" s="7" t="s">
+      <c r="C1184" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D1184" s="7" t="s">
+      <c r="D1184" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1184" s="11"/>
+      <c r="F1184" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G1184" s="11"/>
+      <c r="H1184" s="11"/>
+      <c r="I1184" s="11"/>
+      <c r="J1184" s="11"/>
+      <c r="K1184" s="9"/>
+      <c r="L1184" s="9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1185">
         <v>60566</v>
       </c>
@@ -31857,8 +32466,17 @@
       <c r="D1185" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1185" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1185" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1185" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1186">
         <v>60566</v>
       </c>
@@ -31871,8 +32489,17 @@
       <c r="D1186" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1186" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1186" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1186" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1187">
         <v>60566</v>
       </c>
@@ -31885,8 +32512,17 @@
       <c r="D1187" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1187" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1187" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1187" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1188">
         <v>60566</v>
       </c>
@@ -31899,8 +32535,17 @@
       <c r="D1188" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1188" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1188" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1188" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1189">
         <v>60566</v>
       </c>
@@ -31913,8 +32558,17 @@
       <c r="D1189" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1189" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1189" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1189" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1190">
         <v>60566</v>
       </c>
@@ -31927,8 +32581,17 @@
       <c r="D1190" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1190" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1190" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1190" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1191">
         <v>60553</v>
       </c>
@@ -31941,8 +32604,17 @@
       <c r="D1191" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1191" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1191" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1191" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1192">
         <v>60553</v>
       </c>
@@ -31955,8 +32627,17 @@
       <c r="D1192" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1192" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1192" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1192" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1193">
         <v>60553</v>
       </c>
@@ -31969,8 +32650,17 @@
       <c r="D1193" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1193" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1193" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1193" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1194">
         <v>60553</v>
       </c>
@@ -31983,8 +32673,17 @@
       <c r="D1194" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1194" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1194" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1194" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1195">
         <v>60553</v>
       </c>
@@ -31997,8 +32696,17 @@
       <c r="D1195" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1195" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1195" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1195" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1196">
         <v>60553</v>
       </c>
@@ -32011,8 +32719,17 @@
       <c r="D1196" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1196" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1196" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1196" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1197">
         <v>60553</v>
       </c>
@@ -32025,8 +32742,17 @@
       <c r="D1197" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1197" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1197" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J1197" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1198">
         <v>60511</v>
       </c>
@@ -32039,8 +32765,17 @@
       <c r="D1198" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1198" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1198" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1198" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1199">
         <v>60511</v>
       </c>
@@ -32053,8 +32788,17 @@
       <c r="D1199" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1199" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1199" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1199" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1200">
         <v>60511</v>
       </c>
@@ -32067,8 +32811,17 @@
       <c r="D1200" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1200" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1200" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1200" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1201">
         <v>60511</v>
       </c>
@@ -32081,8 +32834,17 @@
       <c r="D1201" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1201" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1201" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1201" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1202">
         <v>60511</v>
       </c>
@@ -32095,8 +32857,17 @@
       <c r="D1202" s="7" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1202" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1202" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1202" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1203">
         <v>60511</v>
       </c>
@@ -32109,8 +32880,17 @@
       <c r="D1203" s="7" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1203" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1203" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1203" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1204">
         <v>60511</v>
       </c>
@@ -32123,8 +32903,17 @@
       <c r="D1204" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1204" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1204" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1204" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1205">
         <v>60488</v>
       </c>
@@ -32137,8 +32926,17 @@
       <c r="D1205" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1205" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1205" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1205" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1206">
         <v>60488</v>
       </c>
@@ -32151,8 +32949,17 @@
       <c r="D1206" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1206" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1206" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1206" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1207">
         <v>60488</v>
       </c>
@@ -32165,8 +32972,17 @@
       <c r="D1207" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1207" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1207" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1207" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1208">
         <v>60488</v>
       </c>
@@ -32179,8 +32995,17 @@
       <c r="D1208" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1208" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1208" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1208" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1209">
         <v>60488</v>
       </c>
@@ -32193,8 +33018,17 @@
       <c r="D1209" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1209" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1209" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1209" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1210">
         <v>60488</v>
       </c>
@@ -32207,8 +33041,17 @@
       <c r="D1210" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1210" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1210" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1210" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1211">
         <v>60488</v>
       </c>
@@ -32221,8 +33064,17 @@
       <c r="D1211" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1211" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1211" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1211" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1212">
         <v>60488</v>
       </c>
@@ -32235,8 +33087,17 @@
       <c r="D1212" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1212" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1212" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1212" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1213">
         <v>60488</v>
       </c>
@@ -32249,8 +33110,17 @@
       <c r="D1213" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1213" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1213" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1213" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1214">
         <v>60488</v>
       </c>
@@ -32263,8 +33133,17 @@
       <c r="D1214" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1214" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1214" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1214" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1215">
         <v>60488</v>
       </c>
@@ -32277,8 +33156,17 @@
       <c r="D1215" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1215" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1215" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1215" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1216">
         <v>60488</v>
       </c>
@@ -32291,8 +33179,17 @@
       <c r="D1216" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1216" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1216" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1216" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1217">
         <v>60488</v>
       </c>
@@ -32305,8 +33202,17 @@
       <c r="D1217" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1217" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1217" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1217" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1218">
         <v>60488</v>
       </c>
@@ -32319,8 +33225,17 @@
       <c r="D1218" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1218" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1218" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1218" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1219">
         <v>60488</v>
       </c>
@@ -32333,8 +33248,17 @@
       <c r="D1219" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1219" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1219" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1219" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1220">
         <v>60488</v>
       </c>
@@ -32347,8 +33271,17 @@
       <c r="D1220" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1220" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1220" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1220" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1221">
         <v>60488</v>
       </c>
@@ -32361,8 +33294,17 @@
       <c r="D1221" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1221" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1222">
         <v>60488</v>
       </c>
@@ -32375,8 +33317,17 @@
       <c r="D1222" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1222" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1223">
         <v>60565</v>
       </c>
@@ -32390,7 +33341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1224">
         <v>60565</v>
       </c>
@@ -32404,7 +33355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1225">
         <v>60565</v>
       </c>
@@ -32418,7 +33369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1226">
         <v>60565</v>
       </c>
@@ -32432,7 +33383,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1227">
         <v>60565</v>
       </c>
@@ -32446,7 +33397,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1228">
         <v>60565</v>
       </c>
@@ -32460,7 +33411,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1229">
         <v>60565</v>
       </c>
@@ -32474,7 +33425,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1230">
         <v>60565</v>
       </c>
@@ -32488,7 +33439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1231">
         <v>60565</v>
       </c>
@@ -32502,7 +33453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1232">
         <v>60565</v>
       </c>

--- a/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB5E9EE-2D35-4DF0-B5D8-8F58E6A26EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F2F94C-54CF-444F-9E13-4FF987B289BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="0" windowWidth="15360" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39630" yWindow="0" windowWidth="12015" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relationships_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9084" uniqueCount="1441">
   <si>
     <t>doc_id</t>
   </si>
@@ -4356,6 +4356,9 @@
   </si>
   <si>
     <t>sarcoptic disease is mentioned but not this specific parasite, again debatable as to whether this should reasonably be inferred from the text</t>
+  </si>
+  <si>
+    <t>association rather than causation</t>
   </si>
 </sst>
 </file>
@@ -4887,11 +4890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1715"/>
+  <dimension ref="A1:P1721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1222" sqref="H1222"/>
+      <pane ySplit="1" topLeftCell="A1277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1315" sqref="J1315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33340,6 +33343,15 @@
       <c r="D1223" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F1223" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1224">
@@ -33354,6 +33366,15 @@
       <c r="D1224" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="F1224" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1225">
@@ -33368,6 +33389,15 @@
       <c r="D1225" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="F1225" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1226">
@@ -33382,6 +33412,15 @@
       <c r="D1226" s="7" t="s">
         <v>587</v>
       </c>
+      <c r="F1226" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1227">
@@ -33396,6 +33435,15 @@
       <c r="D1227" s="7" t="s">
         <v>587</v>
       </c>
+      <c r="F1227" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1227" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1228">
@@ -33410,6 +33458,15 @@
       <c r="D1228" s="7" t="s">
         <v>587</v>
       </c>
+      <c r="F1228" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1229">
@@ -33424,6 +33481,15 @@
       <c r="D1229" s="7" t="s">
         <v>1211</v>
       </c>
+      <c r="F1229" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1230">
@@ -33438,6 +33504,15 @@
       <c r="D1230" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F1230" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1231">
@@ -33452,6 +33527,15 @@
       <c r="D1231" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F1231" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1231" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1232">
@@ -33466,8 +33550,17 @@
       <c r="D1232" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1232" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1232" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1233">
         <v>60565</v>
       </c>
@@ -33480,8 +33573,17 @@
       <c r="D1233" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1233" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1233" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1234">
         <v>60565</v>
       </c>
@@ -33494,8 +33596,17 @@
       <c r="D1234" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1234" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1235">
         <v>60565</v>
       </c>
@@ -33508,442 +33619,744 @@
       <c r="D1235" s="7" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1236">
+      <c r="F1235" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1235" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="9">
         <v>60565</v>
       </c>
-      <c r="B1236" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="C1236" s="7" t="s">
+      <c r="B1236" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D1236" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1236" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1236" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1236" s="11"/>
+      <c r="F1236" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1236" s="11"/>
+      <c r="H1236" s="11"/>
+      <c r="I1236" s="11"/>
+      <c r="J1236" s="11"/>
+      <c r="L1236" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1237">
         <v>60565</v>
       </c>
       <c r="B1237" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1237" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1237" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1237" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="9">
+        <v>60565</v>
+      </c>
+      <c r="B1238" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1238" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1238" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1238" s="11"/>
+      <c r="F1238" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1238" s="11"/>
+      <c r="H1238" s="11"/>
+      <c r="I1238" s="11"/>
+      <c r="J1238" s="11"/>
+      <c r="L1238" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>60565</v>
+      </c>
+      <c r="B1239" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="C1237" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1237" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1238">
-        <v>60516</v>
-      </c>
-      <c r="B1238" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1238" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1238" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1239">
-        <v>60516</v>
-      </c>
-      <c r="B1239" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C1239" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D1239" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F1239" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1239" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1240">
         <v>60516</v>
       </c>
       <c r="B1240" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1240" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C1240" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="D1240" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1241">
         <v>60516</v>
       </c>
       <c r="B1241" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C1241" s="7" t="s">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="D1241" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1241" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1241" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1242">
         <v>60516</v>
       </c>
       <c r="B1242" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C1242" s="7" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="D1242" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F1242" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1242" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1242" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1243">
         <v>60516</v>
       </c>
       <c r="B1243" s="7" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="C1243" s="7" t="s">
-        <v>1213</v>
+        <v>389</v>
       </c>
       <c r="D1243" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F1243" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1243" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1243" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1244">
         <v>60516</v>
       </c>
       <c r="B1244" s="7" t="s">
-        <v>1213</v>
+        <v>389</v>
       </c>
       <c r="C1244" s="7" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="D1244" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F1244" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1244" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1244" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1245">
         <v>60516</v>
       </c>
       <c r="B1245" s="7" t="s">
-        <v>387</v>
+        <v>105</v>
       </c>
       <c r="C1245" s="7" t="s">
-        <v>713</v>
+        <v>1213</v>
       </c>
       <c r="D1245" s="7" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1245" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1245" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1245" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1246">
         <v>60516</v>
       </c>
       <c r="B1246" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1246" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1246" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1246" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1246" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1246" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>60516</v>
+      </c>
+      <c r="B1247" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1247" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C1246" s="7" t="s">
+      <c r="D1247" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F1247" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1247" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1247" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>60516</v>
+      </c>
+      <c r="B1248" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1248" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D1246" s="7" t="s">
+      <c r="D1248" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1247">
-        <v>60460</v>
-      </c>
-      <c r="B1247" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1247" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1247" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1248">
-        <v>60460</v>
-      </c>
-      <c r="B1248" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1248" s="7" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D1248" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1248" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1248" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1248" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1249">
         <v>60460</v>
       </c>
       <c r="B1249" s="7" t="s">
-        <v>714</v>
+        <v>391</v>
       </c>
       <c r="C1249" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D1249" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1250">
+        <v>523</v>
+      </c>
+      <c r="F1249" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1249" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1249" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="9">
         <v>60460</v>
       </c>
-      <c r="B1250" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="C1250" s="7" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D1250" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1250" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1250" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1250" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1250" s="11"/>
+      <c r="F1250" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1250" s="11"/>
+      <c r="H1250" s="11"/>
+      <c r="I1250" s="11"/>
+      <c r="J1250" s="11"/>
+      <c r="L1250" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1251">
         <v>60460</v>
       </c>
       <c r="B1251" s="7" t="s">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="C1251" s="7" t="s">
-        <v>714</v>
+        <v>1215</v>
       </c>
       <c r="D1251" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1252">
+        <v>523</v>
+      </c>
+      <c r="F1251" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1251" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1251" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="9">
         <v>60460</v>
       </c>
-      <c r="B1252" s="7" t="s">
+      <c r="B1252" s="10" t="s">
         <v>1215</v>
       </c>
-      <c r="C1252" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="D1252" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1252" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1252" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1252" s="11"/>
+      <c r="F1252" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1252" s="11"/>
+      <c r="H1252" s="11"/>
+      <c r="I1252" s="11"/>
+      <c r="J1252" s="11"/>
+      <c r="L1252" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1253">
         <v>60460</v>
       </c>
       <c r="B1253" s="7" t="s">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="C1253" s="7" t="s">
-        <v>1216</v>
+        <v>135</v>
       </c>
       <c r="D1253" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1253" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1253" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1253" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1254">
         <v>60460</v>
       </c>
       <c r="B1254" s="7" t="s">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="C1254" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D1254" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1254" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1254" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1254" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1255">
         <v>60460</v>
       </c>
       <c r="B1255" s="7" t="s">
-        <v>1216</v>
+        <v>135</v>
       </c>
       <c r="C1255" s="7" t="s">
-        <v>135</v>
+        <v>714</v>
       </c>
       <c r="D1255" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1255" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1255" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1255" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1256">
         <v>60460</v>
       </c>
       <c r="B1256" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1256" s="7" t="s">
-        <v>1215</v>
+        <v>714</v>
       </c>
       <c r="D1256" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1256" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1256" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1256" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1257">
         <v>60460</v>
       </c>
       <c r="B1257" s="7" t="s">
-        <v>1217</v>
+        <v>394</v>
       </c>
       <c r="C1257" s="7" t="s">
-        <v>135</v>
+        <v>1216</v>
       </c>
       <c r="D1257" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1257" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1257" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1257" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1257" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1258">
         <v>60460</v>
       </c>
       <c r="B1258" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1258" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="C1258" s="7" t="s">
-        <v>1215</v>
-      </c>
       <c r="D1258" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1258" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1258" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1258" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1259">
         <v>60460</v>
       </c>
       <c r="B1259" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C1259" s="7" t="s">
-        <v>427</v>
+        <v>135</v>
       </c>
       <c r="D1259" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F1259" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1259" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1259" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1260">
         <v>60460</v>
       </c>
       <c r="B1260" s="7" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C1260" s="7" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D1260" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F1260" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1260" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1260" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1261">
         <v>60460</v>
       </c>
       <c r="B1261" s="7" t="s">
-        <v>392</v>
+        <v>1217</v>
       </c>
       <c r="C1261" s="7" t="s">
-        <v>836</v>
+        <v>135</v>
       </c>
       <c r="D1261" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F1261" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1261" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1261" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1262">
         <v>60460</v>
       </c>
       <c r="B1262" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1262" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1262" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1262" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1262" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1262" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>60460</v>
+      </c>
+      <c r="B1263" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1263" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1263" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1263" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1263" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1263" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>60460</v>
+      </c>
+      <c r="B1264" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1264" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D1264" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1264" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1264" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1264" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>60460</v>
+      </c>
+      <c r="B1265" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1265" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1265" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1265" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1265" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1265" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>60460</v>
+      </c>
+      <c r="B1266" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C1262" s="7" t="s">
+      <c r="C1266" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="D1262" s="7" t="s">
+      <c r="D1266" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1263">
-        <v>60430</v>
-      </c>
-      <c r="B1263" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1263" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D1263" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1264">
-        <v>60430</v>
-      </c>
-      <c r="B1264" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C1264" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1264" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1265">
-        <v>60430</v>
-      </c>
-      <c r="B1265" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1265" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1265" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1266">
-        <v>60430</v>
-      </c>
-      <c r="B1266" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1266" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1266" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1266" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1266" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1266" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1267">
         <v>60430</v>
       </c>
@@ -33951,18 +34364,27 @@
         <v>395</v>
       </c>
       <c r="C1267" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D1267" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1267" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1267" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1267" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1268">
         <v>60430</v>
       </c>
       <c r="B1268" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1268" s="7" t="s">
         <v>395</v>
@@ -33970,36 +34392,63 @@
       <c r="D1268" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1268" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1268" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1268" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1269">
         <v>60430</v>
       </c>
       <c r="B1269" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1269" s="7" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="D1269" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1269" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1269" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1269" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1270">
         <v>60430</v>
       </c>
       <c r="B1270" s="7" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="C1270" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D1270" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1270" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1270" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1270" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1271">
         <v>60430</v>
       </c>
@@ -34007,18 +34456,27 @@
         <v>395</v>
       </c>
       <c r="C1271" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D1271" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1271" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1271" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1271" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1272">
         <v>60430</v>
       </c>
       <c r="B1272" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C1272" s="7" t="s">
         <v>395</v>
@@ -34026,274 +34484,454 @@
       <c r="D1272" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1272" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1272" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1272" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1273">
         <v>60430</v>
       </c>
       <c r="B1273" s="7" t="s">
-        <v>1224</v>
+        <v>395</v>
       </c>
       <c r="C1273" s="7" t="s">
-        <v>1222</v>
+        <v>244</v>
       </c>
       <c r="D1273" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1273" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1273" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1273" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1274">
         <v>60430</v>
       </c>
       <c r="B1274" s="7" t="s">
-        <v>1222</v>
+        <v>244</v>
       </c>
       <c r="C1274" s="7" t="s">
-        <v>1224</v>
+        <v>395</v>
       </c>
       <c r="D1274" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1274" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1274" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1274" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1275">
         <v>60430</v>
       </c>
       <c r="B1275" s="7" t="s">
-        <v>1225</v>
+        <v>395</v>
       </c>
       <c r="C1275" s="7" t="s">
-        <v>244</v>
+        <v>1223</v>
       </c>
       <c r="D1275" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1275" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1275" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1275" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1276">
         <v>60430</v>
       </c>
       <c r="B1276" s="7" t="s">
-        <v>244</v>
+        <v>1223</v>
       </c>
       <c r="C1276" s="7" t="s">
-        <v>1225</v>
+        <v>395</v>
       </c>
       <c r="D1276" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1276" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1276" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1276" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1277">
         <v>60430</v>
       </c>
       <c r="B1277" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1277" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D1277" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1277" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1277" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1277" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1278">
         <v>60430</v>
       </c>
       <c r="B1278" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C1278" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D1278" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1278" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1278" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1278" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1279">
         <v>60430</v>
       </c>
       <c r="B1279" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C1279" s="7" t="s">
-        <v>1228</v>
+        <v>244</v>
       </c>
       <c r="D1279" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F1279" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1279" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1279" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1280">
         <v>60430</v>
       </c>
       <c r="B1280" s="7" t="s">
-        <v>1229</v>
+        <v>244</v>
       </c>
       <c r="C1280" s="7" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D1280" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F1280" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1280" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1280" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1281">
         <v>60430</v>
       </c>
       <c r="B1281" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C1281" s="7" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D1281" s="7" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F1281" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1281" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1281" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1282">
         <v>60430</v>
       </c>
       <c r="B1282" s="7" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="C1282" s="7" t="s">
-        <v>395</v>
+        <v>1226</v>
       </c>
       <c r="D1282" s="7" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F1282" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1282" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1282" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1283">
         <v>60430</v>
       </c>
       <c r="B1283" s="7" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C1283" s="7" t="s">
-        <v>395</v>
+        <v>1228</v>
       </c>
       <c r="D1283" s="7" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="F1283" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1283" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1283" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1284">
         <v>60430</v>
       </c>
       <c r="B1284" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1284" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1284" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F1284" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1284" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1284" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>60430</v>
+      </c>
+      <c r="B1285" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1285" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1285" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F1285" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1285" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1285" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>60430</v>
+      </c>
+      <c r="B1286" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1286" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1286" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F1286" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1286" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1286" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>60430</v>
+      </c>
+      <c r="B1287" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1287" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1287" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F1287" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1287" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1287" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>60430</v>
+      </c>
+      <c r="B1288" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="C1284" s="7" t="s">
+      <c r="C1288" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="D1284" s="7" t="s">
+      <c r="D1288" s="7" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1285">
-        <v>60523</v>
-      </c>
-      <c r="B1285" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1285" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1285" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1286">
-        <v>60523</v>
-      </c>
-      <c r="B1286" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1286" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1286" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1287">
-        <v>60523</v>
-      </c>
-      <c r="B1287" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C1287" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1287" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1288">
-        <v>60523</v>
-      </c>
-      <c r="B1288" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1288" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1288" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1288" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1288" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1288" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1289">
         <v>60523</v>
       </c>
       <c r="B1289" s="7" t="s">
-        <v>1236</v>
+        <v>398</v>
       </c>
       <c r="C1289" s="7" t="s">
-        <v>717</v>
+        <v>308</v>
       </c>
       <c r="D1289" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1289" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1289" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1289" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1290">
         <v>60523</v>
       </c>
       <c r="B1290" s="7" t="s">
-        <v>717</v>
+        <v>308</v>
       </c>
       <c r="C1290" s="7" t="s">
-        <v>1237</v>
+        <v>398</v>
       </c>
       <c r="D1290" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1290" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1290" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1290" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1291">
         <v>60523</v>
       </c>
       <c r="B1291" s="7" t="s">
-        <v>1237</v>
+        <v>397</v>
       </c>
       <c r="C1291" s="7" t="s">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="D1291" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1291" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1291" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1291" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1292">
         <v>60523</v>
       </c>
@@ -34301,514 +34939,725 @@
         <v>308</v>
       </c>
       <c r="C1292" s="7" t="s">
-        <v>1238</v>
+        <v>397</v>
       </c>
       <c r="D1292" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1292" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1292" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1292" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1293">
         <v>60523</v>
       </c>
       <c r="B1293" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C1293" s="7" t="s">
-        <v>34</v>
+        <v>717</v>
       </c>
       <c r="D1293" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="F1293" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1293" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1293" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1294">
         <v>60523</v>
       </c>
       <c r="B1294" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C1294" s="7" t="s">
-        <v>720</v>
+        <v>1237</v>
       </c>
       <c r="D1294" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F1294" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1294" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1294" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1295">
         <v>60523</v>
       </c>
       <c r="B1295" s="7" t="s">
-        <v>721</v>
+        <v>1237</v>
       </c>
       <c r="C1295" s="7" t="s">
-        <v>1239</v>
+        <v>398</v>
       </c>
       <c r="D1295" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="F1295" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1295" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1295" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1296">
         <v>60523</v>
       </c>
       <c r="B1296" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1296" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1296" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1296" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1296" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1296" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>60523</v>
+      </c>
+      <c r="B1297" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1297" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1297" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1297" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1297" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1297" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>60523</v>
+      </c>
+      <c r="B1298" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1298" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1298" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1298" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1298" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1298" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>60523</v>
+      </c>
+      <c r="B1299" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1299" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="C1296" s="7" t="s">
+      <c r="D1299" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1299" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1299" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1299" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>60523</v>
+      </c>
+      <c r="B1300" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1300" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="D1296" s="7" t="s">
+      <c r="D1300" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1297">
-        <v>59954</v>
-      </c>
-      <c r="B1297" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="C1297" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1297" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1298">
-        <v>59954</v>
-      </c>
-      <c r="B1298" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1298" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="D1298" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1299">
-        <v>59954</v>
-      </c>
-      <c r="B1299" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="C1299" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D1299" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1300">
-        <v>59954</v>
-      </c>
-      <c r="B1300" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C1300" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="D1300" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1300" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1300" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1300" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1301">
         <v>59954</v>
       </c>
       <c r="B1301" s="7" t="s">
-        <v>725</v>
+        <v>842</v>
       </c>
       <c r="C1301" s="7" t="s">
-        <v>724</v>
+        <v>400</v>
       </c>
       <c r="D1301" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1301" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1301" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1301" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1302">
         <v>59954</v>
       </c>
       <c r="B1302" s="7" t="s">
-        <v>1241</v>
+        <v>400</v>
       </c>
       <c r="C1302" s="7" t="s">
-        <v>724</v>
+        <v>842</v>
       </c>
       <c r="D1302" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1302" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1302" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1302" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1303">
         <v>59954</v>
       </c>
       <c r="B1303" s="7" t="s">
-        <v>1242</v>
+        <v>724</v>
       </c>
       <c r="C1303" s="7" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D1303" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1303" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1303" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1303" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1304">
         <v>59954</v>
       </c>
       <c r="B1304" s="7" t="s">
-        <v>400</v>
+        <v>1240</v>
       </c>
       <c r="C1304" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D1304" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1304" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1304" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1304" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1305">
         <v>59954</v>
       </c>
       <c r="B1305" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C1305" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D1305" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1306">
+        <v>47</v>
+      </c>
+      <c r="F1305" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1305" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1305" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="9">
         <v>59954</v>
       </c>
-      <c r="B1306" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1306" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="D1306" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1306" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C1306" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1306" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1306" s="11"/>
+      <c r="F1306" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1306" s="11"/>
+      <c r="H1306" s="11"/>
+      <c r="I1306" s="11"/>
+      <c r="J1306" s="11"/>
+      <c r="L1306" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1307">
         <v>59954</v>
       </c>
       <c r="B1307" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1307" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1307" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1307" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1307" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1307" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="9">
+        <v>59954</v>
+      </c>
+      <c r="B1308" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C1308" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1308" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1308" s="11"/>
+      <c r="F1308" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1308" s="11"/>
+      <c r="H1308" s="11"/>
+      <c r="I1308" s="11"/>
+      <c r="J1308" s="11"/>
+      <c r="L1308" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>59954</v>
+      </c>
+      <c r="B1309" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1309" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1309" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1309" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1309" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1309" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>59954</v>
+      </c>
+      <c r="B1310" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1310" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1310" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1310" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1310" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1310" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>59954</v>
+      </c>
+      <c r="B1311" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1311" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1311" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1311" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1311" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1311" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>59954</v>
+      </c>
+      <c r="B1312" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1312" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1312" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1312" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1312" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1312" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>59954</v>
+      </c>
+      <c r="B1313" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C1307" s="7" t="s">
+      <c r="C1313" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="D1307" s="7" t="s">
+      <c r="D1313" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1308">
+      <c r="F1313" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1313" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1313" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1314">
         <v>59954</v>
       </c>
-      <c r="B1308" s="7" t="s">
+      <c r="B1314" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C1308" s="7" t="s">
+      <c r="C1314" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="D1308" s="7" t="s">
+      <c r="D1314" s="7" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1309">
-        <v>59037</v>
-      </c>
-      <c r="B1309" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1309" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="D1309" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1310">
-        <v>59037</v>
-      </c>
-      <c r="B1310" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="C1310" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1310" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1311">
-        <v>59037</v>
-      </c>
-      <c r="B1311" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1311" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1311" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1312">
-        <v>59037</v>
-      </c>
-      <c r="B1312" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C1312" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D1312" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1313">
-        <v>59037</v>
-      </c>
-      <c r="B1313" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1313" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D1313" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1314">
-        <v>59037</v>
-      </c>
-      <c r="B1314" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1314" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1314" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1314" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1314" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J1314" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1315">
         <v>59037</v>
       </c>
       <c r="B1315" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C1315" s="7" t="s">
-        <v>401</v>
+        <v>732</v>
       </c>
       <c r="D1315" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1316">
         <v>59037</v>
       </c>
       <c r="B1316" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1316" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C1316" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="D1316" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1317">
         <v>59037</v>
       </c>
       <c r="B1317" s="7" t="s">
-        <v>404</v>
+        <v>1246</v>
       </c>
       <c r="C1317" s="7" t="s">
-        <v>1246</v>
+        <v>731</v>
       </c>
       <c r="D1317" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1318">
         <v>59037</v>
       </c>
       <c r="B1318" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C1318" s="7" t="s">
-        <v>404</v>
+        <v>1246</v>
       </c>
       <c r="D1318" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1319">
         <v>59037</v>
       </c>
       <c r="B1319" s="7" t="s">
-        <v>736</v>
+        <v>402</v>
       </c>
       <c r="C1319" s="7" t="s">
         <v>1246</v>
       </c>
       <c r="D1319" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1320">
         <v>59037</v>
       </c>
       <c r="B1320" s="7" t="s">
-        <v>735</v>
+        <v>1246</v>
       </c>
       <c r="C1320" s="7" t="s">
-        <v>1246</v>
+        <v>402</v>
       </c>
       <c r="D1320" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1321">
         <v>59037</v>
       </c>
       <c r="B1321" s="7" t="s">
-        <v>1247</v>
+        <v>403</v>
       </c>
       <c r="C1321" s="7" t="s">
-        <v>731</v>
+        <v>401</v>
       </c>
       <c r="D1321" s="7" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1322">
         <v>59037</v>
       </c>
       <c r="B1322" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1322" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1322" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>59037</v>
+      </c>
+      <c r="B1323" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1323" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1323" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>59037</v>
+      </c>
+      <c r="B1324" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1324" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1324" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>59037</v>
+      </c>
+      <c r="B1325" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1325" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1325" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>59037</v>
+      </c>
+      <c r="B1326" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1326" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1326" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>59037</v>
+      </c>
+      <c r="B1327" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1327" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1327" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>59037</v>
+      </c>
+      <c r="B1328" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C1322" s="7" t="s">
+      <c r="C1328" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D1322" s="7" t="s">
+      <c r="D1328" s="7" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1323">
-        <v>57824</v>
-      </c>
-      <c r="B1323" s="7" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C1323" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D1323" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1324">
-        <v>57824</v>
-      </c>
-      <c r="B1324" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1324" s="7" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D1324" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1325">
-        <v>57824</v>
-      </c>
-      <c r="B1325" s="7" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C1325" s="7" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D1325" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1326">
-        <v>57824</v>
-      </c>
-      <c r="B1326" s="7" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C1326" s="7" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D1326" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1327">
-        <v>57824</v>
-      </c>
-      <c r="B1327" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1327" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D1327" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1328">
-        <v>57824</v>
-      </c>
-      <c r="B1328" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1328" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D1328" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
@@ -34816,13 +35665,13 @@
         <v>57824</v>
       </c>
       <c r="B1329" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1329" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="C1329" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="D1329" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
@@ -34830,13 +35679,13 @@
         <v>57824</v>
       </c>
       <c r="B1330" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C1330" s="7" t="s">
         <v>1248</v>
       </c>
       <c r="D1330" s="7" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
@@ -34847,10 +35696,10 @@
         <v>1248</v>
       </c>
       <c r="C1331" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D1331" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
@@ -34858,13 +35707,13 @@
         <v>57824</v>
       </c>
       <c r="B1332" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1332" s="7" t="s">
-        <v>60</v>
+        <v>1248</v>
       </c>
       <c r="D1332" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
@@ -34872,13 +35721,13 @@
         <v>57824</v>
       </c>
       <c r="B1333" s="7" t="s">
-        <v>60</v>
+        <v>1249</v>
       </c>
       <c r="C1333" s="7" t="s">
-        <v>1251</v>
+        <v>405</v>
       </c>
       <c r="D1333" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
@@ -34886,13 +35735,13 @@
         <v>57824</v>
       </c>
       <c r="B1334" s="7" t="s">
-        <v>1252</v>
+        <v>405</v>
       </c>
       <c r="C1334" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D1334" s="7" t="s">
-        <v>1253</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
@@ -34900,13 +35749,13 @@
         <v>57824</v>
       </c>
       <c r="B1335" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C1335" s="7" t="s">
-        <v>1252</v>
+        <v>405</v>
       </c>
       <c r="D1335" s="7" t="s">
-        <v>1254</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
@@ -34914,13 +35763,13 @@
         <v>57824</v>
       </c>
       <c r="B1336" s="7" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C1336" s="7" t="s">
         <v>1248</v>
       </c>
       <c r="D1336" s="7" t="s">
-        <v>1256</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
@@ -34931,10 +35780,10 @@
         <v>1248</v>
       </c>
       <c r="C1337" s="7" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D1337" s="7" t="s">
-        <v>1257</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
@@ -34942,13 +35791,13 @@
         <v>57824</v>
       </c>
       <c r="B1338" s="7" t="s">
-        <v>737</v>
+        <v>1251</v>
       </c>
       <c r="C1338" s="7" t="s">
-        <v>1248</v>
+        <v>60</v>
       </c>
       <c r="D1338" s="7" t="s">
-        <v>1258</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
@@ -34956,13 +35805,13 @@
         <v>57824</v>
       </c>
       <c r="B1339" s="7" t="s">
-        <v>1248</v>
+        <v>60</v>
       </c>
       <c r="C1339" s="7" t="s">
-        <v>737</v>
+        <v>1251</v>
       </c>
       <c r="D1339" s="7" t="s">
-        <v>1258</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
@@ -34970,13 +35819,13 @@
         <v>57824</v>
       </c>
       <c r="B1340" s="7" t="s">
-        <v>738</v>
+        <v>1252</v>
       </c>
       <c r="C1340" s="7" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D1340" s="7" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
@@ -34984,13 +35833,13 @@
         <v>57824</v>
       </c>
       <c r="B1341" s="7" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C1341" s="7" t="s">
-        <v>738</v>
+        <v>1252</v>
       </c>
       <c r="D1341" s="7" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
@@ -34998,13 +35847,13 @@
         <v>57824</v>
       </c>
       <c r="B1342" s="7" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C1342" s="7" t="s">
         <v>1248</v>
       </c>
       <c r="D1342" s="7" t="s">
-        <v>47</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
@@ -35012,13 +35861,13 @@
         <v>57824</v>
       </c>
       <c r="B1343" s="7" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="C1343" s="7" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="D1343" s="7" t="s">
-        <v>47</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
@@ -35026,13 +35875,13 @@
         <v>57824</v>
       </c>
       <c r="B1344" s="7" t="s">
-        <v>1261</v>
+        <v>737</v>
       </c>
       <c r="C1344" s="7" t="s">
         <v>1248</v>
       </c>
       <c r="D1344" s="7" t="s">
-        <v>47</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
@@ -35040,13 +35889,13 @@
         <v>57824</v>
       </c>
       <c r="B1345" s="7" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="C1345" s="7" t="s">
-        <v>1251</v>
+        <v>737</v>
       </c>
       <c r="D1345" s="7" t="s">
-        <v>121</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
@@ -35054,13 +35903,13 @@
         <v>57824</v>
       </c>
       <c r="B1346" s="7" t="s">
-        <v>1251</v>
+        <v>738</v>
       </c>
       <c r="C1346" s="7" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="D1346" s="7" t="s">
-        <v>45</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
@@ -35068,13 +35917,13 @@
         <v>57824</v>
       </c>
       <c r="B1347" s="7" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="C1347" s="7" t="s">
-        <v>1251</v>
+        <v>738</v>
       </c>
       <c r="D1347" s="7" t="s">
-        <v>121</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
@@ -35082,13 +35931,13 @@
         <v>57824</v>
       </c>
       <c r="B1348" s="7" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C1348" s="7" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="D1348" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
@@ -35096,13 +35945,13 @@
         <v>57824</v>
       </c>
       <c r="B1349" s="7" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C1349" s="7" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D1349" s="7" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
@@ -35110,13 +35959,13 @@
         <v>57824</v>
       </c>
       <c r="B1350" s="7" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="C1350" s="7" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="D1350" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
@@ -35124,7 +35973,7 @@
         <v>57824</v>
       </c>
       <c r="B1351" s="7" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C1351" s="7" t="s">
         <v>1251</v>
@@ -35141,7 +35990,7 @@
         <v>1251</v>
       </c>
       <c r="C1352" s="7" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D1352" s="7" t="s">
         <v>45</v>
@@ -35152,13 +36001,13 @@
         <v>57824</v>
       </c>
       <c r="B1353" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C1353" s="7" t="s">
-        <v>60</v>
+        <v>1251</v>
       </c>
       <c r="D1353" s="7" t="s">
-        <v>1267</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
@@ -35166,13 +36015,13 @@
         <v>57824</v>
       </c>
       <c r="B1354" s="7" t="s">
-        <v>60</v>
+        <v>1251</v>
       </c>
       <c r="C1354" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D1354" s="7" t="s">
-        <v>592</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
@@ -35180,13 +36029,13 @@
         <v>57824</v>
       </c>
       <c r="B1355" s="7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C1355" s="7" t="s">
-        <v>60</v>
+        <v>1251</v>
       </c>
       <c r="D1355" s="7" t="s">
-        <v>1267</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
@@ -35194,97 +36043,97 @@
         <v>57824</v>
       </c>
       <c r="B1356" s="7" t="s">
-        <v>60</v>
+        <v>1251</v>
       </c>
       <c r="C1356" s="7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D1356" s="7" t="s">
-        <v>592</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1357" s="7" t="s">
-        <v>739</v>
+        <v>1265</v>
       </c>
       <c r="C1357" s="7" t="s">
-        <v>407</v>
+        <v>1251</v>
       </c>
       <c r="D1357" s="7" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1358" s="7" t="s">
-        <v>407</v>
+        <v>1251</v>
       </c>
       <c r="C1358" s="7" t="s">
-        <v>739</v>
+        <v>1265</v>
       </c>
       <c r="D1358" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1359" s="7" t="s">
-        <v>407</v>
+        <v>1266</v>
       </c>
       <c r="C1359" s="7" t="s">
-        <v>408</v>
+        <v>60</v>
       </c>
       <c r="D1359" s="7" t="s">
-        <v>59</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1360" s="7" t="s">
-        <v>408</v>
+        <v>60</v>
       </c>
       <c r="C1360" s="7" t="s">
-        <v>297</v>
+        <v>1266</v>
       </c>
       <c r="D1360" s="7" t="s">
-        <v>121</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1361">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1361" s="7" t="s">
-        <v>741</v>
+        <v>1268</v>
       </c>
       <c r="C1361" s="7" t="s">
-        <v>742</v>
+        <v>60</v>
       </c>
       <c r="D1361" s="7" t="s">
-        <v>42</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1362">
-        <v>59194</v>
+        <v>57824</v>
       </c>
       <c r="B1362" s="7" t="s">
-        <v>743</v>
+        <v>60</v>
       </c>
       <c r="C1362" s="7" t="s">
-        <v>742</v>
+        <v>1268</v>
       </c>
       <c r="D1362" s="7" t="s">
-        <v>42</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
@@ -35292,13 +36141,13 @@
         <v>59194</v>
       </c>
       <c r="B1363" s="7" t="s">
-        <v>1269</v>
+        <v>739</v>
       </c>
       <c r="C1363" s="7" t="s">
-        <v>742</v>
+        <v>407</v>
       </c>
       <c r="D1363" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
@@ -35306,13 +36155,13 @@
         <v>59194</v>
       </c>
       <c r="B1364" s="7" t="s">
-        <v>742</v>
+        <v>407</v>
       </c>
       <c r="C1364" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D1364" s="7" t="s">
-        <v>745</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
@@ -35320,97 +36169,97 @@
         <v>59194</v>
       </c>
       <c r="B1365" s="7" t="s">
-        <v>739</v>
+        <v>407</v>
       </c>
       <c r="C1365" s="7" t="s">
-        <v>1270</v>
+        <v>408</v>
       </c>
       <c r="D1365" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1366">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1366" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1366" s="7" t="s">
-        <v>746</v>
+        <v>297</v>
       </c>
       <c r="D1366" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1367">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1367" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C1367" s="7" t="s">
-        <v>409</v>
+        <v>742</v>
       </c>
       <c r="D1367" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1368">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1368" s="7" t="s">
-        <v>409</v>
+        <v>743</v>
       </c>
       <c r="C1368" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D1368" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1369">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1369" s="7" t="s">
-        <v>747</v>
+        <v>1269</v>
       </c>
       <c r="C1369" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D1369" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1370">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1370" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C1370" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D1370" s="7" t="s">
-        <v>39</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1371">
-        <v>58337</v>
+        <v>59194</v>
       </c>
       <c r="B1371" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C1371" s="7" t="s">
-        <v>751</v>
+        <v>1270</v>
       </c>
       <c r="D1371" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
@@ -35418,13 +36267,13 @@
         <v>58337</v>
       </c>
       <c r="B1372" s="7" t="s">
-        <v>747</v>
+        <v>409</v>
       </c>
       <c r="C1372" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D1372" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
@@ -35432,13 +36281,13 @@
         <v>58337</v>
       </c>
       <c r="B1373" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1373" s="7" t="s">
-        <v>753</v>
+        <v>409</v>
       </c>
       <c r="D1373" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
@@ -35446,13 +36295,13 @@
         <v>58337</v>
       </c>
       <c r="B1374" s="7" t="s">
-        <v>125</v>
+        <v>409</v>
       </c>
       <c r="C1374" s="7" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D1374" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
@@ -35460,13 +36309,13 @@
         <v>58337</v>
       </c>
       <c r="B1375" s="7" t="s">
-        <v>125</v>
+        <v>747</v>
       </c>
       <c r="C1375" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D1375" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
@@ -35474,13 +36323,13 @@
         <v>58337</v>
       </c>
       <c r="B1376" s="7" t="s">
-        <v>125</v>
+        <v>747</v>
       </c>
       <c r="C1376" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D1376" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
@@ -35488,13 +36337,13 @@
         <v>58337</v>
       </c>
       <c r="B1377" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C1377" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D1377" s="7" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
@@ -35502,13 +36351,13 @@
         <v>58337</v>
       </c>
       <c r="B1378" s="7" t="s">
-        <v>1271</v>
+        <v>747</v>
       </c>
       <c r="C1378" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D1378" s="7" t="s">
-        <v>1068</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
@@ -35516,13 +36365,13 @@
         <v>58337</v>
       </c>
       <c r="B1379" s="7" t="s">
-        <v>412</v>
+        <v>747</v>
       </c>
       <c r="C1379" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D1379" s="7" t="s">
-        <v>758</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
@@ -35530,13 +36379,13 @@
         <v>58337</v>
       </c>
       <c r="B1380" s="7" t="s">
-        <v>1272</v>
+        <v>125</v>
       </c>
       <c r="C1380" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D1380" s="7" t="s">
-        <v>1273</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
@@ -35544,13 +36393,13 @@
         <v>58337</v>
       </c>
       <c r="B1381" s="7" t="s">
-        <v>1274</v>
+        <v>125</v>
       </c>
       <c r="C1381" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D1381" s="7" t="s">
-        <v>1275</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
@@ -35558,13 +36407,13 @@
         <v>58337</v>
       </c>
       <c r="B1382" s="7" t="s">
-        <v>1276</v>
+        <v>125</v>
       </c>
       <c r="C1382" s="7" t="s">
-        <v>409</v>
+        <v>756</v>
       </c>
       <c r="D1382" s="7" t="s">
-        <v>765</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
@@ -35572,13 +36421,13 @@
         <v>58337</v>
       </c>
       <c r="B1383" s="7" t="s">
-        <v>1277</v>
+        <v>757</v>
       </c>
       <c r="C1383" s="7" t="s">
-        <v>409</v>
+        <v>747</v>
       </c>
       <c r="D1383" s="7" t="s">
-        <v>765</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
@@ -35586,13 +36435,13 @@
         <v>58337</v>
       </c>
       <c r="B1384" s="7" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="C1384" s="7" t="s">
-        <v>409</v>
+        <v>747</v>
       </c>
       <c r="D1384" s="7" t="s">
-        <v>121</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
@@ -35600,13 +36449,13 @@
         <v>58337</v>
       </c>
       <c r="B1385" s="7" t="s">
-        <v>1279</v>
+        <v>412</v>
       </c>
       <c r="C1385" s="7" t="s">
-        <v>409</v>
+        <v>757</v>
       </c>
       <c r="D1385" s="7" t="s">
-        <v>121</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
@@ -35614,13 +36463,13 @@
         <v>58337</v>
       </c>
       <c r="B1386" s="7" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="C1386" s="7" t="s">
-        <v>1278</v>
+        <v>757</v>
       </c>
       <c r="D1386" s="7" t="s">
-        <v>526</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
@@ -35628,97 +36477,97 @@
         <v>58337</v>
       </c>
       <c r="B1387" s="7" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C1387" s="7" t="s">
-        <v>1279</v>
+        <v>757</v>
       </c>
       <c r="D1387" s="7" t="s">
-        <v>526</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1388">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1388" s="7" t="s">
-        <v>759</v>
+        <v>1276</v>
       </c>
       <c r="C1388" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D1388" s="7" t="s">
-        <v>10</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1389">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1389" s="7" t="s">
-        <v>414</v>
+        <v>1277</v>
       </c>
       <c r="C1389" s="7" t="s">
-        <v>759</v>
+        <v>409</v>
       </c>
       <c r="D1389" s="7" t="s">
-        <v>47</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1390">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1390" s="7" t="s">
-        <v>415</v>
+        <v>1278</v>
       </c>
       <c r="C1390" s="7" t="s">
-        <v>759</v>
+        <v>409</v>
       </c>
       <c r="D1390" s="7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1391">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1391" s="7" t="s">
-        <v>416</v>
+        <v>1279</v>
       </c>
       <c r="C1391" s="7" t="s">
-        <v>1282</v>
+        <v>409</v>
       </c>
       <c r="D1391" s="7" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1392">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1392" s="7" t="s">
-        <v>417</v>
+        <v>1280</v>
       </c>
       <c r="C1392" s="7" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D1392" s="7" t="s">
-        <v>27</v>
+        <v>526</v>
       </c>
     </row>
     <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1393">
-        <v>60063</v>
+        <v>58337</v>
       </c>
       <c r="B1393" s="7" t="s">
-        <v>418</v>
+        <v>1281</v>
       </c>
       <c r="C1393" s="7" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D1393" s="7" t="s">
-        <v>27</v>
+        <v>526</v>
       </c>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
@@ -35726,13 +36575,13 @@
         <v>60063</v>
       </c>
       <c r="B1394" s="7" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="C1394" s="7" t="s">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="D1394" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
@@ -35740,13 +36589,13 @@
         <v>60063</v>
       </c>
       <c r="B1395" s="7" t="s">
-        <v>1283</v>
+        <v>414</v>
       </c>
       <c r="C1395" s="7" t="s">
-        <v>81</v>
+        <v>759</v>
       </c>
       <c r="D1395" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
@@ -35754,13 +36603,13 @@
         <v>60063</v>
       </c>
       <c r="B1396" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1396" s="7" t="s">
         <v>759</v>
       </c>
       <c r="D1396" s="7" t="s">
-        <v>420</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
@@ -35768,13 +36617,13 @@
         <v>60063</v>
       </c>
       <c r="B1397" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C1397" s="7" t="s">
-        <v>759</v>
+        <v>1282</v>
       </c>
       <c r="D1397" s="7" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
@@ -35782,13 +36631,13 @@
         <v>60063</v>
       </c>
       <c r="B1398" s="7" t="s">
-        <v>1284</v>
+        <v>417</v>
       </c>
       <c r="C1398" s="7" t="s">
-        <v>421</v>
+        <v>1282</v>
       </c>
       <c r="D1398" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
@@ -35796,13 +36645,13 @@
         <v>60063</v>
       </c>
       <c r="B1399" s="7" t="s">
-        <v>759</v>
+        <v>418</v>
       </c>
       <c r="C1399" s="7" t="s">
-        <v>760</v>
+        <v>1282</v>
       </c>
       <c r="D1399" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
@@ -35810,13 +36659,13 @@
         <v>60063</v>
       </c>
       <c r="B1400" s="7" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="C1400" s="7" t="s">
-        <v>761</v>
+        <v>81</v>
       </c>
       <c r="D1400" s="7" t="s">
-        <v>1188</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
@@ -35824,13 +36673,13 @@
         <v>60063</v>
       </c>
       <c r="B1401" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C1401" s="7" t="s">
-        <v>759</v>
+        <v>81</v>
       </c>
       <c r="D1401" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
@@ -35838,13 +36687,13 @@
         <v>60063</v>
       </c>
       <c r="B1402" s="7" t="s">
-        <v>1286</v>
+        <v>419</v>
       </c>
       <c r="C1402" s="7" t="s">
-        <v>1282</v>
+        <v>759</v>
       </c>
       <c r="D1402" s="7" t="s">
-        <v>21</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
@@ -35852,97 +36701,97 @@
         <v>60063</v>
       </c>
       <c r="B1403" s="7" t="s">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="C1403" s="7" t="s">
-        <v>1282</v>
+        <v>759</v>
       </c>
       <c r="D1403" s="7" t="s">
-        <v>21</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1404">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1404" s="7" t="s">
-        <v>423</v>
+        <v>1284</v>
       </c>
       <c r="C1404" s="7" t="s">
-        <v>109</v>
+        <v>421</v>
       </c>
       <c r="D1404" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1405">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1405" s="7" t="s">
-        <v>109</v>
+        <v>759</v>
       </c>
       <c r="C1405" s="7" t="s">
-        <v>423</v>
+        <v>760</v>
       </c>
       <c r="D1405" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1406">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1406" s="7" t="s">
-        <v>424</v>
+        <v>760</v>
       </c>
       <c r="C1406" s="7" t="s">
-        <v>109</v>
+        <v>761</v>
       </c>
       <c r="D1406" s="7" t="s">
-        <v>10</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1407">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1407" s="7" t="s">
-        <v>109</v>
+        <v>1285</v>
       </c>
       <c r="C1407" s="7" t="s">
-        <v>424</v>
+        <v>759</v>
       </c>
       <c r="D1407" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1408">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1408" s="7" t="s">
-        <v>425</v>
+        <v>1286</v>
       </c>
       <c r="C1408" s="7" t="s">
-        <v>109</v>
+        <v>1282</v>
       </c>
       <c r="D1408" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1409">
-        <v>60043</v>
+        <v>60063</v>
       </c>
       <c r="B1409" s="7" t="s">
-        <v>109</v>
+        <v>1030</v>
       </c>
       <c r="C1409" s="7" t="s">
-        <v>425</v>
+        <v>1282</v>
       </c>
       <c r="D1409" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
@@ -35950,13 +36799,13 @@
         <v>60043</v>
       </c>
       <c r="B1410" s="7" t="s">
-        <v>1287</v>
+        <v>423</v>
       </c>
       <c r="C1410" s="7" t="s">
-        <v>1288</v>
+        <v>109</v>
       </c>
       <c r="D1410" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
@@ -35964,13 +36813,13 @@
         <v>60043</v>
       </c>
       <c r="B1411" s="7" t="s">
-        <v>1288</v>
+        <v>109</v>
       </c>
       <c r="C1411" s="7" t="s">
-        <v>1289</v>
+        <v>423</v>
       </c>
       <c r="D1411" s="7" t="s">
-        <v>1290</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
@@ -35978,13 +36827,13 @@
         <v>60043</v>
       </c>
       <c r="B1412" s="7" t="s">
-        <v>1288</v>
+        <v>424</v>
       </c>
       <c r="C1412" s="7" t="s">
-        <v>762</v>
+        <v>109</v>
       </c>
       <c r="D1412" s="7" t="s">
-        <v>1291</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
@@ -35992,13 +36841,13 @@
         <v>60043</v>
       </c>
       <c r="B1413" s="7" t="s">
-        <v>762</v>
+        <v>109</v>
       </c>
       <c r="C1413" s="7" t="s">
-        <v>1292</v>
+        <v>424</v>
       </c>
       <c r="D1413" s="7" t="s">
-        <v>1293</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
@@ -36006,13 +36855,13 @@
         <v>60043</v>
       </c>
       <c r="B1414" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1414" s="7" t="s">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="D1414" s="7" t="s">
-        <v>1294</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
@@ -36020,13 +36869,13 @@
         <v>60043</v>
       </c>
       <c r="B1415" s="7" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="C1415" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D1415" s="7" t="s">
-        <v>1294</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
@@ -36034,97 +36883,97 @@
         <v>60043</v>
       </c>
       <c r="B1416" s="7" t="s">
-        <v>426</v>
+        <v>1287</v>
       </c>
       <c r="C1416" s="7" t="s">
-        <v>425</v>
+        <v>1288</v>
       </c>
       <c r="D1416" s="7" t="s">
-        <v>1294</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1417">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1417" s="7" t="s">
-        <v>763</v>
+        <v>1288</v>
       </c>
       <c r="C1417" s="7" t="s">
-        <v>277</v>
+        <v>1289</v>
       </c>
       <c r="D1417" s="7" t="s">
-        <v>10</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1418">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1418" s="7" t="s">
-        <v>277</v>
+        <v>1288</v>
       </c>
       <c r="C1418" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D1418" s="7" t="s">
-        <v>47</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1419">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1419" s="7" t="s">
-        <v>428</v>
+        <v>762</v>
       </c>
       <c r="C1419" s="7" t="s">
-        <v>763</v>
+        <v>1292</v>
       </c>
       <c r="D1419" s="7" t="s">
-        <v>47</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1420">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1420" s="7" t="s">
-        <v>1295</v>
+        <v>426</v>
       </c>
       <c r="C1420" s="7" t="s">
-        <v>763</v>
+        <v>423</v>
       </c>
       <c r="D1420" s="7" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1421">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1421" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C1421" s="7" t="s">
-        <v>763</v>
+        <v>424</v>
       </c>
       <c r="D1421" s="7" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1422">
-        <v>58382</v>
+        <v>60043</v>
       </c>
       <c r="B1422" s="7" t="s">
-        <v>763</v>
+        <v>426</v>
       </c>
       <c r="C1422" s="7" t="s">
-        <v>1296</v>
+        <v>425</v>
       </c>
       <c r="D1422" s="7" t="s">
-        <v>23</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
@@ -36132,13 +36981,13 @@
         <v>58382</v>
       </c>
       <c r="B1423" s="7" t="s">
-        <v>1296</v>
+        <v>763</v>
       </c>
       <c r="C1423" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D1423" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
@@ -36149,10 +36998,10 @@
         <v>277</v>
       </c>
       <c r="C1424" s="7" t="s">
-        <v>1297</v>
+        <v>763</v>
       </c>
       <c r="D1424" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
@@ -36160,13 +37009,13 @@
         <v>58382</v>
       </c>
       <c r="B1425" s="7" t="s">
-        <v>1297</v>
+        <v>428</v>
       </c>
       <c r="C1425" s="7" t="s">
-        <v>1298</v>
+        <v>763</v>
       </c>
       <c r="D1425" s="7" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
@@ -36174,13 +37023,13 @@
         <v>58382</v>
       </c>
       <c r="B1426" s="7" t="s">
-        <v>430</v>
+        <v>1295</v>
       </c>
       <c r="C1426" s="7" t="s">
-        <v>1296</v>
+        <v>763</v>
       </c>
       <c r="D1426" s="7" t="s">
-        <v>431</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
@@ -36188,13 +37037,13 @@
         <v>58382</v>
       </c>
       <c r="B1427" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1427" s="7" t="s">
-        <v>1292</v>
+        <v>763</v>
       </c>
       <c r="D1427" s="7" t="s">
-        <v>431</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
@@ -36202,13 +37051,13 @@
         <v>58382</v>
       </c>
       <c r="B1428" s="7" t="s">
-        <v>277</v>
+        <v>763</v>
       </c>
       <c r="C1428" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D1428" s="7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
@@ -36216,13 +37065,13 @@
         <v>58382</v>
       </c>
       <c r="B1429" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1429" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C1429" s="7" t="s">
-        <v>1300</v>
-      </c>
       <c r="D1429" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
@@ -36230,13 +37079,13 @@
         <v>58382</v>
       </c>
       <c r="B1430" s="7" t="s">
-        <v>428</v>
+        <v>277</v>
       </c>
       <c r="C1430" s="7" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D1430" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
@@ -36244,13 +37093,13 @@
         <v>58382</v>
       </c>
       <c r="B1431" s="7" t="s">
-        <v>429</v>
+        <v>1297</v>
       </c>
       <c r="C1431" s="7" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D1431" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
@@ -36258,13 +37107,13 @@
         <v>58382</v>
       </c>
       <c r="B1432" s="7" t="s">
-        <v>1303</v>
+        <v>430</v>
       </c>
       <c r="C1432" s="7" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="D1432" s="7" t="s">
-        <v>1305</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
@@ -36272,97 +37121,97 @@
         <v>58382</v>
       </c>
       <c r="B1433" s="7" t="s">
-        <v>1306</v>
+        <v>430</v>
       </c>
       <c r="C1433" s="7" t="s">
-        <v>763</v>
+        <v>1292</v>
       </c>
       <c r="D1433" s="7" t="s">
-        <v>524</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1434" s="7" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="C1434" s="7" t="s">
-        <v>764</v>
+        <v>1299</v>
       </c>
       <c r="D1434" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1435" s="7" t="s">
-        <v>764</v>
+        <v>277</v>
       </c>
       <c r="C1435" s="7" t="s">
-        <v>433</v>
+        <v>1300</v>
       </c>
       <c r="D1435" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1436" s="7" t="s">
-        <v>1307</v>
+        <v>428</v>
       </c>
       <c r="C1436" s="7" t="s">
-        <v>764</v>
+        <v>1301</v>
       </c>
       <c r="D1436" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1437" s="7" t="s">
-        <v>764</v>
+        <v>429</v>
       </c>
       <c r="C1437" s="7" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="D1437" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1438" s="7" t="s">
-        <v>252</v>
+        <v>1303</v>
       </c>
       <c r="C1438" s="7" t="s">
-        <v>764</v>
+        <v>1304</v>
       </c>
       <c r="D1438" s="7" t="s">
-        <v>27</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439">
-        <v>59406</v>
+        <v>58382</v>
       </c>
       <c r="B1439" s="7" t="s">
-        <v>764</v>
+        <v>1306</v>
       </c>
       <c r="C1439" s="7" t="s">
-        <v>252</v>
+        <v>763</v>
       </c>
       <c r="D1439" s="7" t="s">
-        <v>21</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
@@ -36373,10 +37222,10 @@
         <v>433</v>
       </c>
       <c r="C1440" s="7" t="s">
-        <v>252</v>
+        <v>764</v>
       </c>
       <c r="D1440" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
@@ -36384,13 +37233,13 @@
         <v>59406</v>
       </c>
       <c r="B1441" s="7" t="s">
-        <v>434</v>
+        <v>764</v>
       </c>
       <c r="C1441" s="7" t="s">
-        <v>764</v>
+        <v>433</v>
       </c>
       <c r="D1441" s="7" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
@@ -36398,13 +37247,13 @@
         <v>59406</v>
       </c>
       <c r="B1442" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1442" s="7" t="s">
         <v>764</v>
       </c>
       <c r="D1442" s="7" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
@@ -36412,13 +37261,13 @@
         <v>59406</v>
       </c>
       <c r="B1443" s="7" t="s">
-        <v>436</v>
+        <v>764</v>
       </c>
       <c r="C1443" s="7" t="s">
-        <v>433</v>
+        <v>1307</v>
       </c>
       <c r="D1443" s="7" t="s">
-        <v>1309</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
@@ -36426,13 +37275,13 @@
         <v>59406</v>
       </c>
       <c r="B1444" s="7" t="s">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="C1444" s="7" t="s">
-        <v>433</v>
+        <v>764</v>
       </c>
       <c r="D1444" s="7" t="s">
-        <v>1309</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
@@ -36440,13 +37289,13 @@
         <v>59406</v>
       </c>
       <c r="B1445" s="7" t="s">
-        <v>1310</v>
+        <v>764</v>
       </c>
       <c r="C1445" s="7" t="s">
-        <v>433</v>
+        <v>252</v>
       </c>
       <c r="D1445" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
@@ -36454,80 +37303,80 @@
         <v>59406</v>
       </c>
       <c r="B1446" s="7" t="s">
-        <v>1311</v>
+        <v>433</v>
       </c>
       <c r="C1446" s="7" t="s">
-        <v>433</v>
+        <v>252</v>
       </c>
       <c r="D1446" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1447" s="7" t="s">
-        <v>1312</v>
+        <v>434</v>
       </c>
       <c r="C1447" s="7" t="s">
-        <v>437</v>
+        <v>764</v>
       </c>
       <c r="D1447" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1448" s="7" t="s">
-        <v>437</v>
+        <v>1308</v>
       </c>
       <c r="C1448" s="7" t="s">
-        <v>1312</v>
+        <v>764</v>
       </c>
       <c r="D1448" s="7" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1449" s="7" t="s">
-        <v>1312</v>
+        <v>436</v>
       </c>
       <c r="C1449" s="7" t="s">
-        <v>132</v>
+        <v>433</v>
       </c>
       <c r="D1449" s="7" t="s">
-        <v>523</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1450" s="7" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="C1450" s="7" t="s">
-        <v>1312</v>
+        <v>433</v>
       </c>
       <c r="D1450" s="7" t="s">
-        <v>522</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1451" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C1451" s="7" t="s">
-        <v>1312</v>
+        <v>433</v>
       </c>
       <c r="D1451" s="7" t="s">
         <v>121</v>
@@ -36535,13 +37384,13 @@
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452">
-        <v>60004</v>
+        <v>59406</v>
       </c>
       <c r="B1452" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C1452" s="7" t="s">
-        <v>1312</v>
+        <v>433</v>
       </c>
       <c r="D1452" s="7" t="s">
         <v>121</v>
@@ -36552,13 +37401,13 @@
         <v>60004</v>
       </c>
       <c r="B1453" s="7" t="s">
-        <v>766</v>
+        <v>1312</v>
       </c>
       <c r="C1453" s="7" t="s">
-        <v>1313</v>
+        <v>437</v>
       </c>
       <c r="D1453" s="7" t="s">
-        <v>438</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
@@ -36566,13 +37415,13 @@
         <v>60004</v>
       </c>
       <c r="B1454" s="7" t="s">
-        <v>767</v>
+        <v>437</v>
       </c>
       <c r="C1454" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D1454" s="7" t="s">
-        <v>438</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
@@ -36580,13 +37429,13 @@
         <v>60004</v>
       </c>
       <c r="B1455" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C1455" s="7" t="s">
-        <v>1314</v>
+        <v>132</v>
       </c>
       <c r="D1455" s="7" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
@@ -36594,13 +37443,13 @@
         <v>60004</v>
       </c>
       <c r="B1456" s="7" t="s">
-        <v>768</v>
+        <v>132</v>
       </c>
       <c r="C1456" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D1456" s="7" t="s">
-        <v>121</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
@@ -36608,13 +37457,13 @@
         <v>60004</v>
       </c>
       <c r="B1457" s="7" t="s">
-        <v>769</v>
+        <v>1313</v>
       </c>
       <c r="C1457" s="7" t="s">
-        <v>770</v>
+        <v>1312</v>
       </c>
       <c r="D1457" s="7" t="s">
-        <v>771</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
@@ -36622,13 +37471,13 @@
         <v>60004</v>
       </c>
       <c r="B1458" s="7" t="s">
-        <v>772</v>
+        <v>1314</v>
       </c>
       <c r="C1458" s="7" t="s">
-        <v>773</v>
+        <v>1312</v>
       </c>
       <c r="D1458" s="7" t="s">
-        <v>1316</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
@@ -36636,13 +37485,13 @@
         <v>60004</v>
       </c>
       <c r="B1459" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C1459" s="7" t="s">
-        <v>775</v>
+        <v>1313</v>
       </c>
       <c r="D1459" s="7" t="s">
-        <v>771</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
@@ -36650,97 +37499,97 @@
         <v>60004</v>
       </c>
       <c r="B1460" s="7" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C1460" s="7" t="s">
-        <v>777</v>
+        <v>1314</v>
       </c>
       <c r="D1460" s="7" t="s">
-        <v>1316</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1461" s="7" t="s">
-        <v>439</v>
+        <v>1315</v>
       </c>
       <c r="C1461" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D1461" s="7" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1462" s="7" t="s">
-        <v>1317</v>
+        <v>768</v>
       </c>
       <c r="C1462" s="7" t="s">
-        <v>439</v>
+        <v>1314</v>
       </c>
       <c r="D1462" s="7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1463" s="7" t="s">
-        <v>1318</v>
+        <v>769</v>
       </c>
       <c r="C1463" s="7" t="s">
-        <v>439</v>
+        <v>770</v>
       </c>
       <c r="D1463" s="7" t="s">
-        <v>47</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1464" s="7" t="s">
-        <v>439</v>
+        <v>772</v>
       </c>
       <c r="C1464" s="7" t="s">
-        <v>1318</v>
+        <v>773</v>
       </c>
       <c r="D1464" s="7" t="s">
-        <v>10</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1465" s="7" t="s">
-        <v>1319</v>
+        <v>774</v>
       </c>
       <c r="C1465" s="7" t="s">
-        <v>439</v>
+        <v>775</v>
       </c>
       <c r="D1465" s="7" t="s">
-        <v>47</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1466" s="7" t="s">
-        <v>439</v>
+        <v>776</v>
       </c>
       <c r="C1466" s="7" t="s">
-        <v>1319</v>
+        <v>777</v>
       </c>
       <c r="D1466" s="7" t="s">
-        <v>10</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
@@ -36748,13 +37597,13 @@
         <v>59229</v>
       </c>
       <c r="B1467" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1467" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="C1467" s="7" t="s">
-        <v>1320</v>
-      </c>
       <c r="D1467" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
@@ -36762,13 +37611,13 @@
         <v>59229</v>
       </c>
       <c r="B1468" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C1468" s="7" t="s">
-        <v>1321</v>
+        <v>439</v>
       </c>
       <c r="D1468" s="7" t="s">
-        <v>587</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
@@ -36776,13 +37625,13 @@
         <v>59229</v>
       </c>
       <c r="B1469" s="7" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C1469" s="7" t="s">
-        <v>1322</v>
+        <v>439</v>
       </c>
       <c r="D1469" s="7" t="s">
-        <v>587</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
@@ -36790,13 +37639,13 @@
         <v>59229</v>
       </c>
       <c r="B1470" s="7" t="s">
-        <v>1323</v>
+        <v>439</v>
       </c>
       <c r="C1470" s="7" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D1470" s="7" t="s">
-        <v>914</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
@@ -36804,13 +37653,13 @@
         <v>59229</v>
       </c>
       <c r="B1471" s="7" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C1471" s="7" t="s">
-        <v>1325</v>
+        <v>439</v>
       </c>
       <c r="D1471" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
@@ -36818,13 +37667,13 @@
         <v>59229</v>
       </c>
       <c r="B1472" s="7" t="s">
-        <v>1326</v>
+        <v>439</v>
       </c>
       <c r="C1472" s="7" t="s">
-        <v>432</v>
+        <v>1319</v>
       </c>
       <c r="D1472" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
@@ -36832,13 +37681,13 @@
         <v>59229</v>
       </c>
       <c r="B1473" s="7" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="C1473" s="7" t="s">
-        <v>432</v>
+        <v>1320</v>
       </c>
       <c r="D1473" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
@@ -36846,10 +37695,10 @@
         <v>59229</v>
       </c>
       <c r="B1474" s="7" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="C1474" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D1474" s="7" t="s">
         <v>587</v>
@@ -36860,97 +37709,97 @@
         <v>59229</v>
       </c>
       <c r="B1475" s="7" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C1475" s="7" t="s">
-        <v>439</v>
+        <v>1322</v>
       </c>
       <c r="D1475" s="7" t="s">
-        <v>420</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1476" s="7" t="s">
-        <v>440</v>
+        <v>1323</v>
       </c>
       <c r="C1476" s="7" t="s">
-        <v>442</v>
+        <v>1322</v>
       </c>
       <c r="D1476" s="7" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1477" s="7" t="s">
-        <v>440</v>
+        <v>1324</v>
       </c>
       <c r="C1477" s="7" t="s">
-        <v>443</v>
+        <v>1325</v>
       </c>
       <c r="D1477" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1478" s="7" t="s">
-        <v>440</v>
+        <v>1326</v>
       </c>
       <c r="C1478" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D1478" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1479" s="7" t="s">
-        <v>440</v>
+        <v>1327</v>
       </c>
       <c r="C1479" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D1479" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1480" s="7" t="s">
-        <v>441</v>
+        <v>1328</v>
       </c>
       <c r="C1480" s="7" t="s">
-        <v>442</v>
+        <v>1322</v>
       </c>
       <c r="D1480" s="7" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481">
-        <v>58774</v>
+        <v>59229</v>
       </c>
       <c r="B1481" s="7" t="s">
-        <v>441</v>
+        <v>1329</v>
       </c>
       <c r="C1481" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D1481" s="7" t="s">
-        <v>47</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
@@ -36958,10 +37807,10 @@
         <v>58774</v>
       </c>
       <c r="B1482" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1482" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1482" s="7" t="s">
         <v>47</v>
@@ -36972,10 +37821,10 @@
         <v>58774</v>
       </c>
       <c r="B1483" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1483" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D1483" s="7" t="s">
         <v>47</v>
@@ -36986,13 +37835,13 @@
         <v>58774</v>
       </c>
       <c r="B1484" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1484" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D1484" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
@@ -37000,13 +37849,13 @@
         <v>58774</v>
       </c>
       <c r="B1485" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1485" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D1485" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
@@ -37014,13 +37863,13 @@
         <v>58774</v>
       </c>
       <c r="B1486" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1486" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D1486" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
@@ -37028,13 +37877,13 @@
         <v>58774</v>
       </c>
       <c r="B1487" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1487" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C1487" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="D1487" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
@@ -37042,13 +37891,13 @@
         <v>58774</v>
       </c>
       <c r="B1488" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1488" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C1488" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="D1488" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
@@ -37056,13 +37905,13 @@
         <v>58774</v>
       </c>
       <c r="B1489" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C1489" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D1489" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
@@ -37070,7 +37919,7 @@
         <v>58774</v>
       </c>
       <c r="B1490" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C1490" s="7" t="s">
         <v>440</v>
@@ -37084,7 +37933,7 @@
         <v>58774</v>
       </c>
       <c r="B1491" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C1491" s="7" t="s">
         <v>441</v>
@@ -37098,13 +37947,13 @@
         <v>58774</v>
       </c>
       <c r="B1492" s="7" t="s">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="C1492" s="7" t="s">
         <v>440</v>
       </c>
       <c r="D1492" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
@@ -37112,13 +37961,13 @@
         <v>58774</v>
       </c>
       <c r="B1493" s="7" t="s">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="C1493" s="7" t="s">
         <v>441</v>
       </c>
       <c r="D1493" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
@@ -37126,13 +37975,13 @@
         <v>58774</v>
       </c>
       <c r="B1494" s="7" t="s">
-        <v>1330</v>
+        <v>444</v>
       </c>
       <c r="C1494" s="7" t="s">
-        <v>1331</v>
+        <v>440</v>
       </c>
       <c r="D1494" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
@@ -37140,13 +37989,13 @@
         <v>58774</v>
       </c>
       <c r="B1495" s="7" t="s">
-        <v>1331</v>
+        <v>444</v>
       </c>
       <c r="C1495" s="7" t="s">
-        <v>1330</v>
+        <v>441</v>
       </c>
       <c r="D1495" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
@@ -37154,13 +38003,13 @@
         <v>58774</v>
       </c>
       <c r="B1496" s="7" t="s">
-        <v>1332</v>
+        <v>445</v>
       </c>
       <c r="C1496" s="7" t="s">
-        <v>1331</v>
+        <v>440</v>
       </c>
       <c r="D1496" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
@@ -37168,13 +38017,13 @@
         <v>58774</v>
       </c>
       <c r="B1497" s="7" t="s">
-        <v>1331</v>
+        <v>445</v>
       </c>
       <c r="C1497" s="7" t="s">
-        <v>1332</v>
+        <v>441</v>
       </c>
       <c r="D1497" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
@@ -37182,13 +38031,13 @@
         <v>58774</v>
       </c>
       <c r="B1498" s="7" t="s">
-        <v>1333</v>
+        <v>30</v>
       </c>
       <c r="C1498" s="7" t="s">
-        <v>1334</v>
+        <v>440</v>
       </c>
       <c r="D1498" s="7" t="s">
-        <v>61</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
@@ -37196,80 +38045,80 @@
         <v>58774</v>
       </c>
       <c r="B1499" s="7" t="s">
-        <v>1334</v>
+        <v>30</v>
       </c>
       <c r="C1499" s="7" t="s">
-        <v>1333</v>
+        <v>441</v>
       </c>
       <c r="D1499" s="7" t="s">
-        <v>61</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1500" s="7" t="s">
-        <v>446</v>
+        <v>1330</v>
       </c>
       <c r="C1500" s="7" t="s">
-        <v>447</v>
+        <v>1331</v>
       </c>
       <c r="D1500" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1501" s="7" t="s">
-        <v>447</v>
+        <v>1331</v>
       </c>
       <c r="C1501" s="7" t="s">
-        <v>446</v>
+        <v>1330</v>
       </c>
       <c r="D1501" s="7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1502" s="7" t="s">
-        <v>35</v>
+        <v>1332</v>
       </c>
       <c r="C1502" s="7" t="s">
-        <v>448</v>
+        <v>1331</v>
       </c>
       <c r="D1502" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1503" s="7" t="s">
-        <v>35</v>
+        <v>1331</v>
       </c>
       <c r="C1503" s="7" t="s">
-        <v>449</v>
+        <v>1332</v>
       </c>
       <c r="D1503" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1504" s="7" t="s">
-        <v>35</v>
+        <v>1333</v>
       </c>
       <c r="C1504" s="7" t="s">
-        <v>107</v>
+        <v>1334</v>
       </c>
       <c r="D1504" s="7" t="s">
         <v>61</v>
@@ -37277,16 +38126,16 @@
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505">
-        <v>60098</v>
+        <v>58774</v>
       </c>
       <c r="B1505" s="7" t="s">
-        <v>447</v>
+        <v>1334</v>
       </c>
       <c r="C1505" s="7" t="s">
-        <v>147</v>
+        <v>1333</v>
       </c>
       <c r="D1505" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
@@ -37294,13 +38143,13 @@
         <v>60098</v>
       </c>
       <c r="B1506" s="7" t="s">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="C1506" s="7" t="s">
-        <v>54</v>
+        <v>447</v>
       </c>
       <c r="D1506" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
@@ -37308,66 +38157,66 @@
         <v>60098</v>
       </c>
       <c r="B1507" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1507" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C1507" s="7" t="s">
-        <v>778</v>
-      </c>
       <c r="D1507" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1508" s="7" t="s">
-        <v>451</v>
+        <v>35</v>
       </c>
       <c r="C1508" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D1508" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1509" s="7" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="C1509" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1509" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1510" s="7" t="s">
-        <v>451</v>
+        <v>35</v>
       </c>
       <c r="C1510" s="7" t="s">
-        <v>1335</v>
+        <v>107</v>
       </c>
       <c r="D1510" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1511" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C1511" s="7" t="s">
-        <v>453</v>
+        <v>147</v>
       </c>
       <c r="D1511" s="7" t="s">
         <v>59</v>
@@ -37375,30 +38224,30 @@
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1512" s="7" t="s">
-        <v>453</v>
+        <v>147</v>
       </c>
       <c r="C1512" s="7" t="s">
-        <v>452</v>
+        <v>54</v>
       </c>
       <c r="D1512" s="7" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="B1513" s="7" t="s">
-        <v>741</v>
+        <v>446</v>
       </c>
       <c r="C1513" s="7" t="s">
-        <v>37</v>
+        <v>778</v>
       </c>
       <c r="D1513" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
@@ -37406,13 +38255,13 @@
         <v>60097</v>
       </c>
       <c r="B1514" s="7" t="s">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="C1514" s="7" t="s">
-        <v>741</v>
+        <v>452</v>
       </c>
       <c r="D1514" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
@@ -37420,13 +38269,13 @@
         <v>60097</v>
       </c>
       <c r="B1515" s="7" t="s">
-        <v>779</v>
+        <v>452</v>
       </c>
       <c r="C1515" s="7" t="s">
-        <v>1336</v>
+        <v>451</v>
       </c>
       <c r="D1515" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
@@ -37434,13 +38283,13 @@
         <v>60097</v>
       </c>
       <c r="B1516" s="7" t="s">
-        <v>1336</v>
+        <v>451</v>
       </c>
       <c r="C1516" s="7" t="s">
-        <v>779</v>
+        <v>1335</v>
       </c>
       <c r="D1516" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
@@ -37448,13 +38297,13 @@
         <v>60097</v>
       </c>
       <c r="B1517" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C1517" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D1517" s="7" t="s">
-        <v>522</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
@@ -37462,13 +38311,13 @@
         <v>60097</v>
       </c>
       <c r="B1518" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C1518" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D1518" s="7" t="s">
-        <v>523</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
@@ -37476,97 +38325,97 @@
         <v>60097</v>
       </c>
       <c r="B1519" s="7" t="s">
-        <v>454</v>
+        <v>741</v>
       </c>
       <c r="C1519" s="7" t="s">
-        <v>1337</v>
+        <v>37</v>
       </c>
       <c r="D1519" s="7" t="s">
-        <v>1338</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1520" s="7" t="s">
-        <v>457</v>
+        <v>37</v>
       </c>
       <c r="C1520" s="7" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="D1520" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1521" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C1521" s="7" t="s">
-        <v>457</v>
+        <v>1336</v>
       </c>
       <c r="D1521" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1522" s="7" t="s">
-        <v>458</v>
+        <v>1336</v>
       </c>
       <c r="C1522" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D1522" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1523" s="7" t="s">
-        <v>780</v>
+        <v>455</v>
       </c>
       <c r="C1523" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D1523" s="7" t="s">
-        <v>10</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1524" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C1524" s="7" t="s">
-        <v>780</v>
+        <v>456</v>
       </c>
       <c r="D1524" s="7" t="s">
-        <v>47</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1525" s="7" t="s">
-        <v>780</v>
+        <v>454</v>
       </c>
       <c r="C1525" s="7" t="s">
-        <v>459</v>
+        <v>1337</v>
       </c>
       <c r="D1525" s="7" t="s">
-        <v>10</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
@@ -37574,7 +38423,7 @@
         <v>57815</v>
       </c>
       <c r="B1526" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C1526" s="7" t="s">
         <v>780</v>
@@ -37591,7 +38440,7 @@
         <v>780</v>
       </c>
       <c r="C1527" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D1527" s="7" t="s">
         <v>10</v>
@@ -37602,7 +38451,7 @@
         <v>57815</v>
       </c>
       <c r="B1528" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C1528" s="7" t="s">
         <v>780</v>
@@ -37619,7 +38468,7 @@
         <v>780</v>
       </c>
       <c r="C1529" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D1529" s="7" t="s">
         <v>10</v>
@@ -37630,7 +38479,7 @@
         <v>57815</v>
       </c>
       <c r="B1530" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C1530" s="7" t="s">
         <v>780</v>
@@ -37647,7 +38496,7 @@
         <v>780</v>
       </c>
       <c r="C1531" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D1531" s="7" t="s">
         <v>10</v>
@@ -37658,7 +38507,7 @@
         <v>57815</v>
       </c>
       <c r="B1532" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C1532" s="7" t="s">
         <v>780</v>
@@ -37675,7 +38524,7 @@
         <v>780</v>
       </c>
       <c r="C1533" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D1533" s="7" t="s">
         <v>10</v>
@@ -37686,10 +38535,10 @@
         <v>57815</v>
       </c>
       <c r="B1534" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C1534" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D1534" s="7" t="s">
         <v>47</v>
@@ -37700,10 +38549,10 @@
         <v>57815</v>
       </c>
       <c r="B1535" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1535" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D1535" s="7" t="s">
         <v>10</v>
@@ -37714,10 +38563,10 @@
         <v>57815</v>
       </c>
       <c r="B1536" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C1536" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D1536" s="7" t="s">
         <v>47</v>
@@ -37728,10 +38577,10 @@
         <v>57815</v>
       </c>
       <c r="B1537" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1537" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D1537" s="7" t="s">
         <v>10</v>
@@ -37742,10 +38591,10 @@
         <v>57815</v>
       </c>
       <c r="B1538" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1538" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D1538" s="7" t="s">
         <v>47</v>
@@ -37756,10 +38605,10 @@
         <v>57815</v>
       </c>
       <c r="B1539" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1539" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1539" s="7" t="s">
         <v>10</v>
@@ -37770,7 +38619,7 @@
         <v>57815</v>
       </c>
       <c r="B1540" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C1540" s="7" t="s">
         <v>781</v>
@@ -37787,7 +38636,7 @@
         <v>781</v>
       </c>
       <c r="C1541" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D1541" s="7" t="s">
         <v>10</v>
@@ -37798,7 +38647,7 @@
         <v>57815</v>
       </c>
       <c r="B1542" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C1542" s="7" t="s">
         <v>781</v>
@@ -37815,7 +38664,7 @@
         <v>781</v>
       </c>
       <c r="C1543" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D1543" s="7" t="s">
         <v>10</v>
@@ -37826,7 +38675,7 @@
         <v>57815</v>
       </c>
       <c r="B1544" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C1544" s="7" t="s">
         <v>781</v>
@@ -37843,7 +38692,7 @@
         <v>781</v>
       </c>
       <c r="C1545" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D1545" s="7" t="s">
         <v>10</v>
@@ -37854,13 +38703,13 @@
         <v>57815</v>
       </c>
       <c r="B1546" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C1546" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D1546" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
@@ -37868,13 +38717,13 @@
         <v>57815</v>
       </c>
       <c r="B1547" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C1547" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D1547" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
@@ -37882,13 +38731,13 @@
         <v>57815</v>
       </c>
       <c r="B1548" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C1548" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D1548" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
@@ -37896,13 +38745,13 @@
         <v>57815</v>
       </c>
       <c r="B1549" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C1549" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D1549" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
@@ -37910,13 +38759,13 @@
         <v>57815</v>
       </c>
       <c r="B1550" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C1550" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D1550" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
@@ -37924,13 +38773,13 @@
         <v>57815</v>
       </c>
       <c r="B1551" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C1551" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D1551" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
@@ -37938,13 +38787,13 @@
         <v>57815</v>
       </c>
       <c r="B1552" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C1552" s="7" t="s">
-        <v>1339</v>
+        <v>782</v>
       </c>
       <c r="D1552" s="7" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
@@ -37952,13 +38801,13 @@
         <v>57815</v>
       </c>
       <c r="B1553" s="7" t="s">
-        <v>469</v>
+        <v>782</v>
       </c>
       <c r="C1553" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D1553" s="7" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
@@ -37966,97 +38815,97 @@
         <v>57815</v>
       </c>
       <c r="B1554" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C1554" s="7" t="s">
-        <v>468</v>
+        <v>782</v>
       </c>
       <c r="D1554" s="7" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1555">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1555" s="7" t="s">
-        <v>472</v>
+        <v>782</v>
       </c>
       <c r="C1555" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D1555" s="7" t="s">
-        <v>10</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1556">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1556" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C1556" s="7" t="s">
-        <v>471</v>
+        <v>782</v>
       </c>
       <c r="D1556" s="7" t="s">
-        <v>10</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1557">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1557" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C1557" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D1557" s="7" t="s">
-        <v>10</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1558">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1558" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C1558" s="7" t="s">
-        <v>472</v>
+        <v>1339</v>
       </c>
       <c r="D1558" s="7" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1559">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1559" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1559" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D1559" s="7" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1560">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1560" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1560" s="7" t="s">
-        <v>783</v>
+        <v>468</v>
       </c>
       <c r="D1560" s="7" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
@@ -38067,10 +38916,10 @@
         <v>472</v>
       </c>
       <c r="C1561" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="D1561" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
@@ -38081,10 +38930,10 @@
         <v>473</v>
       </c>
       <c r="C1562" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="D1562" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
@@ -38095,10 +38944,10 @@
         <v>783</v>
       </c>
       <c r="C1563" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="D1563" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
@@ -38106,13 +38955,13 @@
         <v>57899</v>
       </c>
       <c r="B1564" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="C1564" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D1564" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
@@ -38120,13 +38969,13 @@
         <v>57899</v>
       </c>
       <c r="B1565" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C1565" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D1565" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
@@ -38134,13 +38983,13 @@
         <v>57899</v>
       </c>
       <c r="B1566" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C1566" s="7" t="s">
-        <v>475</v>
+        <v>783</v>
       </c>
       <c r="D1566" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
@@ -38151,10 +39000,10 @@
         <v>472</v>
       </c>
       <c r="C1567" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1567" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
@@ -38165,10 +39014,10 @@
         <v>473</v>
       </c>
       <c r="C1568" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1568" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
@@ -38179,10 +39028,10 @@
         <v>783</v>
       </c>
       <c r="C1569" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1569" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
@@ -38190,13 +39039,13 @@
         <v>57899</v>
       </c>
       <c r="B1570" s="7" t="s">
-        <v>1340</v>
+        <v>784</v>
       </c>
       <c r="C1570" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D1570" s="7" t="s">
-        <v>481</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
@@ -38204,13 +39053,13 @@
         <v>57899</v>
       </c>
       <c r="B1571" s="7" t="s">
-        <v>1341</v>
+        <v>475</v>
       </c>
       <c r="C1571" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D1571" s="7" t="s">
-        <v>481</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
@@ -38218,13 +39067,13 @@
         <v>57899</v>
       </c>
       <c r="B1572" s="7" t="s">
-        <v>1342</v>
+        <v>474</v>
       </c>
       <c r="C1572" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D1572" s="7" t="s">
-        <v>481</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
@@ -38232,13 +39081,13 @@
         <v>57899</v>
       </c>
       <c r="B1573" s="7" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C1573" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1573" s="7" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
@@ -38246,13 +39095,13 @@
         <v>57899</v>
       </c>
       <c r="B1574" s="7" t="s">
-        <v>41</v>
+        <v>473</v>
       </c>
       <c r="C1574" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1574" s="7" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
@@ -38260,13 +39109,13 @@
         <v>57899</v>
       </c>
       <c r="B1575" s="7" t="s">
-        <v>1343</v>
+        <v>783</v>
       </c>
       <c r="C1575" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1575" s="7" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
@@ -38274,7 +39123,7 @@
         <v>57899</v>
       </c>
       <c r="B1576" s="7" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C1576" s="7" t="s">
         <v>472</v>
@@ -38288,7 +39137,7 @@
         <v>57899</v>
       </c>
       <c r="B1577" s="7" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C1577" s="7" t="s">
         <v>472</v>
@@ -38302,7 +39151,7 @@
         <v>57899</v>
       </c>
       <c r="B1578" s="7" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C1578" s="7" t="s">
         <v>472</v>
@@ -38316,13 +39165,13 @@
         <v>57899</v>
       </c>
       <c r="B1579" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1579" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C1579" s="7" t="s">
-        <v>1347</v>
-      </c>
       <c r="D1579" s="7" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
@@ -38330,13 +39179,13 @@
         <v>57899</v>
       </c>
       <c r="B1580" s="7" t="s">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="C1580" s="7" t="s">
-        <v>1347</v>
+        <v>472</v>
       </c>
       <c r="D1580" s="7" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
@@ -38344,80 +39193,80 @@
         <v>57899</v>
       </c>
       <c r="B1581" s="7" t="s">
-        <v>783</v>
+        <v>1343</v>
       </c>
       <c r="C1581" s="7" t="s">
-        <v>1347</v>
+        <v>472</v>
       </c>
       <c r="D1581" s="7" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1582">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1582" s="7" t="s">
-        <v>477</v>
+        <v>1344</v>
       </c>
       <c r="C1582" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D1582" s="7" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1583">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1583" s="7" t="s">
-        <v>478</v>
+        <v>1345</v>
       </c>
       <c r="C1583" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D1583" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1584">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1584" s="7" t="s">
-        <v>478</v>
+        <v>1346</v>
       </c>
       <c r="C1584" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D1584" s="7" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1585">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1585" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C1585" s="7" t="s">
-        <v>54</v>
+        <v>1347</v>
       </c>
       <c r="D1585" s="7" t="s">
-        <v>587</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1586">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1586" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C1586" s="7" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D1586" s="7" t="s">
         <v>45</v>
@@ -38425,16 +39274,16 @@
     </row>
     <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1587">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1587" s="7" t="s">
-        <v>1348</v>
+        <v>783</v>
       </c>
       <c r="C1587" s="7" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D1587" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
@@ -38442,13 +39291,13 @@
         <v>59668</v>
       </c>
       <c r="B1588" s="7" t="s">
-        <v>1348</v>
+        <v>477</v>
       </c>
       <c r="C1588" s="7" t="s">
-        <v>786</v>
+        <v>478</v>
       </c>
       <c r="D1588" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
@@ -38456,13 +39305,13 @@
         <v>59668</v>
       </c>
       <c r="B1589" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1589" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C1589" s="7" t="s">
-        <v>787</v>
-      </c>
       <c r="D1589" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
@@ -38470,97 +39319,97 @@
         <v>59668</v>
       </c>
       <c r="B1590" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1590" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D1590" s="7" t="s">
-        <v>481</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1591">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1591" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1591" s="7" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="D1591" s="7" t="s">
-        <v>10</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1592">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1592" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C1592" s="7" t="s">
-        <v>482</v>
+        <v>1348</v>
       </c>
       <c r="D1592" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1593">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1593" s="7" t="s">
-        <v>482</v>
+        <v>1348</v>
       </c>
       <c r="C1593" s="7" t="s">
-        <v>484</v>
+        <v>1349</v>
       </c>
       <c r="D1593" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1594">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1594" s="7" t="s">
-        <v>484</v>
+        <v>1348</v>
       </c>
       <c r="C1594" s="7" t="s">
-        <v>482</v>
+        <v>786</v>
       </c>
       <c r="D1594" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1595">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1595" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C1595" s="7" t="s">
-        <v>485</v>
+        <v>787</v>
       </c>
       <c r="D1595" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1596">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1596" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C1596" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D1596" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
@@ -38571,7 +39420,7 @@
         <v>482</v>
       </c>
       <c r="C1597" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D1597" s="7" t="s">
         <v>10</v>
@@ -38582,7 +39431,7 @@
         <v>58651</v>
       </c>
       <c r="B1598" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C1598" s="7" t="s">
         <v>482</v>
@@ -38599,7 +39448,7 @@
         <v>482</v>
       </c>
       <c r="C1599" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D1599" s="7" t="s">
         <v>10</v>
@@ -38610,7 +39459,7 @@
         <v>58651</v>
       </c>
       <c r="B1600" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C1600" s="7" t="s">
         <v>482</v>
@@ -38627,10 +39476,10 @@
         <v>482</v>
       </c>
       <c r="C1601" s="7" t="s">
-        <v>741</v>
+        <v>485</v>
       </c>
       <c r="D1601" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
@@ -38638,13 +39487,13 @@
         <v>58651</v>
       </c>
       <c r="B1602" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1602" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C1602" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D1602" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
@@ -38652,13 +39501,13 @@
         <v>58651</v>
       </c>
       <c r="B1603" s="7" t="s">
-        <v>1350</v>
+        <v>482</v>
       </c>
       <c r="C1603" s="7" t="s">
-        <v>741</v>
+        <v>486</v>
       </c>
       <c r="D1603" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
@@ -38666,13 +39515,13 @@
         <v>58651</v>
       </c>
       <c r="B1604" s="7" t="s">
-        <v>279</v>
+        <v>486</v>
       </c>
       <c r="C1604" s="7" t="s">
-        <v>789</v>
+        <v>482</v>
       </c>
       <c r="D1604" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
@@ -38680,13 +39529,13 @@
         <v>58651</v>
       </c>
       <c r="B1605" s="7" t="s">
-        <v>279</v>
+        <v>482</v>
       </c>
       <c r="C1605" s="7" t="s">
-        <v>1351</v>
+        <v>487</v>
       </c>
       <c r="D1605" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
@@ -38694,13 +39543,13 @@
         <v>58651</v>
       </c>
       <c r="B1606" s="7" t="s">
-        <v>789</v>
+        <v>487</v>
       </c>
       <c r="C1606" s="7" t="s">
-        <v>279</v>
+        <v>482</v>
       </c>
       <c r="D1606" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
@@ -38708,13 +39557,13 @@
         <v>58651</v>
       </c>
       <c r="B1607" s="7" t="s">
-        <v>1351</v>
+        <v>482</v>
       </c>
       <c r="C1607" s="7" t="s">
-        <v>279</v>
+        <v>741</v>
       </c>
       <c r="D1607" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
@@ -38722,97 +39571,97 @@
         <v>58651</v>
       </c>
       <c r="B1608" s="7" t="s">
-        <v>1352</v>
+        <v>482</v>
       </c>
       <c r="C1608" s="7" t="s">
-        <v>788</v>
+        <v>60</v>
       </c>
       <c r="D1608" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1609">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1609" s="7" t="s">
-        <v>490</v>
+        <v>1350</v>
       </c>
       <c r="C1609" s="7" t="s">
-        <v>488</v>
+        <v>741</v>
       </c>
       <c r="D1609" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1610">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1610" s="7" t="s">
-        <v>488</v>
+        <v>279</v>
       </c>
       <c r="C1610" s="7" t="s">
-        <v>490</v>
+        <v>789</v>
       </c>
       <c r="D1610" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1611">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1611" s="7" t="s">
-        <v>489</v>
+        <v>279</v>
       </c>
       <c r="C1611" s="7" t="s">
-        <v>488</v>
+        <v>1351</v>
       </c>
       <c r="D1611" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1612">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1612" s="7" t="s">
-        <v>488</v>
+        <v>789</v>
       </c>
       <c r="C1612" s="7" t="s">
-        <v>489</v>
+        <v>279</v>
       </c>
       <c r="D1612" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1613">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1613" s="7" t="s">
-        <v>490</v>
+        <v>1351</v>
       </c>
       <c r="C1613" s="7" t="s">
-        <v>489</v>
+        <v>279</v>
       </c>
       <c r="D1613" s="7" t="s">
-        <v>522</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1614">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1614" s="7" t="s">
-        <v>489</v>
+        <v>1352</v>
       </c>
       <c r="C1614" s="7" t="s">
-        <v>490</v>
+        <v>788</v>
       </c>
       <c r="D1614" s="7" t="s">
-        <v>523</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
@@ -38820,13 +39669,13 @@
         <v>58837</v>
       </c>
       <c r="B1615" s="7" t="s">
-        <v>1353</v>
+        <v>490</v>
       </c>
       <c r="C1615" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D1615" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
@@ -38834,13 +39683,13 @@
         <v>58837</v>
       </c>
       <c r="B1616" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C1616" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D1616" s="7" t="s">
-        <v>1186</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
@@ -38848,13 +39697,13 @@
         <v>58837</v>
       </c>
       <c r="B1617" s="7" t="s">
-        <v>790</v>
+        <v>489</v>
       </c>
       <c r="C1617" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D1617" s="7" t="s">
-        <v>1186</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
@@ -38862,13 +39711,13 @@
         <v>58837</v>
       </c>
       <c r="B1618" s="7" t="s">
-        <v>791</v>
+        <v>488</v>
       </c>
       <c r="C1618" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1618" s="7" t="s">
-        <v>1186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
@@ -38876,13 +39725,13 @@
         <v>58837</v>
       </c>
       <c r="B1619" s="7" t="s">
-        <v>792</v>
+        <v>490</v>
       </c>
       <c r="C1619" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1619" s="7" t="s">
-        <v>1186</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
@@ -38890,97 +39739,97 @@
         <v>58837</v>
       </c>
       <c r="B1620" s="7" t="s">
-        <v>1354</v>
+        <v>489</v>
       </c>
       <c r="C1620" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D1620" s="7" t="s">
-        <v>44</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1621">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1621" s="7" t="s">
-        <v>492</v>
+        <v>1353</v>
       </c>
       <c r="C1621" s="7" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="D1621" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1622">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1622" s="7" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="C1622" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D1622" s="7" t="s">
-        <v>47</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1623">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1623" s="7" t="s">
-        <v>492</v>
+        <v>790</v>
       </c>
       <c r="C1623" s="7" t="s">
-        <v>1355</v>
+        <v>490</v>
       </c>
       <c r="D1623" s="7" t="s">
-        <v>23</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1624">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1624" s="7" t="s">
-        <v>1355</v>
+        <v>791</v>
       </c>
       <c r="C1624" s="7" t="s">
-        <v>1356</v>
+        <v>490</v>
       </c>
       <c r="D1624" s="7" t="s">
-        <v>39</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1625">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1625" s="7" t="s">
-        <v>1355</v>
+        <v>792</v>
       </c>
       <c r="C1625" s="7" t="s">
-        <v>1357</v>
+        <v>490</v>
       </c>
       <c r="D1625" s="7" t="s">
-        <v>39</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1626">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1626" s="7" t="s">
-        <v>284</v>
+        <v>1354</v>
       </c>
       <c r="C1626" s="7" t="s">
-        <v>794</v>
+        <v>489</v>
       </c>
       <c r="D1626" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
@@ -38988,13 +39837,13 @@
         <v>59380</v>
       </c>
       <c r="B1627" s="7" t="s">
-        <v>284</v>
+        <v>492</v>
       </c>
       <c r="C1627" s="7" t="s">
-        <v>795</v>
+        <v>74</v>
       </c>
       <c r="D1627" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
@@ -39002,13 +39851,13 @@
         <v>59380</v>
       </c>
       <c r="B1628" s="7" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="C1628" s="7" t="s">
-        <v>796</v>
+        <v>492</v>
       </c>
       <c r="D1628" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
@@ -39016,13 +39865,13 @@
         <v>59380</v>
       </c>
       <c r="B1629" s="7" t="s">
-        <v>798</v>
+        <v>492</v>
       </c>
       <c r="C1629" s="7" t="s">
-        <v>797</v>
+        <v>1355</v>
       </c>
       <c r="D1629" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
@@ -39030,13 +39879,13 @@
         <v>59380</v>
       </c>
       <c r="B1630" s="7" t="s">
-        <v>798</v>
+        <v>1355</v>
       </c>
       <c r="C1630" s="7" t="s">
-        <v>799</v>
+        <v>1356</v>
       </c>
       <c r="D1630" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
@@ -39044,13 +39893,13 @@
         <v>59380</v>
       </c>
       <c r="B1631" s="7" t="s">
-        <v>801</v>
+        <v>1355</v>
       </c>
       <c r="C1631" s="7" t="s">
-        <v>800</v>
+        <v>1357</v>
       </c>
       <c r="D1631" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
@@ -39058,13 +39907,13 @@
         <v>59380</v>
       </c>
       <c r="B1632" s="7" t="s">
-        <v>802</v>
+        <v>284</v>
       </c>
       <c r="C1632" s="7" t="s">
-        <v>492</v>
+        <v>794</v>
       </c>
       <c r="D1632" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
@@ -39072,13 +39921,13 @@
         <v>59380</v>
       </c>
       <c r="B1633" s="7" t="s">
-        <v>1358</v>
+        <v>284</v>
       </c>
       <c r="C1633" s="7" t="s">
-        <v>1356</v>
+        <v>795</v>
       </c>
       <c r="D1633" s="7" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
@@ -39086,97 +39935,97 @@
         <v>59380</v>
       </c>
       <c r="B1634" s="7" t="s">
-        <v>1358</v>
+        <v>284</v>
       </c>
       <c r="C1634" s="7" t="s">
-        <v>1357</v>
+        <v>796</v>
       </c>
       <c r="D1634" s="7" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1635">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1635" s="7" t="s">
-        <v>494</v>
+        <v>798</v>
       </c>
       <c r="C1635" s="7" t="s">
-        <v>1359</v>
+        <v>797</v>
       </c>
       <c r="D1635" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1636">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1636" s="7" t="s">
-        <v>1359</v>
+        <v>798</v>
       </c>
       <c r="C1636" s="7" t="s">
-        <v>494</v>
+        <v>799</v>
       </c>
       <c r="D1636" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1637">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1637" s="7" t="s">
-        <v>495</v>
+        <v>801</v>
       </c>
       <c r="C1637" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D1637" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1638">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1638" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C1638" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D1638" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1639">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1639" s="7" t="s">
-        <v>494</v>
+        <v>1358</v>
       </c>
       <c r="C1639" s="7" t="s">
-        <v>496</v>
+        <v>1356</v>
       </c>
       <c r="D1639" s="7" t="s">
-        <v>23</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1640">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1640" s="7" t="s">
-        <v>496</v>
+        <v>1358</v>
       </c>
       <c r="C1640" s="7" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D1640" s="7" t="s">
-        <v>199</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
@@ -39184,13 +40033,13 @@
         <v>58254</v>
       </c>
       <c r="B1641" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C1641" s="7" t="s">
-        <v>497</v>
+        <v>1359</v>
       </c>
       <c r="D1641" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
@@ -39198,13 +40047,13 @@
         <v>58254</v>
       </c>
       <c r="B1642" s="7" t="s">
-        <v>496</v>
+        <v>1359</v>
       </c>
       <c r="C1642" s="7" t="s">
-        <v>804</v>
+        <v>494</v>
       </c>
       <c r="D1642" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
@@ -39212,13 +40061,13 @@
         <v>58254</v>
       </c>
       <c r="B1643" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1643" s="7" t="s">
-        <v>498</v>
+        <v>803</v>
       </c>
       <c r="D1643" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
@@ -39226,13 +40075,13 @@
         <v>58254</v>
       </c>
       <c r="B1644" s="7" t="s">
-        <v>496</v>
+        <v>803</v>
       </c>
       <c r="C1644" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D1644" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
@@ -39240,13 +40089,13 @@
         <v>58254</v>
       </c>
       <c r="B1645" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C1645" s="7" t="s">
         <v>496</v>
       </c>
       <c r="D1645" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
@@ -39254,13 +40103,13 @@
         <v>58254</v>
       </c>
       <c r="B1646" s="7" t="s">
-        <v>1361</v>
+        <v>496</v>
       </c>
       <c r="C1646" s="7" t="s">
-        <v>496</v>
+        <v>1360</v>
       </c>
       <c r="D1646" s="7" t="s">
-        <v>806</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
@@ -39268,13 +40117,13 @@
         <v>58254</v>
       </c>
       <c r="B1647" s="7" t="s">
-        <v>805</v>
+        <v>496</v>
       </c>
       <c r="C1647" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D1647" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
@@ -39282,13 +40131,13 @@
         <v>58254</v>
       </c>
       <c r="B1648" s="7" t="s">
-        <v>807</v>
+        <v>496</v>
       </c>
       <c r="C1648" s="7" t="s">
-        <v>496</v>
+        <v>804</v>
       </c>
       <c r="D1648" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
@@ -39296,13 +40145,13 @@
         <v>58254</v>
       </c>
       <c r="B1649" s="7" t="s">
-        <v>808</v>
+        <v>496</v>
       </c>
       <c r="C1649" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D1649" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
@@ -39310,97 +40159,97 @@
         <v>58254</v>
       </c>
       <c r="B1650" s="7" t="s">
-        <v>809</v>
+        <v>496</v>
       </c>
       <c r="C1650" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D1650" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1651">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1651" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C1651" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D1651" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1652" s="7" t="s">
-        <v>503</v>
+        <v>1361</v>
       </c>
       <c r="C1652" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D1652" s="7" t="s">
-        <v>47</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1653">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1653" s="7" t="s">
-        <v>502</v>
+        <v>805</v>
       </c>
       <c r="C1653" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D1653" s="7" t="s">
-        <v>10</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1654">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1654" s="7" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="C1654" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D1654" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1655">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1655" s="7" t="s">
-        <v>503</v>
+        <v>808</v>
       </c>
       <c r="C1655" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D1655" s="7" t="s">
-        <v>1214</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1656">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1656" s="7" t="s">
-        <v>504</v>
+        <v>809</v>
       </c>
       <c r="C1656" s="7" t="s">
-        <v>810</v>
+        <v>501</v>
       </c>
       <c r="D1656" s="7" t="s">
-        <v>23</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
@@ -39408,13 +40257,13 @@
         <v>58190</v>
       </c>
       <c r="B1657" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C1657" s="7" t="s">
-        <v>811</v>
+        <v>503</v>
       </c>
       <c r="D1657" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
@@ -39422,13 +40271,13 @@
         <v>58190</v>
       </c>
       <c r="B1658" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1658" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D1658" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
@@ -39439,10 +40288,10 @@
         <v>502</v>
       </c>
       <c r="C1659" s="7" t="s">
-        <v>1362</v>
+        <v>507</v>
       </c>
       <c r="D1659" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
@@ -39450,13 +40299,13 @@
         <v>58190</v>
       </c>
       <c r="B1660" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1660" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C1660" s="7" t="s">
-        <v>1363</v>
-      </c>
       <c r="D1660" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
@@ -39464,13 +40313,13 @@
         <v>58190</v>
       </c>
       <c r="B1661" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C1661" s="7" t="s">
-        <v>812</v>
+        <v>504</v>
       </c>
       <c r="D1661" s="7" t="s">
-        <v>23</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
@@ -39478,10 +40327,10 @@
         <v>58190</v>
       </c>
       <c r="B1662" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C1662" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D1662" s="7" t="s">
         <v>23</v>
@@ -39492,13 +40341,13 @@
         <v>58190</v>
       </c>
       <c r="B1663" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1663" s="7" t="s">
-        <v>1364</v>
+        <v>811</v>
       </c>
       <c r="D1663" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
@@ -39506,13 +40355,13 @@
         <v>58190</v>
       </c>
       <c r="B1664" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C1664" s="7" t="s">
-        <v>1364</v>
+        <v>493</v>
       </c>
       <c r="D1664" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
@@ -39520,13 +40369,13 @@
         <v>58190</v>
       </c>
       <c r="B1665" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C1665" s="7" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D1665" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
@@ -39534,13 +40383,13 @@
         <v>58190</v>
       </c>
       <c r="B1666" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C1666" s="7" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D1666" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
@@ -39548,13 +40397,13 @@
         <v>58190</v>
       </c>
       <c r="B1667" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1667" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D1667" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
@@ -39562,97 +40411,97 @@
         <v>58190</v>
       </c>
       <c r="B1668" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C1668" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1668" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1669">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1669" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C1669" s="7" t="s">
-        <v>407</v>
+        <v>1364</v>
       </c>
       <c r="D1669" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1670">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1670" s="7" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="C1670" s="7" t="s">
-        <v>508</v>
+        <v>1364</v>
       </c>
       <c r="D1670" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1671">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1671" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1671" s="7" t="s">
-        <v>509</v>
+        <v>1364</v>
       </c>
       <c r="D1671" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1672">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1672" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C1672" s="7" t="s">
-        <v>411</v>
+        <v>1364</v>
       </c>
       <c r="D1672" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1673">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1673" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C1673" s="7" t="s">
-        <v>410</v>
+        <v>814</v>
       </c>
       <c r="D1673" s="7" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1674">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1674" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C1674" s="7" t="s">
-        <v>510</v>
+        <v>814</v>
       </c>
       <c r="D1674" s="7" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
@@ -39660,13 +40509,13 @@
         <v>59196</v>
       </c>
       <c r="B1675" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1675" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C1675" s="7" t="s">
-        <v>816</v>
-      </c>
       <c r="D1675" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
@@ -39677,10 +40526,10 @@
         <v>407</v>
       </c>
       <c r="C1676" s="7" t="s">
-        <v>817</v>
+        <v>508</v>
       </c>
       <c r="D1676" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
@@ -39688,13 +40537,13 @@
         <v>59196</v>
       </c>
       <c r="B1677" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="C1677" s="7" t="s">
-        <v>818</v>
+        <v>509</v>
       </c>
       <c r="D1677" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
@@ -39702,13 +40551,13 @@
         <v>59196</v>
       </c>
       <c r="B1678" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C1678" s="7" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="D1678" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
@@ -39716,13 +40565,13 @@
         <v>59196</v>
       </c>
       <c r="B1679" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C1679" s="7" t="s">
-        <v>819</v>
+        <v>410</v>
       </c>
       <c r="D1679" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
@@ -39730,13 +40579,13 @@
         <v>59196</v>
       </c>
       <c r="B1680" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C1680" s="7" t="s">
-        <v>820</v>
+        <v>510</v>
       </c>
       <c r="D1680" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
@@ -39744,13 +40593,13 @@
         <v>59196</v>
       </c>
       <c r="B1681" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1681" s="7" t="s">
-        <v>41</v>
+        <v>816</v>
       </c>
       <c r="D1681" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
@@ -39758,13 +40607,13 @@
         <v>59196</v>
       </c>
       <c r="B1682" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1682" s="7" t="s">
-        <v>512</v>
+        <v>817</v>
       </c>
       <c r="D1682" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
@@ -39772,13 +40621,13 @@
         <v>59196</v>
       </c>
       <c r="B1683" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1683" s="7" t="s">
-        <v>513</v>
+        <v>818</v>
       </c>
       <c r="D1683" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
@@ -39789,10 +40638,10 @@
         <v>508</v>
       </c>
       <c r="C1684" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D1684" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
@@ -39803,10 +40652,10 @@
         <v>508</v>
       </c>
       <c r="C1685" s="7" t="s">
-        <v>515</v>
+        <v>819</v>
       </c>
       <c r="D1685" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
@@ -39817,10 +40666,10 @@
         <v>508</v>
       </c>
       <c r="C1686" s="7" t="s">
-        <v>516</v>
+        <v>820</v>
       </c>
       <c r="D1686" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
@@ -39831,10 +40680,10 @@
         <v>508</v>
       </c>
       <c r="C1687" s="7" t="s">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="D1687" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
@@ -39842,13 +40691,13 @@
         <v>59196</v>
       </c>
       <c r="B1688" s="7" t="s">
-        <v>821</v>
+        <v>508</v>
       </c>
       <c r="C1688" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D1688" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
@@ -39856,97 +40705,97 @@
         <v>59196</v>
       </c>
       <c r="B1689" s="7" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="C1689" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D1689" s="7" t="s">
-        <v>1365</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1690">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1690" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C1690" s="7" t="s">
-        <v>822</v>
+        <v>514</v>
       </c>
       <c r="D1690" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1691">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1691" s="7" t="s">
-        <v>822</v>
+        <v>508</v>
       </c>
       <c r="C1691" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D1691" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1692">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1692" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C1692" s="7" t="s">
-        <v>823</v>
+        <v>516</v>
       </c>
       <c r="D1692" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1693">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1693" s="7" t="s">
-        <v>823</v>
+        <v>508</v>
       </c>
       <c r="C1693" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1693" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1694">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1694" s="7" t="s">
-        <v>518</v>
+        <v>821</v>
       </c>
       <c r="C1694" s="7" t="s">
-        <v>1366</v>
+        <v>508</v>
       </c>
       <c r="D1694" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1695">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1695" s="7" t="s">
-        <v>1366</v>
+        <v>826</v>
       </c>
       <c r="C1695" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D1695" s="7" t="s">
-        <v>47</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
@@ -39957,7 +40806,7 @@
         <v>518</v>
       </c>
       <c r="C1696" s="7" t="s">
-        <v>333</v>
+        <v>822</v>
       </c>
       <c r="D1696" s="7" t="s">
         <v>10</v>
@@ -39968,7 +40817,7 @@
         <v>59228</v>
       </c>
       <c r="B1697" s="7" t="s">
-        <v>333</v>
+        <v>822</v>
       </c>
       <c r="C1697" s="7" t="s">
         <v>518</v>
@@ -39982,13 +40831,13 @@
         <v>59228</v>
       </c>
       <c r="B1698" s="7" t="s">
-        <v>1366</v>
+        <v>518</v>
       </c>
       <c r="C1698" s="7" t="s">
-        <v>1367</v>
+        <v>823</v>
       </c>
       <c r="D1698" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
@@ -39996,13 +40845,13 @@
         <v>59228</v>
       </c>
       <c r="B1699" s="7" t="s">
-        <v>333</v>
+        <v>823</v>
       </c>
       <c r="C1699" s="7" t="s">
-        <v>1367</v>
+        <v>518</v>
       </c>
       <c r="D1699" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
@@ -40013,10 +40862,10 @@
         <v>518</v>
       </c>
       <c r="C1700" s="7" t="s">
-        <v>824</v>
+        <v>1366</v>
       </c>
       <c r="D1700" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
@@ -40024,13 +40873,13 @@
         <v>59228</v>
       </c>
       <c r="B1701" s="7" t="s">
-        <v>824</v>
+        <v>1366</v>
       </c>
       <c r="C1701" s="7" t="s">
-        <v>1366</v>
+        <v>518</v>
       </c>
       <c r="D1701" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
@@ -40038,13 +40887,13 @@
         <v>59228</v>
       </c>
       <c r="B1702" s="7" t="s">
-        <v>824</v>
+        <v>518</v>
       </c>
       <c r="C1702" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D1702" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
@@ -40052,13 +40901,13 @@
         <v>59228</v>
       </c>
       <c r="B1703" s="7" t="s">
-        <v>826</v>
+        <v>333</v>
       </c>
       <c r="C1703" s="7" t="s">
-        <v>1366</v>
+        <v>518</v>
       </c>
       <c r="D1703" s="7" t="s">
-        <v>827</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
@@ -40066,13 +40915,13 @@
         <v>59228</v>
       </c>
       <c r="B1704" s="7" t="s">
-        <v>826</v>
+        <v>1366</v>
       </c>
       <c r="C1704" s="7" t="s">
-        <v>333</v>
+        <v>1367</v>
       </c>
       <c r="D1704" s="7" t="s">
-        <v>827</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
@@ -40080,97 +40929,97 @@
         <v>59228</v>
       </c>
       <c r="B1705" s="7" t="s">
-        <v>825</v>
+        <v>333</v>
       </c>
       <c r="C1705" s="7" t="s">
-        <v>826</v>
+        <v>1367</v>
       </c>
       <c r="D1705" s="7" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1706">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1706" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1706" s="7" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D1706" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1707">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1707" s="7" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C1707" s="7" t="s">
-        <v>519</v>
+        <v>1366</v>
       </c>
       <c r="D1707" s="7" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1708">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1708" s="7" t="s">
-        <v>519</v>
+        <v>824</v>
       </c>
       <c r="C1708" s="7" t="s">
-        <v>1368</v>
+        <v>333</v>
       </c>
       <c r="D1708" s="7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1709">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1709" s="7" t="s">
-        <v>1368</v>
+        <v>826</v>
       </c>
       <c r="C1709" s="7" t="s">
-        <v>519</v>
+        <v>1366</v>
       </c>
       <c r="D1709" s="7" t="s">
-        <v>39</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1710">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1710" s="7" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
       <c r="C1710" s="7" t="s">
-        <v>856</v>
+        <v>333</v>
       </c>
       <c r="D1710" s="7" t="s">
-        <v>481</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1711">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1711" s="7" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="C1711" s="7" t="s">
-        <v>1369</v>
+        <v>826</v>
       </c>
       <c r="D1711" s="7" t="s">
-        <v>481</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
@@ -40178,13 +41027,13 @@
         <v>58036</v>
       </c>
       <c r="B1712" s="7" t="s">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="C1712" s="7" t="s">
-        <v>1370</v>
+        <v>828</v>
       </c>
       <c r="D1712" s="7" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
@@ -40192,13 +41041,13 @@
         <v>58036</v>
       </c>
       <c r="B1713" s="7" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="C1713" s="7" t="s">
-        <v>1371</v>
+        <v>519</v>
       </c>
       <c r="D1713" s="7" t="s">
-        <v>481</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
@@ -40206,13 +41055,13 @@
         <v>58036</v>
       </c>
       <c r="B1714" s="7" t="s">
-        <v>110</v>
+        <v>519</v>
       </c>
       <c r="C1714" s="7" t="s">
-        <v>519</v>
+        <v>1368</v>
       </c>
       <c r="D1714" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
@@ -40220,12 +41069,96 @@
         <v>58036</v>
       </c>
       <c r="B1715" s="7" t="s">
-        <v>830</v>
+        <v>1368</v>
       </c>
       <c r="C1715" s="7" t="s">
         <v>519</v>
       </c>
       <c r="D1715" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>58036</v>
+      </c>
+      <c r="B1716" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1716" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1716" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>58036</v>
+      </c>
+      <c r="B1717" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1717" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D1717" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>58036</v>
+      </c>
+      <c r="B1718" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1718" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1718" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>58036</v>
+      </c>
+      <c r="B1719" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1719" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1719" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>58036</v>
+      </c>
+      <c r="B1720" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1720" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1720" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>58036</v>
+      </c>
+      <c r="B1721" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1721" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1721" s="7" t="s">
         <v>1372</v>
       </c>
     </row>

--- a/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E96C3-4D21-44EA-9018-E55275EB31E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB88AF-CF40-4BC5-A36B-963BB6E3DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="0" windowWidth="14325" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37410" yWindow="0" windowWidth="13785" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relationships_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9850" uniqueCount="1458">
   <si>
     <t>doc_id</t>
   </si>
@@ -4414,12 +4414,53 @@
   <si>
     <t>not a domestic species</t>
   </si>
+  <si>
+    <t>chimpanzee infection was described, but experimentally. Even if we are not accepting experimental infections, this should then be unknown/not stated rather than a stated negative</t>
+  </si>
+  <si>
+    <t>Hipposideros armiger</t>
+  </si>
+  <si>
+    <t>Rousettus leschennaulti</t>
+  </si>
+  <si>
+    <t>inferrable from lack of positives for these species</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NB stated seropositives against Aravan, Khujand, Irkut, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ABLV among two species, but not stated which seropositives came from which. Unsure how to progress this</t>
+    </r>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4466,6 +4507,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -4951,11 +5000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1736"/>
+  <dimension ref="A1:P1760"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1459" sqref="D1459"/>
+      <pane ySplit="1" topLeftCell="A1492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1510" sqref="M1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39086,6 +39135,15 @@
       <c r="D1468" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F1468" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1468" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1468" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469">
@@ -39100,237 +39158,400 @@
       <c r="D1469" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1470">
+      <c r="F1469" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1469" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1469" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1470" s="9">
         <v>60004</v>
       </c>
-      <c r="B1470" s="7" t="s">
+      <c r="B1470" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="C1470" s="7" t="s">
+      <c r="C1470" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D1470" s="7" t="s">
+      <c r="D1470" s="10" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="1471" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1471">
+      <c r="E1470" s="11"/>
+      <c r="F1470" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G1470" s="11"/>
+      <c r="H1470" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I1470" s="11"/>
+      <c r="J1470" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1470" s="9" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1471" s="9">
         <v>60004</v>
       </c>
-      <c r="B1471" s="7" t="s">
+      <c r="B1471" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C1471" s="7" t="s">
+      <c r="C1471" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="D1471" s="7" t="s">
+      <c r="D1471" s="10" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="1472" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1472">
+      <c r="E1471" s="11"/>
+      <c r="F1471" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G1471" s="11"/>
+      <c r="H1471" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I1471" s="11"/>
+      <c r="J1471" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1471" s="9" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1472" s="9">
         <v>60004</v>
       </c>
-      <c r="B1472" s="7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C1472" s="7" t="s">
+      <c r="B1472" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="D1472" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1473">
+      <c r="C1472" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1472" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1472" s="11"/>
+      <c r="F1472" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1472" s="11"/>
+      <c r="H1472" s="11"/>
+      <c r="I1472" s="11"/>
+      <c r="J1472" s="11"/>
+    </row>
+    <row r="1473" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1473" s="9">
         <v>60004</v>
       </c>
-      <c r="B1473" s="7" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1473" s="7" t="s">
+      <c r="B1473" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1473" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="D1473" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1473" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1473" s="11"/>
+      <c r="F1473" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1473" s="11"/>
+      <c r="H1473" s="11"/>
+      <c r="I1473" s="11"/>
+      <c r="J1473" s="11"/>
+    </row>
+    <row r="1474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1474">
         <v>60004</v>
       </c>
       <c r="B1474" s="7" t="s">
-        <v>766</v>
+        <v>1313</v>
       </c>
       <c r="C1474" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D1474" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F1474" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1474" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1474" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1475">
         <v>60004</v>
       </c>
       <c r="B1475" s="7" t="s">
-        <v>767</v>
+        <v>1314</v>
       </c>
       <c r="C1475" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D1475" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F1475" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1475" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1475" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1476">
         <v>60004</v>
       </c>
       <c r="B1476" s="7" t="s">
-        <v>1315</v>
+        <v>766</v>
       </c>
       <c r="C1476" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D1476" s="7" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1476" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1476" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1476" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1477">
         <v>60004</v>
       </c>
       <c r="B1477" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C1477" s="7" t="s">
         <v>1314</v>
       </c>
       <c r="D1477" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F1477" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1477" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1477" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1478">
         <v>60004</v>
       </c>
       <c r="B1478" s="7" t="s">
-        <v>769</v>
+        <v>1315</v>
       </c>
       <c r="C1478" s="7" t="s">
-        <v>770</v>
+        <v>1314</v>
       </c>
       <c r="D1478" s="7" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F1478" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1478" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J1478" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1479">
         <v>60004</v>
       </c>
       <c r="B1479" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C1479" s="7" t="s">
-        <v>773</v>
+        <v>1314</v>
       </c>
       <c r="D1479" s="7" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F1479" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1479" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1479" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1480">
         <v>60004</v>
       </c>
       <c r="B1480" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C1480" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D1480" s="7" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1480" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1480" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1480" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1481">
         <v>60004</v>
       </c>
       <c r="B1481" s="7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C1481" s="7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D1481" s="7" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1481" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1481" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1481" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1482">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1482" s="7" t="s">
-        <v>439</v>
+        <v>774</v>
       </c>
       <c r="C1482" s="7" t="s">
-        <v>1317</v>
+        <v>775</v>
       </c>
       <c r="D1482" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="F1482" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1482" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1482" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1483">
-        <v>59229</v>
+        <v>60004</v>
       </c>
       <c r="B1483" s="7" t="s">
-        <v>1317</v>
+        <v>776</v>
       </c>
       <c r="C1483" s="7" t="s">
-        <v>439</v>
+        <v>777</v>
       </c>
       <c r="D1483" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+      <c r="F1483" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1483" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1483" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1484">
         <v>59229</v>
       </c>
       <c r="B1484" s="7" t="s">
-        <v>1318</v>
+        <v>439</v>
       </c>
       <c r="C1484" s="7" t="s">
-        <v>439</v>
+        <v>1317</v>
       </c>
       <c r="D1484" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1484" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1484" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1484" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1485">
         <v>59229</v>
       </c>
       <c r="B1485" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1485" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C1485" s="7" t="s">
-        <v>1318</v>
-      </c>
       <c r="D1485" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1485" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1485" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1485" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1486">
         <v>59229</v>
       </c>
       <c r="B1486" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C1486" s="7" t="s">
         <v>439</v>
@@ -39338,8 +39559,17 @@
       <c r="D1486" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1486" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1486" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1486" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1487">
         <v>59229</v>
       </c>
@@ -39347,1088 +39577,1629 @@
         <v>439</v>
       </c>
       <c r="C1487" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D1487" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1487" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1487" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1487" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1488">
         <v>59229</v>
       </c>
       <c r="B1488" s="7" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C1488" s="7" t="s">
-        <v>1320</v>
+        <v>439</v>
       </c>
       <c r="D1488" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1488" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1488" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1488" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1489">
         <v>59229</v>
       </c>
       <c r="B1489" s="7" t="s">
-        <v>1320</v>
+        <v>439</v>
       </c>
       <c r="C1489" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D1489" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1489" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1489" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1489" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1490">
         <v>59229</v>
       </c>
       <c r="B1490" s="7" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C1490" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D1490" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F1490" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1490" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1490" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1491">
         <v>59229</v>
       </c>
       <c r="B1491" s="7" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C1491" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D1491" s="7" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F1491" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1491" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1491" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1492">
         <v>59229</v>
       </c>
       <c r="B1492" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C1492" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D1492" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F1492" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1492" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1492" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1493">
         <v>59229</v>
       </c>
       <c r="B1493" s="7" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1493" s="7" t="s">
-        <v>432</v>
+        <v>1322</v>
       </c>
       <c r="D1493" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+      <c r="F1493" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1494">
         <v>59229</v>
       </c>
       <c r="B1494" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1494" s="7" t="s">
-        <v>432</v>
+        <v>1325</v>
       </c>
       <c r="D1494" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1494" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1494" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1494" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1495">
         <v>59229</v>
       </c>
       <c r="B1495" s="7" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C1495" s="7" t="s">
-        <v>1322</v>
+        <v>432</v>
       </c>
       <c r="D1495" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F1495" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1495" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1495" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1496">
         <v>59229</v>
       </c>
       <c r="B1496" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1496" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1496" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1496" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1496" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1496" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>59229</v>
+      </c>
+      <c r="B1497" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1497" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1497" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1497" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1497" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1497" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>59229</v>
+      </c>
+      <c r="B1498" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="C1496" s="7" t="s">
+      <c r="C1498" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D1496" s="7" t="s">
+      <c r="D1498" s="7" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1497">
+      <c r="F1498" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1498" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1498" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1499" s="9">
         <v>58774</v>
       </c>
-      <c r="B1497" s="7" t="s">
+      <c r="B1499" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C1497" s="7" t="s">
+      <c r="C1499" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D1497" s="7" t="s">
+      <c r="D1499" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1498">
+      <c r="E1499" s="11"/>
+      <c r="F1499" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1499" s="11"/>
+      <c r="H1499" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1499" s="11"/>
+      <c r="J1499" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L1499" s="9" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1500" s="9">
         <v>58774</v>
       </c>
-      <c r="B1498" s="7" t="s">
+      <c r="B1500" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C1498" s="7" t="s">
+      <c r="C1500" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D1498" s="7" t="s">
+      <c r="D1500" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1499">
+      <c r="E1500" s="11"/>
+      <c r="F1500" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1500" s="11"/>
+      <c r="H1500" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1500" s="11"/>
+      <c r="J1500" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1501" s="9">
         <v>58774</v>
       </c>
-      <c r="B1499" s="7" t="s">
+      <c r="B1501" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C1499" s="7" t="s">
+      <c r="C1501" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D1499" s="7" t="s">
+      <c r="D1501" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1500">
+      <c r="E1501" s="11"/>
+      <c r="F1501" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1501" s="11"/>
+      <c r="H1501" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1501" s="11"/>
+      <c r="J1501" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1502" s="9">
         <v>58774</v>
       </c>
-      <c r="B1500" s="7" t="s">
+      <c r="B1502" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C1500" s="7" t="s">
+      <c r="C1502" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D1500" s="7" t="s">
+      <c r="D1502" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1501">
+      <c r="E1502" s="11"/>
+      <c r="F1502" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1502" s="11"/>
+      <c r="H1502" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1502" s="11"/>
+      <c r="J1502" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1503" s="9">
         <v>58774</v>
       </c>
-      <c r="B1501" s="7" t="s">
+      <c r="B1503" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C1501" s="7" t="s">
+      <c r="C1503" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D1501" s="7" t="s">
+      <c r="D1503" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1502">
+      <c r="E1503" s="11"/>
+      <c r="F1503" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1503" s="11"/>
+      <c r="H1503" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1503" s="11"/>
+      <c r="J1503" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1504" s="9">
         <v>58774</v>
       </c>
-      <c r="B1502" s="7" t="s">
+      <c r="B1504" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C1502" s="7" t="s">
+      <c r="C1504" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D1502" s="7" t="s">
+      <c r="D1504" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1503">
+      <c r="E1504" s="11"/>
+      <c r="F1504" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1504" s="11"/>
+      <c r="H1504" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1504" s="11"/>
+      <c r="J1504" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1505" s="9">
         <v>58774</v>
       </c>
-      <c r="B1503" s="7" t="s">
+      <c r="B1505" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C1503" s="7" t="s">
+      <c r="C1505" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D1503" s="7" t="s">
+      <c r="D1505" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1504">
+      <c r="E1505" s="11"/>
+      <c r="F1505" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1505" s="11"/>
+      <c r="H1505" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1505" s="11"/>
+      <c r="J1505" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1506" s="9">
         <v>58774</v>
       </c>
-      <c r="B1504" s="7" t="s">
+      <c r="B1506" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C1504" s="7" t="s">
+      <c r="C1506" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D1504" s="7" t="s">
+      <c r="D1506" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1505">
+      <c r="E1506" s="11"/>
+      <c r="F1506" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1506" s="11"/>
+      <c r="H1506" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1506" s="11"/>
+      <c r="J1506" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1507" s="9">
         <v>58774</v>
       </c>
-      <c r="B1505" s="7" t="s">
+      <c r="B1507" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C1505" s="7" t="s">
+      <c r="C1507" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D1505" s="7" t="s">
+      <c r="D1507" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1506">
+      <c r="E1507" s="11"/>
+      <c r="F1507" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1507" s="11"/>
+      <c r="H1507" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1507" s="11"/>
+      <c r="J1507" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1508" s="9">
         <v>58774</v>
       </c>
-      <c r="B1506" s="7" t="s">
+      <c r="B1508" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C1506" s="7" t="s">
+      <c r="C1508" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D1506" s="7" t="s">
+      <c r="D1508" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1507">
+      <c r="E1508" s="11"/>
+      <c r="F1508" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1508" s="11"/>
+      <c r="H1508" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1508" s="11"/>
+      <c r="J1508" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1509" s="9">
         <v>58774</v>
       </c>
-      <c r="B1507" s="7" t="s">
+      <c r="B1509" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C1507" s="7" t="s">
+      <c r="C1509" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D1507" s="7" t="s">
+      <c r="D1509" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1508">
+      <c r="E1509" s="11"/>
+      <c r="F1509" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1509" s="11"/>
+      <c r="H1509" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1509" s="11"/>
+      <c r="J1509" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1510" s="9">
         <v>58774</v>
       </c>
-      <c r="B1508" s="7" t="s">
+      <c r="B1510" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C1508" s="7" t="s">
+      <c r="C1510" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D1508" s="7" t="s">
+      <c r="D1510" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1509">
+      <c r="E1510" s="11"/>
+      <c r="F1510" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1510" s="11"/>
+      <c r="H1510" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1510" s="11"/>
+      <c r="J1510" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1511" s="9">
         <v>58774</v>
       </c>
-      <c r="B1509" s="7" t="s">
+      <c r="B1511" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C1509" s="7" t="s">
+      <c r="C1511" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D1509" s="7" t="s">
+      <c r="D1511" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1510">
+      <c r="E1511" s="11"/>
+      <c r="F1511" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1511" s="11"/>
+      <c r="H1511" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1511" s="11"/>
+      <c r="J1511" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1512" s="9">
         <v>58774</v>
       </c>
-      <c r="B1510" s="7" t="s">
+      <c r="B1512" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C1510" s="7" t="s">
+      <c r="C1512" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D1510" s="7" t="s">
+      <c r="D1512" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1511">
+      <c r="E1512" s="11"/>
+      <c r="F1512" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1512" s="11"/>
+      <c r="H1512" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1512" s="11"/>
+      <c r="J1512" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1513" s="9">
         <v>58774</v>
       </c>
-      <c r="B1511" s="7" t="s">
+      <c r="B1513" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C1511" s="7" t="s">
+      <c r="C1513" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D1511" s="7" t="s">
+      <c r="D1513" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1512">
+      <c r="E1513" s="11"/>
+      <c r="F1513" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1513" s="11"/>
+      <c r="H1513" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1513" s="11"/>
+      <c r="J1513" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1514" s="9">
         <v>58774</v>
       </c>
-      <c r="B1512" s="7" t="s">
+      <c r="B1514" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C1512" s="7" t="s">
+      <c r="C1514" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D1512" s="7" t="s">
+      <c r="D1514" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1513">
+      <c r="E1514" s="11"/>
+      <c r="F1514" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1514" s="11"/>
+      <c r="H1514" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1514" s="11"/>
+      <c r="J1514" s="11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1515" s="9">
         <v>58774</v>
       </c>
-      <c r="B1513" s="7" t="s">
+      <c r="B1515" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1515" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1515" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1515" s="11"/>
+      <c r="F1515" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1515" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1516" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1516" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1516" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1516" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1516" s="11"/>
+      <c r="F1516" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1516" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1517" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1517" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1517" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1517" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1517" s="11"/>
+      <c r="F1517" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1517" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1518" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1518" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1518" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1518" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1518" s="11"/>
+      <c r="F1518" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1518" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1519" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1519" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1519" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1519" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1519" s="11"/>
+      <c r="F1519" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1519" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1520" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1520" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1520" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1520" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1520" s="11"/>
+      <c r="F1520" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1520" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1521" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1521" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1521" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1521" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1521" s="11"/>
+      <c r="F1521" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1521" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1522" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1522" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1522" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1522" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1522" s="11"/>
+      <c r="F1522" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1522" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1523" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1523" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1523" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1523" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1523" s="11"/>
+      <c r="F1523" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1523" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1524" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1524" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1524" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1524" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1524" s="11"/>
+      <c r="F1524" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1524" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1525" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1525" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1513" s="7" t="s">
+      <c r="C1525" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1525" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1525" s="11"/>
+      <c r="F1525" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1525" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1526" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1526" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1526" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1526" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1526" s="11"/>
+      <c r="F1526" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1526" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1527" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1527" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1527" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1527" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1527" s="11"/>
+      <c r="F1527" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1527" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1528" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1528" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1528" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1528" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1528" s="11"/>
+      <c r="F1528" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1528" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1529" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1529" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1529" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1529" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1529" s="11"/>
+      <c r="F1529" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1529" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1530" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1530" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1530" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1530" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1530" s="11"/>
+      <c r="F1530" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L1530" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>58774</v>
+      </c>
+      <c r="B1531" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1531" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D1513" s="7" t="s">
+      <c r="D1531" s="7" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1514">
+      <c r="F1531" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1531" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1531" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1532" s="9">
         <v>58774</v>
       </c>
-      <c r="B1514" s="7" t="s">
+      <c r="B1532" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1532" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1514" s="7" t="s">
+      <c r="D1532" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1532" s="11"/>
+      <c r="F1532" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1532" s="11"/>
+      <c r="H1532" s="11"/>
+      <c r="I1532" s="11"/>
+      <c r="J1532" s="11"/>
+      <c r="K1532" s="9"/>
+      <c r="L1532" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>58774</v>
+      </c>
+      <c r="B1533" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1533" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D1514" s="7" t="s">
+      <c r="D1533" s="7" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1515">
+      <c r="F1533" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1533" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1533" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1534" s="9">
         <v>58774</v>
       </c>
-      <c r="B1515" s="7" t="s">
+      <c r="B1534" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1534" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1534" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1534" s="11"/>
+      <c r="F1534" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1534" s="11"/>
+      <c r="H1534" s="11"/>
+      <c r="I1534" s="11"/>
+      <c r="J1534" s="11"/>
+      <c r="K1534" s="9"/>
+      <c r="L1534" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1535" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1535" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1535" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1535" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1535" s="11"/>
+      <c r="F1535" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1535" s="11"/>
+      <c r="H1535" s="11"/>
+      <c r="I1535" s="11"/>
+      <c r="J1535" s="11"/>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1536" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1536" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1536" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1536" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1536" s="11"/>
+      <c r="F1536" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1536" s="11"/>
+      <c r="H1536" s="11"/>
+      <c r="I1536" s="11"/>
+      <c r="J1536" s="11"/>
+      <c r="K1536" s="9"/>
+      <c r="L1536" s="9"/>
+    </row>
+    <row r="1537" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1537" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1537" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1537" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1537" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1537" s="11"/>
+      <c r="F1537" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1537" s="11"/>
+      <c r="H1537" s="11"/>
+      <c r="I1537" s="11"/>
+      <c r="J1537" s="11"/>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1538" s="9">
+        <v>58774</v>
+      </c>
+      <c r="B1538" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1538" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1538" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1538" s="11"/>
+      <c r="F1538" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1538" s="11"/>
+      <c r="H1538" s="11"/>
+      <c r="I1538" s="11"/>
+      <c r="J1538" s="11"/>
+      <c r="K1538" s="9"/>
+      <c r="L1538" s="9"/>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>58774</v>
+      </c>
+      <c r="B1539" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="C1515" s="7" t="s">
+      <c r="C1539" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="D1515" s="7" t="s">
+      <c r="D1539" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1516">
+      <c r="F1539" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1539" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1539" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1540">
         <v>58774</v>
       </c>
-      <c r="B1516" s="7" t="s">
+      <c r="B1540" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="C1516" s="7" t="s">
+      <c r="C1540" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="D1516" s="7" t="s">
+      <c r="D1540" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1517">
+      <c r="F1540" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1540" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1540" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1541">
         <v>58774</v>
       </c>
-      <c r="B1517" s="7" t="s">
+      <c r="B1541" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="C1517" s="7" t="s">
+      <c r="C1541" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="D1517" s="7" t="s">
+      <c r="D1541" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1518">
+      <c r="F1541" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1541" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1541" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1542">
         <v>58774</v>
       </c>
-      <c r="B1518" s="7" t="s">
+      <c r="B1542" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="C1518" s="7" t="s">
+      <c r="C1542" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="D1518" s="7" t="s">
+      <c r="D1542" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1519">
+      <c r="F1542" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1542" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1542" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1543">
         <v>58774</v>
       </c>
-      <c r="B1519" s="7" t="s">
+      <c r="B1543" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="C1519" s="7" t="s">
+      <c r="C1543" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="D1519" s="7" t="s">
+      <c r="D1543" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1520">
+      <c r="F1543" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1543" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1543" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1544">
         <v>58774</v>
       </c>
-      <c r="B1520" s="7" t="s">
+      <c r="B1544" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="C1520" s="7" t="s">
+      <c r="C1544" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="D1520" s="7" t="s">
+      <c r="D1544" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1521">
+      <c r="F1544" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1544" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1544" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1545">
         <v>60098</v>
       </c>
-      <c r="B1521" s="7" t="s">
+      <c r="B1545" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C1521" s="7" t="s">
+      <c r="C1545" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D1521" s="7" t="s">
+      <c r="D1545" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1522">
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1546">
         <v>60098</v>
       </c>
-      <c r="B1522" s="7" t="s">
+      <c r="B1546" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C1522" s="7" t="s">
+      <c r="C1546" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D1522" s="7" t="s">
+      <c r="D1546" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1523">
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1547">
         <v>60098</v>
       </c>
-      <c r="B1523" s="7" t="s">
+      <c r="B1547" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1523" s="7" t="s">
+      <c r="C1547" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D1523" s="7" t="s">
+      <c r="D1547" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1524">
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1548">
         <v>60098</v>
       </c>
-      <c r="B1524" s="7" t="s">
+      <c r="B1548" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1524" s="7" t="s">
+      <c r="C1548" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D1524" s="7" t="s">
+      <c r="D1548" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1525">
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1549">
         <v>60098</v>
       </c>
-      <c r="B1525" s="7" t="s">
+      <c r="B1549" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1525" s="7" t="s">
+      <c r="C1549" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D1525" s="7" t="s">
+      <c r="D1549" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1526">
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1550">
         <v>60098</v>
       </c>
-      <c r="B1526" s="7" t="s">
+      <c r="B1550" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C1526" s="7" t="s">
+      <c r="C1550" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D1526" s="7" t="s">
+      <c r="D1550" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1527">
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1551">
         <v>60098</v>
       </c>
-      <c r="B1527" s="7" t="s">
+      <c r="B1551" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C1527" s="7" t="s">
+      <c r="C1551" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1527" s="7" t="s">
+      <c r="D1551" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1528">
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1552">
         <v>60098</v>
       </c>
-      <c r="B1528" s="7" t="s">
+      <c r="B1552" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C1528" s="7" t="s">
+      <c r="C1552" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="D1528" s="7" t="s">
+      <c r="D1552" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1529">
-        <v>60097</v>
-      </c>
-      <c r="B1529" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1529" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1529" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1530">
-        <v>60097</v>
-      </c>
-      <c r="B1530" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1530" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1530" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1531">
-        <v>60097</v>
-      </c>
-      <c r="B1531" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1531" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D1531" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1532">
-        <v>60097</v>
-      </c>
-      <c r="B1532" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1532" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1532" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1533">
-        <v>60097</v>
-      </c>
-      <c r="B1533" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1533" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1533" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1534">
-        <v>60097</v>
-      </c>
-      <c r="B1534" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C1534" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1534" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1535">
-        <v>60097</v>
-      </c>
-      <c r="B1535" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1535" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="D1535" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1536">
-        <v>60097</v>
-      </c>
-      <c r="B1536" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="C1536" s="7" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D1536" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1537">
-        <v>60097</v>
-      </c>
-      <c r="B1537" s="7" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1537" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="D1537" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1538">
-        <v>60097</v>
-      </c>
-      <c r="B1538" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1538" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1538" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1539">
-        <v>60097</v>
-      </c>
-      <c r="B1539" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1539" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1539" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1540">
-        <v>60097</v>
-      </c>
-      <c r="B1540" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1540" s="7" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D1540" s="7" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1541">
-        <v>57815</v>
-      </c>
-      <c r="B1541" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1541" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1541" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1542">
-        <v>57815</v>
-      </c>
-      <c r="B1542" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1542" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1542" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1543">
-        <v>57815</v>
-      </c>
-      <c r="B1543" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1543" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1543" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1544">
-        <v>57815</v>
-      </c>
-      <c r="B1544" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1544" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D1544" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1545">
-        <v>57815</v>
-      </c>
-      <c r="B1545" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1545" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1545" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1546">
-        <v>57815</v>
-      </c>
-      <c r="B1546" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1546" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1546" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1547">
-        <v>57815</v>
-      </c>
-      <c r="B1547" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1547" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1547" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1548">
-        <v>57815</v>
-      </c>
-      <c r="B1548" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1548" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1548" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1549">
-        <v>57815</v>
-      </c>
-      <c r="B1549" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1549" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1549" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1550">
-        <v>57815</v>
-      </c>
-      <c r="B1550" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1550" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1550" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1551">
-        <v>57815</v>
-      </c>
-      <c r="B1551" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1551" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1551" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1552">
-        <v>57815</v>
-      </c>
-      <c r="B1552" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1552" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1552" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1553">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1553" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C1553" s="7" t="s">
-        <v>780</v>
+        <v>452</v>
       </c>
       <c r="D1553" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1554">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1554" s="7" t="s">
-        <v>780</v>
+        <v>452</v>
       </c>
       <c r="C1554" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D1554" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1555">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1555" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C1555" s="7" t="s">
-        <v>781</v>
+        <v>1335</v>
       </c>
       <c r="D1555" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1556">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1556" s="7" t="s">
-        <v>781</v>
+        <v>452</v>
       </c>
       <c r="C1556" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D1556" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1557">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1557" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C1557" s="7" t="s">
-        <v>781</v>
+        <v>452</v>
       </c>
       <c r="D1557" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1558">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1558" s="7" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="C1558" s="7" t="s">
-        <v>461</v>
+        <v>37</v>
       </c>
       <c r="D1558" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1559">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1559" s="7" t="s">
-        <v>464</v>
+        <v>37</v>
       </c>
       <c r="C1559" s="7" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="D1559" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1560">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1560" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C1560" s="7" t="s">
-        <v>464</v>
+        <v>1336</v>
       </c>
       <c r="D1560" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1561">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1561" s="7" t="s">
-        <v>465</v>
+        <v>1336</v>
       </c>
       <c r="C1561" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D1561" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1562">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1562" s="7" t="s">
-        <v>781</v>
+        <v>455</v>
       </c>
       <c r="C1562" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D1562" s="7" t="s">
-        <v>10</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1563">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1563" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C1563" s="7" t="s">
-        <v>781</v>
+        <v>456</v>
       </c>
       <c r="D1563" s="7" t="s">
-        <v>47</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1564">
-        <v>57815</v>
+        <v>60097</v>
       </c>
       <c r="B1564" s="7" t="s">
-        <v>781</v>
+        <v>454</v>
       </c>
       <c r="C1564" s="7" t="s">
-        <v>466</v>
+        <v>1337</v>
       </c>
       <c r="D1564" s="7" t="s">
-        <v>10</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
@@ -40436,10 +41207,10 @@
         <v>57815</v>
       </c>
       <c r="B1565" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C1565" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D1565" s="7" t="s">
         <v>47</v>
@@ -40450,10 +41221,10 @@
         <v>57815</v>
       </c>
       <c r="B1566" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1566" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D1566" s="7" t="s">
         <v>10</v>
@@ -40464,13 +41235,13 @@
         <v>57815</v>
       </c>
       <c r="B1567" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1567" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1567" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
@@ -40478,13 +41249,13 @@
         <v>57815</v>
       </c>
       <c r="B1568" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C1568" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D1568" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
@@ -40492,13 +41263,13 @@
         <v>57815</v>
       </c>
       <c r="B1569" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C1569" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1569" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
@@ -40506,13 +41277,13 @@
         <v>57815</v>
       </c>
       <c r="B1570" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C1570" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1570" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
@@ -40520,13 +41291,13 @@
         <v>57815</v>
       </c>
       <c r="B1571" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1571" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1571" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
@@ -40534,13 +41305,13 @@
         <v>57815</v>
       </c>
       <c r="B1572" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C1572" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D1572" s="7" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
@@ -40548,13 +41319,13 @@
         <v>57815</v>
       </c>
       <c r="B1573" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C1573" s="7" t="s">
-        <v>1339</v>
+        <v>780</v>
       </c>
       <c r="D1573" s="7" t="s">
-        <v>587</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
@@ -40562,13 +41333,13 @@
         <v>57815</v>
       </c>
       <c r="B1574" s="7" t="s">
-        <v>469</v>
+        <v>780</v>
       </c>
       <c r="C1574" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D1574" s="7" t="s">
-        <v>587</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
@@ -40576,24 +41347,24 @@
         <v>57815</v>
       </c>
       <c r="B1575" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C1575" s="7" t="s">
-        <v>468</v>
+        <v>780</v>
       </c>
       <c r="D1575" s="7" t="s">
-        <v>587</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1576">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1576" s="7" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="C1576" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D1576" s="7" t="s">
         <v>10</v>
@@ -40601,27 +41372,27 @@
     </row>
     <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1577">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1577" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C1577" s="7" t="s">
-        <v>471</v>
+        <v>780</v>
       </c>
       <c r="D1577" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1578">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1578" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C1578" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D1578" s="7" t="s">
         <v>10</v>
@@ -40629,13 +41400,13 @@
     </row>
     <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1579">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1579" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C1579" s="7" t="s">
-        <v>472</v>
+        <v>781</v>
       </c>
       <c r="D1579" s="7" t="s">
         <v>47</v>
@@ -40643,27 +41414,27 @@
     </row>
     <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1580">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1580" s="7" t="s">
-        <v>471</v>
+        <v>781</v>
       </c>
       <c r="C1580" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D1580" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1581">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1581" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C1581" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D1581" s="7" t="s">
         <v>47</v>
@@ -40671,254 +41442,254 @@
     </row>
     <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1582">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1582" s="7" t="s">
-        <v>472</v>
+        <v>781</v>
       </c>
       <c r="C1582" s="7" t="s">
-        <v>784</v>
+        <v>461</v>
       </c>
       <c r="D1582" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1583">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1583" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C1583" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D1583" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1584">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1584" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C1584" s="7" t="s">
-        <v>784</v>
+        <v>464</v>
       </c>
       <c r="D1584" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1585">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1585" s="7" t="s">
-        <v>784</v>
+        <v>465</v>
       </c>
       <c r="C1585" s="7" t="s">
-        <v>475</v>
+        <v>781</v>
       </c>
       <c r="D1585" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1586">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1586" s="7" t="s">
-        <v>475</v>
+        <v>781</v>
       </c>
       <c r="C1586" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D1586" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1587">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1587" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C1587" s="7" t="s">
-        <v>475</v>
+        <v>781</v>
       </c>
       <c r="D1587" s="7" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1588">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1588" s="7" t="s">
-        <v>472</v>
+        <v>781</v>
       </c>
       <c r="C1588" s="7" t="s">
-        <v>785</v>
+        <v>466</v>
       </c>
       <c r="D1588" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1589">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1589" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C1589" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D1589" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1590">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1590" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C1590" s="7" t="s">
-        <v>785</v>
+        <v>467</v>
       </c>
       <c r="D1590" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1591">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1591" s="7" t="s">
-        <v>1340</v>
+        <v>457</v>
       </c>
       <c r="C1591" s="7" t="s">
-        <v>472</v>
+        <v>782</v>
       </c>
       <c r="D1591" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1592">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1592" s="7" t="s">
-        <v>1341</v>
+        <v>782</v>
       </c>
       <c r="C1592" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D1592" s="7" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1593">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1593" s="7" t="s">
-        <v>1342</v>
+        <v>458</v>
       </c>
       <c r="C1593" s="7" t="s">
-        <v>472</v>
+        <v>782</v>
       </c>
       <c r="D1593" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1594">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1594" s="7" t="s">
-        <v>511</v>
+        <v>782</v>
       </c>
       <c r="C1594" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D1594" s="7" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1595">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1595" s="7" t="s">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="C1595" s="7" t="s">
-        <v>472</v>
+        <v>782</v>
       </c>
       <c r="D1595" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1596">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1596" s="7" t="s">
-        <v>1343</v>
+        <v>782</v>
       </c>
       <c r="C1596" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D1596" s="7" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1597">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1597" s="7" t="s">
-        <v>1344</v>
+        <v>468</v>
       </c>
       <c r="C1597" s="7" t="s">
-        <v>472</v>
+        <v>1339</v>
       </c>
       <c r="D1597" s="7" t="s">
-        <v>481</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1598">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1598" s="7" t="s">
-        <v>1345</v>
+        <v>469</v>
       </c>
       <c r="C1598" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D1598" s="7" t="s">
-        <v>481</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1599">
-        <v>57899</v>
+        <v>57815</v>
       </c>
       <c r="B1599" s="7" t="s">
-        <v>1346</v>
+        <v>470</v>
       </c>
       <c r="C1599" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D1599" s="7" t="s">
-        <v>481</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
@@ -40929,10 +41700,10 @@
         <v>472</v>
       </c>
       <c r="C1600" s="7" t="s">
-        <v>1347</v>
+        <v>471</v>
       </c>
       <c r="D1600" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
@@ -40943,10 +41714,10 @@
         <v>473</v>
       </c>
       <c r="C1601" s="7" t="s">
-        <v>1347</v>
+        <v>471</v>
       </c>
       <c r="D1601" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
@@ -40957,35 +41728,35 @@
         <v>783</v>
       </c>
       <c r="C1602" s="7" t="s">
-        <v>1347</v>
+        <v>471</v>
       </c>
       <c r="D1602" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1603">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1603" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C1603" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D1603" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1604">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1604" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C1604" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D1604" s="7" t="s">
         <v>47</v>
@@ -40993,531 +41764,531 @@
     </row>
     <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1605">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1605" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C1605" s="7" t="s">
-        <v>479</v>
+        <v>783</v>
       </c>
       <c r="D1605" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1606">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1606" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C1606" s="7" t="s">
-        <v>54</v>
+        <v>784</v>
       </c>
       <c r="D1606" s="7" t="s">
-        <v>587</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1607">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1607" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C1607" s="7" t="s">
-        <v>1348</v>
+        <v>784</v>
       </c>
       <c r="D1607" s="7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1608">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1608" s="7" t="s">
-        <v>1348</v>
+        <v>783</v>
       </c>
       <c r="C1608" s="7" t="s">
-        <v>1349</v>
+        <v>784</v>
       </c>
       <c r="D1608" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1609">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1609" s="7" t="s">
-        <v>1348</v>
+        <v>784</v>
       </c>
       <c r="C1609" s="7" t="s">
-        <v>786</v>
+        <v>475</v>
       </c>
       <c r="D1609" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1610">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1610" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C1610" s="7" t="s">
-        <v>787</v>
+        <v>476</v>
       </c>
       <c r="D1610" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1611">
-        <v>59668</v>
+        <v>57899</v>
       </c>
       <c r="B1611" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C1611" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D1611" s="7" t="s">
-        <v>481</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1612">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1612" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C1612" s="7" t="s">
-        <v>483</v>
+        <v>785</v>
       </c>
       <c r="D1612" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1613">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1613" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C1613" s="7" t="s">
-        <v>482</v>
+        <v>785</v>
       </c>
       <c r="D1613" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1614">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1614" s="7" t="s">
-        <v>482</v>
+        <v>783</v>
       </c>
       <c r="C1614" s="7" t="s">
-        <v>484</v>
+        <v>785</v>
       </c>
       <c r="D1614" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1615">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1615" s="7" t="s">
-        <v>484</v>
+        <v>1340</v>
       </c>
       <c r="C1615" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D1615" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1616">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1616" s="7" t="s">
-        <v>482</v>
+        <v>1341</v>
       </c>
       <c r="C1616" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D1616" s="7" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1617">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1617" s="7" t="s">
-        <v>485</v>
+        <v>1342</v>
       </c>
       <c r="C1617" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D1617" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1618">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1618" s="7" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="C1618" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D1618" s="7" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1619">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1619" s="7" t="s">
-        <v>486</v>
+        <v>41</v>
       </c>
       <c r="C1619" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D1619" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1620">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1620" s="7" t="s">
-        <v>482</v>
+        <v>1343</v>
       </c>
       <c r="C1620" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D1620" s="7" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1621">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1621" s="7" t="s">
-        <v>487</v>
+        <v>1344</v>
       </c>
       <c r="C1621" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D1621" s="7" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1622">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1622" s="7" t="s">
-        <v>482</v>
+        <v>1345</v>
       </c>
       <c r="C1622" s="7" t="s">
-        <v>741</v>
+        <v>472</v>
       </c>
       <c r="D1622" s="7" t="s">
-        <v>61</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1623">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1623" s="7" t="s">
-        <v>482</v>
+        <v>1346</v>
       </c>
       <c r="C1623" s="7" t="s">
-        <v>60</v>
+        <v>472</v>
       </c>
       <c r="D1623" s="7" t="s">
-        <v>61</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1624">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1624" s="7" t="s">
-        <v>1350</v>
+        <v>472</v>
       </c>
       <c r="C1624" s="7" t="s">
-        <v>741</v>
+        <v>1347</v>
       </c>
       <c r="D1624" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1625">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1625" s="7" t="s">
-        <v>279</v>
+        <v>473</v>
       </c>
       <c r="C1625" s="7" t="s">
-        <v>789</v>
+        <v>1347</v>
       </c>
       <c r="D1625" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1626">
-        <v>58651</v>
+        <v>57899</v>
       </c>
       <c r="B1626" s="7" t="s">
-        <v>279</v>
+        <v>783</v>
       </c>
       <c r="C1626" s="7" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D1626" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1627">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1627" s="7" t="s">
-        <v>789</v>
+        <v>477</v>
       </c>
       <c r="C1627" s="7" t="s">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="D1627" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1628">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1628" s="7" t="s">
-        <v>1351</v>
+        <v>478</v>
       </c>
       <c r="C1628" s="7" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="D1628" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1629">
-        <v>58651</v>
+        <v>59668</v>
       </c>
       <c r="B1629" s="7" t="s">
-        <v>1352</v>
+        <v>478</v>
       </c>
       <c r="C1629" s="7" t="s">
-        <v>788</v>
+        <v>479</v>
       </c>
       <c r="D1629" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1630">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1630" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C1630" s="7" t="s">
-        <v>488</v>
+        <v>54</v>
       </c>
       <c r="D1630" s="7" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1631">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1631" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C1631" s="7" t="s">
-        <v>490</v>
+        <v>1348</v>
       </c>
       <c r="D1631" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1632">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1632" s="7" t="s">
-        <v>489</v>
+        <v>1348</v>
       </c>
       <c r="C1632" s="7" t="s">
-        <v>488</v>
+        <v>1349</v>
       </c>
       <c r="D1632" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1633">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1633" s="7" t="s">
-        <v>488</v>
+        <v>1348</v>
       </c>
       <c r="C1633" s="7" t="s">
-        <v>489</v>
+        <v>786</v>
       </c>
       <c r="D1633" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1634">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1634" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C1634" s="7" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="D1634" s="7" t="s">
-        <v>522</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1635">
-        <v>58837</v>
+        <v>59668</v>
       </c>
       <c r="B1635" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C1635" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D1635" s="7" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1636">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1636" s="7" t="s">
-        <v>1353</v>
+        <v>482</v>
       </c>
       <c r="C1636" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D1636" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1637">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1637" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C1637" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D1637" s="7" t="s">
-        <v>1186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1638">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1638" s="7" t="s">
-        <v>790</v>
+        <v>482</v>
       </c>
       <c r="C1638" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D1638" s="7" t="s">
-        <v>1186</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1639">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1639" s="7" t="s">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="C1639" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D1639" s="7" t="s">
-        <v>1186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1640">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1640" s="7" t="s">
-        <v>792</v>
+        <v>482</v>
       </c>
       <c r="C1640" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D1640" s="7" t="s">
-        <v>1186</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1641">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1641" s="7" t="s">
-        <v>1354</v>
+        <v>485</v>
       </c>
       <c r="C1641" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D1641" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1642">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1642" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C1642" s="7" t="s">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="D1642" s="7" t="s">
         <v>10</v>
@@ -41525,13 +42296,13 @@
     </row>
     <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1643">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1643" s="7" t="s">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="C1643" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D1643" s="7" t="s">
         <v>47</v>
@@ -41539,181 +42310,181 @@
     </row>
     <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1644">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1644" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C1644" s="7" t="s">
-        <v>1355</v>
+        <v>487</v>
       </c>
       <c r="D1644" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1645">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1645" s="7" t="s">
-        <v>1355</v>
+        <v>487</v>
       </c>
       <c r="C1645" s="7" t="s">
-        <v>1356</v>
+        <v>482</v>
       </c>
       <c r="D1645" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1646">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1646" s="7" t="s">
-        <v>1355</v>
+        <v>482</v>
       </c>
       <c r="C1646" s="7" t="s">
-        <v>1357</v>
+        <v>741</v>
       </c>
       <c r="D1646" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1647">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1647" s="7" t="s">
-        <v>284</v>
+        <v>482</v>
       </c>
       <c r="C1647" s="7" t="s">
-        <v>794</v>
+        <v>60</v>
       </c>
       <c r="D1647" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1648">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1648" s="7" t="s">
-        <v>284</v>
+        <v>1350</v>
       </c>
       <c r="C1648" s="7" t="s">
-        <v>795</v>
+        <v>741</v>
       </c>
       <c r="D1648" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1649">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1649" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C1649" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D1649" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1650">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1650" s="7" t="s">
-        <v>798</v>
+        <v>279</v>
       </c>
       <c r="C1650" s="7" t="s">
-        <v>797</v>
+        <v>1351</v>
       </c>
       <c r="D1650" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1651">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1651" s="7" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C1651" s="7" t="s">
-        <v>799</v>
+        <v>279</v>
       </c>
       <c r="D1651" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1652" s="7" t="s">
-        <v>801</v>
+        <v>1351</v>
       </c>
       <c r="C1652" s="7" t="s">
-        <v>800</v>
+        <v>279</v>
       </c>
       <c r="D1652" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1653">
-        <v>59380</v>
+        <v>58651</v>
       </c>
       <c r="B1653" s="7" t="s">
-        <v>802</v>
+        <v>1352</v>
       </c>
       <c r="C1653" s="7" t="s">
-        <v>492</v>
+        <v>788</v>
       </c>
       <c r="D1653" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1654">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1654" s="7" t="s">
-        <v>1358</v>
+        <v>490</v>
       </c>
       <c r="C1654" s="7" t="s">
-        <v>1356</v>
+        <v>488</v>
       </c>
       <c r="D1654" s="7" t="s">
-        <v>1214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1655">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1655" s="7" t="s">
-        <v>1358</v>
+        <v>488</v>
       </c>
       <c r="C1655" s="7" t="s">
-        <v>1357</v>
+        <v>490</v>
       </c>
       <c r="D1655" s="7" t="s">
-        <v>1214</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1656">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1656" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C1656" s="7" t="s">
-        <v>1359</v>
+        <v>488</v>
       </c>
       <c r="D1656" s="7" t="s">
         <v>10</v>
@@ -41721,13 +42492,13 @@
     </row>
     <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1657">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1657" s="7" t="s">
-        <v>1359</v>
+        <v>488</v>
       </c>
       <c r="C1657" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D1657" s="7" t="s">
         <v>47</v>
@@ -41735,881 +42506,881 @@
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1658">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1658" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C1658" s="7" t="s">
-        <v>803</v>
+        <v>489</v>
       </c>
       <c r="D1658" s="7" t="s">
-        <v>10</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1659">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1659" s="7" t="s">
-        <v>803</v>
+        <v>489</v>
       </c>
       <c r="C1659" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D1659" s="7" t="s">
-        <v>47</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1660">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1660" s="7" t="s">
-        <v>494</v>
+        <v>1353</v>
       </c>
       <c r="C1660" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D1660" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1661">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1661" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C1661" s="7" t="s">
-        <v>1360</v>
+        <v>490</v>
       </c>
       <c r="D1661" s="7" t="s">
-        <v>199</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1662">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1662" s="7" t="s">
-        <v>496</v>
+        <v>790</v>
       </c>
       <c r="C1662" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D1662" s="7" t="s">
-        <v>23</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1663">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1663" s="7" t="s">
-        <v>496</v>
+        <v>791</v>
       </c>
       <c r="C1663" s="7" t="s">
-        <v>804</v>
+        <v>490</v>
       </c>
       <c r="D1663" s="7" t="s">
-        <v>23</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1664">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1664" s="7" t="s">
-        <v>496</v>
+        <v>792</v>
       </c>
       <c r="C1664" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D1664" s="7" t="s">
-        <v>23</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1665">
-        <v>58254</v>
+        <v>58837</v>
       </c>
       <c r="B1665" s="7" t="s">
-        <v>496</v>
+        <v>1354</v>
       </c>
       <c r="C1665" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D1665" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1666">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1666" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C1666" s="7" t="s">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="D1666" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1667">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1667" s="7" t="s">
-        <v>1361</v>
+        <v>74</v>
       </c>
       <c r="C1667" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D1667" s="7" t="s">
-        <v>806</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1668">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1668" s="7" t="s">
-        <v>805</v>
+        <v>492</v>
       </c>
       <c r="C1668" s="7" t="s">
-        <v>496</v>
+        <v>1355</v>
       </c>
       <c r="D1668" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1669">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1669" s="7" t="s">
-        <v>807</v>
+        <v>1355</v>
       </c>
       <c r="C1669" s="7" t="s">
-        <v>496</v>
+        <v>1356</v>
       </c>
       <c r="D1669" s="7" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1670">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1670" s="7" t="s">
-        <v>808</v>
+        <v>1355</v>
       </c>
       <c r="C1670" s="7" t="s">
-        <v>501</v>
+        <v>1357</v>
       </c>
       <c r="D1670" s="7" t="s">
-        <v>806</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1671">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1671" s="7" t="s">
-        <v>809</v>
+        <v>284</v>
       </c>
       <c r="C1671" s="7" t="s">
-        <v>501</v>
+        <v>794</v>
       </c>
       <c r="D1671" s="7" t="s">
-        <v>806</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1672">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1672" s="7" t="s">
-        <v>502</v>
+        <v>284</v>
       </c>
       <c r="C1672" s="7" t="s">
-        <v>503</v>
+        <v>795</v>
       </c>
       <c r="D1672" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1673">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1673" s="7" t="s">
-        <v>503</v>
+        <v>284</v>
       </c>
       <c r="C1673" s="7" t="s">
-        <v>502</v>
+        <v>796</v>
       </c>
       <c r="D1673" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1674">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1674" s="7" t="s">
-        <v>502</v>
+        <v>798</v>
       </c>
       <c r="C1674" s="7" t="s">
-        <v>507</v>
+        <v>797</v>
       </c>
       <c r="D1674" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1675">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1675" s="7" t="s">
-        <v>507</v>
+        <v>798</v>
       </c>
       <c r="C1675" s="7" t="s">
-        <v>502</v>
+        <v>799</v>
       </c>
       <c r="D1675" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1676">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1676" s="7" t="s">
-        <v>503</v>
+        <v>801</v>
       </c>
       <c r="C1676" s="7" t="s">
-        <v>504</v>
+        <v>800</v>
       </c>
       <c r="D1676" s="7" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1677">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1677" s="7" t="s">
-        <v>504</v>
+        <v>802</v>
       </c>
       <c r="C1677" s="7" t="s">
-        <v>810</v>
+        <v>492</v>
       </c>
       <c r="D1677" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1678">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1678" s="7" t="s">
-        <v>504</v>
+        <v>1358</v>
       </c>
       <c r="C1678" s="7" t="s">
-        <v>811</v>
+        <v>1356</v>
       </c>
       <c r="D1678" s="7" t="s">
-        <v>23</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1679">
-        <v>58190</v>
+        <v>59380</v>
       </c>
       <c r="B1679" s="7" t="s">
-        <v>504</v>
+        <v>1358</v>
       </c>
       <c r="C1679" s="7" t="s">
-        <v>493</v>
+        <v>1357</v>
       </c>
       <c r="D1679" s="7" t="s">
-        <v>23</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1680">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1680" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C1680" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D1680" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1681">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1681" s="7" t="s">
-        <v>502</v>
+        <v>1359</v>
       </c>
       <c r="C1681" s="7" t="s">
-        <v>1363</v>
+        <v>494</v>
       </c>
       <c r="D1681" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1682">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1682" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C1682" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D1682" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1683">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1683" s="7" t="s">
-        <v>502</v>
+        <v>803</v>
       </c>
       <c r="C1683" s="7" t="s">
-        <v>813</v>
+        <v>495</v>
       </c>
       <c r="D1683" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1684">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1684" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C1684" s="7" t="s">
-        <v>1364</v>
+        <v>496</v>
       </c>
       <c r="D1684" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1685">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1685" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C1685" s="7" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D1685" s="7" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1686">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1686" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C1686" s="7" t="s">
-        <v>1364</v>
+        <v>497</v>
       </c>
       <c r="D1686" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1687">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1687" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C1687" s="7" t="s">
-        <v>1364</v>
+        <v>804</v>
       </c>
       <c r="D1687" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1688">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1688" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C1688" s="7" t="s">
-        <v>814</v>
+        <v>498</v>
       </c>
       <c r="D1688" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1689">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1689" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C1689" s="7" t="s">
-        <v>814</v>
+        <v>499</v>
       </c>
       <c r="D1689" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1690">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1690" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C1690" s="7" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="D1690" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1691">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1691" s="7" t="s">
-        <v>407</v>
+        <v>1361</v>
       </c>
       <c r="C1691" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D1691" s="7" t="s">
-        <v>47</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1692">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1692" s="7" t="s">
-        <v>508</v>
+        <v>805</v>
       </c>
       <c r="C1692" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D1692" s="7" t="s">
-        <v>23</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1693">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1693" s="7" t="s">
-        <v>509</v>
+        <v>807</v>
       </c>
       <c r="C1693" s="7" t="s">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="D1693" s="7" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1694">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1694" s="7" t="s">
-        <v>509</v>
+        <v>808</v>
       </c>
       <c r="C1694" s="7" t="s">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="D1694" s="7" t="s">
-        <v>39</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1695">
-        <v>59196</v>
+        <v>58254</v>
       </c>
       <c r="B1695" s="7" t="s">
-        <v>509</v>
+        <v>809</v>
       </c>
       <c r="C1695" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D1695" s="7" t="s">
-        <v>39</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1696">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1696" s="7" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="C1696" s="7" t="s">
-        <v>816</v>
+        <v>503</v>
       </c>
       <c r="D1696" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1697">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1697" s="7" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="C1697" s="7" t="s">
-        <v>817</v>
+        <v>502</v>
       </c>
       <c r="D1697" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1698">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1698" s="7" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="C1698" s="7" t="s">
-        <v>818</v>
+        <v>507</v>
       </c>
       <c r="D1698" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1699">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1699" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1699" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D1699" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1700">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1700" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C1700" s="7" t="s">
-        <v>819</v>
+        <v>504</v>
       </c>
       <c r="D1700" s="7" t="s">
-        <v>61</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1701">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1701" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C1701" s="7" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D1701" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1702">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1702" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C1702" s="7" t="s">
-        <v>41</v>
+        <v>811</v>
       </c>
       <c r="D1702" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1703">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1703" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C1703" s="7" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="D1703" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1704">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1704" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C1704" s="7" t="s">
-        <v>513</v>
+        <v>1362</v>
       </c>
       <c r="D1704" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1705">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1705" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C1705" s="7" t="s">
-        <v>514</v>
+        <v>1363</v>
       </c>
       <c r="D1705" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1706">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1706" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C1706" s="7" t="s">
-        <v>515</v>
+        <v>812</v>
       </c>
       <c r="D1706" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1707">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1707" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C1707" s="7" t="s">
-        <v>516</v>
+        <v>813</v>
       </c>
       <c r="D1707" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1708">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1708" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C1708" s="7" t="s">
-        <v>517</v>
+        <v>1364</v>
       </c>
       <c r="D1708" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1709">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1709" s="7" t="s">
-        <v>821</v>
+        <v>506</v>
       </c>
       <c r="C1709" s="7" t="s">
-        <v>508</v>
+        <v>1364</v>
       </c>
       <c r="D1709" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1710">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1710" s="7" t="s">
-        <v>826</v>
+        <v>507</v>
       </c>
       <c r="C1710" s="7" t="s">
-        <v>508</v>
+        <v>1364</v>
       </c>
       <c r="D1710" s="7" t="s">
-        <v>1365</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1711">
-        <v>59228</v>
+        <v>58190</v>
       </c>
       <c r="B1711" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C1711" s="7" t="s">
-        <v>822</v>
+        <v>1364</v>
       </c>
       <c r="D1711" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1712">
-        <v>59228</v>
+        <v>58190</v>
       </c>
       <c r="B1712" s="7" t="s">
-        <v>822</v>
+        <v>503</v>
       </c>
       <c r="C1712" s="7" t="s">
-        <v>518</v>
+        <v>814</v>
       </c>
       <c r="D1712" s="7" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1713">
-        <v>59228</v>
+        <v>58190</v>
       </c>
       <c r="B1713" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C1713" s="7" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D1713" s="7" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1714">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1714" s="7" t="s">
-        <v>823</v>
+        <v>508</v>
       </c>
       <c r="C1714" s="7" t="s">
-        <v>518</v>
+        <v>407</v>
       </c>
       <c r="D1714" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1715">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1715" s="7" t="s">
-        <v>518</v>
+        <v>407</v>
       </c>
       <c r="C1715" s="7" t="s">
-        <v>1366</v>
+        <v>508</v>
       </c>
       <c r="D1715" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1716">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1716" s="7" t="s">
-        <v>1366</v>
+        <v>508</v>
       </c>
       <c r="C1716" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D1716" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1717">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1717" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C1717" s="7" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="D1717" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1718">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1718" s="7" t="s">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="C1718" s="7" t="s">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="D1718" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1719">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1719" s="7" t="s">
-        <v>1366</v>
+        <v>509</v>
       </c>
       <c r="C1719" s="7" t="s">
-        <v>1367</v>
+        <v>510</v>
       </c>
       <c r="D1719" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1720">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1720" s="7" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="C1720" s="7" t="s">
-        <v>1367</v>
+        <v>816</v>
       </c>
       <c r="D1720" s="7" t="s">
         <v>59</v>
@@ -42617,225 +43388,561 @@
     </row>
     <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1721">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1721" s="7" t="s">
-        <v>518</v>
+        <v>407</v>
       </c>
       <c r="C1721" s="7" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D1721" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1722">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1722" s="7" t="s">
-        <v>824</v>
+        <v>407</v>
       </c>
       <c r="C1722" s="7" t="s">
-        <v>1366</v>
+        <v>818</v>
       </c>
       <c r="D1722" s="7" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1723">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1723" s="7" t="s">
-        <v>824</v>
+        <v>508</v>
       </c>
       <c r="C1723" s="7" t="s">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="D1723" s="7" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1724">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1724" s="7" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="C1724" s="7" t="s">
-        <v>1366</v>
+        <v>819</v>
       </c>
       <c r="D1724" s="7" t="s">
-        <v>827</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1725">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1725" s="7" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="C1725" s="7" t="s">
-        <v>333</v>
+        <v>820</v>
       </c>
       <c r="D1725" s="7" t="s">
-        <v>827</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1726">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1726" s="7" t="s">
-        <v>825</v>
+        <v>508</v>
       </c>
       <c r="C1726" s="7" t="s">
-        <v>826</v>
+        <v>41</v>
       </c>
       <c r="D1726" s="7" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1727">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1727" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C1727" s="7" t="s">
-        <v>828</v>
+        <v>512</v>
       </c>
       <c r="D1727" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1728">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1728" s="7" t="s">
-        <v>828</v>
+        <v>508</v>
       </c>
       <c r="C1728" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D1728" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1729">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1729" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C1729" s="7" t="s">
-        <v>1368</v>
+        <v>514</v>
       </c>
       <c r="D1729" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1730">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1730" s="7" t="s">
-        <v>1368</v>
+        <v>508</v>
       </c>
       <c r="C1730" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D1730" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1731">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1731" s="7" t="s">
-        <v>793</v>
+        <v>508</v>
       </c>
       <c r="C1731" s="7" t="s">
-        <v>856</v>
+        <v>516</v>
       </c>
       <c r="D1731" s="7" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1732">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1732" s="7" t="s">
-        <v>793</v>
+        <v>508</v>
       </c>
       <c r="C1732" s="7" t="s">
-        <v>1369</v>
+        <v>517</v>
       </c>
       <c r="D1732" s="7" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1733">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1733" s="7" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C1733" s="7" t="s">
-        <v>1370</v>
+        <v>508</v>
       </c>
       <c r="D1733" s="7" t="s">
-        <v>481</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1734">
-        <v>58036</v>
+        <v>59196</v>
       </c>
       <c r="B1734" s="7" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
       <c r="C1734" s="7" t="s">
-        <v>1371</v>
+        <v>508</v>
       </c>
       <c r="D1734" s="7" t="s">
-        <v>481</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1735">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1735" s="7" t="s">
-        <v>110</v>
+        <v>518</v>
       </c>
       <c r="C1735" s="7" t="s">
-        <v>519</v>
+        <v>822</v>
       </c>
       <c r="D1735" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1736">
+        <v>59228</v>
+      </c>
+      <c r="B1736" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1736" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1736" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>59228</v>
+      </c>
+      <c r="B1737" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1737" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1737" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>59228</v>
+      </c>
+      <c r="B1738" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1738" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1738" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>59228</v>
+      </c>
+      <c r="B1739" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1739" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1739" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>59228</v>
+      </c>
+      <c r="B1740" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1740" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1740" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>59228</v>
+      </c>
+      <c r="B1741" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1741" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1741" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>59228</v>
+      </c>
+      <c r="B1742" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1742" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1742" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>59228</v>
+      </c>
+      <c r="B1743" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1743" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1743" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>59228</v>
+      </c>
+      <c r="B1744" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1744" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1744" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>59228</v>
+      </c>
+      <c r="B1745" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1745" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1745" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>59228</v>
+      </c>
+      <c r="B1746" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1746" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1746" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>59228</v>
+      </c>
+      <c r="B1747" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1747" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1747" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>59228</v>
+      </c>
+      <c r="B1748" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1748" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1748" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>59228</v>
+      </c>
+      <c r="B1749" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1749" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1749" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>59228</v>
+      </c>
+      <c r="B1750" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1750" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1750" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751">
         <v>58036</v>
       </c>
-      <c r="B1736" s="7" t="s">
+      <c r="B1751" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1751" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1751" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>58036</v>
+      </c>
+      <c r="B1752" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1752" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1752" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>58036</v>
+      </c>
+      <c r="B1753" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1753" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1753" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>58036</v>
+      </c>
+      <c r="B1754" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1754" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1754" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>58036</v>
+      </c>
+      <c r="B1755" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1755" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1755" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>58036</v>
+      </c>
+      <c r="B1756" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1756" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D1756" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>58036</v>
+      </c>
+      <c r="B1757" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1757" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1757" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>58036</v>
+      </c>
+      <c r="B1758" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1758" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1758" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>58036</v>
+      </c>
+      <c r="B1759" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1759" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1759" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>58036</v>
+      </c>
+      <c r="B1760" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C1736" s="7" t="s">
+      <c r="C1760" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D1736" s="7" t="s">
+      <c r="D1760" s="7" t="s">
         <v>1372</v>
       </c>
     </row>

--- a/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_relations_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB88AF-CF40-4BC5-A36B-963BB6E3DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7AC6F-5B04-434E-900A-9418B308DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37410" yWindow="0" windowWidth="13785" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37065" yWindow="0" windowWidth="14670" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relationships_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9850" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10141" uniqueCount="1461">
   <si>
     <t>doc_id</t>
   </si>
@@ -4422,9 +4422,6 @@
   </si>
   <si>
     <t>Rousettus leschennaulti</t>
-  </si>
-  <si>
-    <t>inferrable from lack of positives for these species</t>
   </si>
   <si>
     <r>
@@ -4454,6 +4451,18 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>domestic swine</t>
+  </si>
+  <si>
+    <t>implied: "undermine efforts to eradicate this virus from the domestic swine population"</t>
+  </si>
+  <si>
+    <t>false positive, not named as a host for this virus</t>
+  </si>
+  <si>
+    <t>equally inferrable from "VHSV was not found in any species"</t>
   </si>
 </sst>
 </file>
@@ -5000,11 +5009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1760"/>
+  <dimension ref="A1:P1764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1510" sqref="M1510"/>
+      <pane ySplit="1" topLeftCell="A1625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1639" sqref="H1639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39854,7 +39863,7 @@
       </c>
       <c r="E1499" s="11"/>
       <c r="F1499" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1499" s="11"/>
       <c r="H1499" s="11" t="s">
@@ -39865,7 +39874,7 @@
         <v>1373</v>
       </c>
       <c r="L1499" s="9" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1500" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -39883,7 +39892,7 @@
       </c>
       <c r="E1500" s="11"/>
       <c r="F1500" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1500" s="11"/>
       <c r="H1500" s="11" t="s">
@@ -39909,7 +39918,7 @@
       </c>
       <c r="E1501" s="11"/>
       <c r="F1501" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1501" s="11"/>
       <c r="H1501" s="11" t="s">
@@ -39935,7 +39944,7 @@
       </c>
       <c r="E1502" s="11"/>
       <c r="F1502" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1502" s="11"/>
       <c r="H1502" s="11" t="s">
@@ -39961,7 +39970,7 @@
       </c>
       <c r="E1503" s="11"/>
       <c r="F1503" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1503" s="11"/>
       <c r="H1503" s="11" t="s">
@@ -39987,7 +39996,7 @@
       </c>
       <c r="E1504" s="11"/>
       <c r="F1504" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1504" s="11"/>
       <c r="H1504" s="11" t="s">
@@ -40013,7 +40022,7 @@
       </c>
       <c r="E1505" s="11"/>
       <c r="F1505" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1505" s="11"/>
       <c r="H1505" s="11" t="s">
@@ -40039,7 +40048,7 @@
       </c>
       <c r="E1506" s="11"/>
       <c r="F1506" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1506" s="11"/>
       <c r="H1506" s="11" t="s">
@@ -40065,7 +40074,7 @@
       </c>
       <c r="E1507" s="11"/>
       <c r="F1507" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1507" s="11"/>
       <c r="H1507" s="11" t="s">
@@ -40091,7 +40100,7 @@
       </c>
       <c r="E1508" s="11"/>
       <c r="F1508" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1508" s="11"/>
       <c r="H1508" s="11" t="s">
@@ -40117,7 +40126,7 @@
       </c>
       <c r="E1509" s="11"/>
       <c r="F1509" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1509" s="11"/>
       <c r="H1509" s="11" t="s">
@@ -40143,7 +40152,7 @@
       </c>
       <c r="E1510" s="11"/>
       <c r="F1510" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1510" s="11"/>
       <c r="H1510" s="11" t="s">
@@ -40169,7 +40178,7 @@
       </c>
       <c r="E1511" s="11"/>
       <c r="F1511" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1511" s="11"/>
       <c r="H1511" s="11" t="s">
@@ -40195,7 +40204,7 @@
       </c>
       <c r="E1512" s="11"/>
       <c r="F1512" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1512" s="11"/>
       <c r="H1512" s="11" t="s">
@@ -40221,7 +40230,7 @@
       </c>
       <c r="E1513" s="11"/>
       <c r="F1513" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1513" s="11"/>
       <c r="H1513" s="11" t="s">
@@ -40247,7 +40256,7 @@
       </c>
       <c r="E1514" s="11"/>
       <c r="F1514" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G1514" s="11"/>
       <c r="H1514" s="11" t="s">
@@ -40259,24 +40268,26 @@
       </c>
     </row>
     <row r="1515" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1515" s="9">
+      <c r="A1515">
         <v>58774</v>
       </c>
-      <c r="B1515" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1515" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D1515" s="10" t="s">
+      <c r="B1515" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1515" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1515" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E1515" s="11"/>
-      <c r="F1515" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1515" s="9" t="s">
-        <v>1455</v>
+      <c r="F1515" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1515" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1515" s="1" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1516" spans="1:12" x14ac:dyDescent="0.25">
@@ -40284,10 +40295,10 @@
         <v>58774</v>
       </c>
       <c r="B1516" s="10" t="s">
-        <v>1453</v>
+        <v>440</v>
       </c>
       <c r="C1516" s="10" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="D1516" s="10" t="s">
         <v>522</v>
@@ -40296,29 +40307,36 @@
       <c r="F1516" s="11" t="s">
         <v>1383</v>
       </c>
+      <c r="G1516" s="11"/>
+      <c r="H1516" s="11"/>
+      <c r="I1516" s="11"/>
+      <c r="J1516" s="11"/>
+      <c r="K1516" s="9"/>
       <c r="L1516" s="9" t="s">
-        <v>1455</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1517" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1517" s="9">
+      <c r="A1517">
         <v>58774</v>
       </c>
-      <c r="B1517" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1517" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D1517" s="10" t="s">
+      <c r="B1517" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1517" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1517" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E1517" s="11"/>
-      <c r="F1517" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1517" s="9" t="s">
-        <v>1455</v>
+      <c r="F1517" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1517" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1517" s="1" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1518" spans="1:12" x14ac:dyDescent="0.25">
@@ -40326,10 +40344,10 @@
         <v>58774</v>
       </c>
       <c r="B1518" s="10" t="s">
-        <v>1454</v>
+        <v>441</v>
       </c>
       <c r="C1518" s="10" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="D1518" s="10" t="s">
         <v>522</v>
@@ -40338,16 +40356,21 @@
       <c r="F1518" s="11" t="s">
         <v>1383</v>
       </c>
+      <c r="G1518" s="11"/>
+      <c r="H1518" s="11"/>
+      <c r="I1518" s="11"/>
+      <c r="J1518" s="11"/>
+      <c r="K1518" s="9"/>
       <c r="L1518" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1519" s="9">
         <v>58774</v>
       </c>
       <c r="B1519" s="10" t="s">
-        <v>443</v>
+        <v>30</v>
       </c>
       <c r="C1519" s="10" t="s">
         <v>1453</v>
@@ -40359,9 +40382,10 @@
       <c r="F1519" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="L1519" s="9" t="s">
-        <v>1455</v>
-      </c>
+      <c r="G1519" s="11"/>
+      <c r="H1519" s="11"/>
+      <c r="I1519" s="11"/>
+      <c r="J1519" s="11"/>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1520" s="9">
@@ -40371,7 +40395,7 @@
         <v>1453</v>
       </c>
       <c r="C1520" s="10" t="s">
-        <v>443</v>
+        <v>30</v>
       </c>
       <c r="D1520" s="10" t="s">
         <v>522</v>
@@ -40380,16 +40404,19 @@
       <c r="F1520" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="L1520" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1520" s="11"/>
+      <c r="H1520" s="11"/>
+      <c r="I1520" s="11"/>
+      <c r="J1520" s="11"/>
+      <c r="K1520" s="9"/>
+      <c r="L1520" s="9"/>
+    </row>
+    <row r="1521" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1521" s="9">
         <v>58774</v>
       </c>
       <c r="B1521" s="10" t="s">
-        <v>443</v>
+        <v>30</v>
       </c>
       <c r="C1521" s="10" t="s">
         <v>1454</v>
@@ -40401,9 +40428,10 @@
       <c r="F1521" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="L1521" s="9" t="s">
-        <v>1455</v>
-      </c>
+      <c r="G1521" s="11"/>
+      <c r="H1521" s="11"/>
+      <c r="I1521" s="11"/>
+      <c r="J1521" s="11"/>
     </row>
     <row r="1522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1522" s="9">
@@ -40413,7 +40441,7 @@
         <v>1454</v>
       </c>
       <c r="C1522" s="10" t="s">
-        <v>443</v>
+        <v>30</v>
       </c>
       <c r="D1522" s="10" t="s">
         <v>522</v>
@@ -40422,213 +40450,234 @@
       <c r="F1522" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="L1522" s="9" t="s">
-        <v>1455</v>
-      </c>
+      <c r="G1522" s="11"/>
+      <c r="H1522" s="11"/>
+      <c r="I1522" s="11"/>
+      <c r="J1522" s="11"/>
+      <c r="K1522" s="9"/>
+      <c r="L1522" s="9"/>
     </row>
     <row r="1523" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1523" s="9">
+      <c r="A1523">
         <v>58774</v>
       </c>
-      <c r="B1523" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1523" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D1523" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1523" s="11"/>
-      <c r="F1523" s="11" t="s">
+      <c r="B1523" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1523" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D1523" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1523" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1523" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1523" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>58774</v>
+      </c>
+      <c r="B1524" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1524" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1524" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1524" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1524" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1524" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>58774</v>
+      </c>
+      <c r="B1525" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1525" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D1525" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1525" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1525" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1525" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>58774</v>
+      </c>
+      <c r="B1526" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1526" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1526" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1526" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1526" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1526" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>58774</v>
+      </c>
+      <c r="B1527" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1527" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1527" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1527" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1527" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1527" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>58774</v>
+      </c>
+      <c r="B1528" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1528" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1528" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1528" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1528" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1528" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>60098</v>
+      </c>
+      <c r="B1529" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1529" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1529" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1529" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1529" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1529" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>60098</v>
+      </c>
+      <c r="B1530" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1530" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1530" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1530" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1530" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1530" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1531" s="9">
+        <v>60098</v>
+      </c>
+      <c r="B1531" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1531" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1531" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1531" s="11"/>
+      <c r="F1531" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="L1523" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1524" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1524" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C1524" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1524" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1524" s="11"/>
-      <c r="F1524" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1524" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1525" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1525" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1525" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D1525" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1525" s="11"/>
-      <c r="F1525" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1525" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1526" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1526" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C1526" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1526" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1526" s="11"/>
-      <c r="F1526" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1526" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1527" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1527" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1527" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D1527" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1527" s="11"/>
-      <c r="F1527" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1527" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1528" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1528" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C1528" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1528" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1528" s="11"/>
-      <c r="F1528" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1528" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1529" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1529" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1529" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D1529" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1529" s="11"/>
-      <c r="F1529" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1529" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1530" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1530" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C1530" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1530" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1530" s="11"/>
-      <c r="F1530" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L1530" s="9" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1531">
-        <v>58774</v>
-      </c>
-      <c r="B1531" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1531" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1531" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1531" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H1531" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="J1531" s="1" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1531" s="11"/>
+      <c r="H1531" s="11"/>
+      <c r="I1531" s="11"/>
+      <c r="J1531" s="11"/>
+      <c r="L1531" s="9" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1532" s="9">
-        <v>58774</v>
+        <v>60098</v>
       </c>
       <c r="B1532" s="10" t="s">
-        <v>440</v>
+        <v>1457</v>
       </c>
       <c r="C1532" s="10" t="s">
-        <v>30</v>
+        <v>446</v>
       </c>
       <c r="D1532" s="10" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
       <c r="E1532" s="11"/>
       <c r="F1532" s="11" t="s">
@@ -40638,164 +40687,160 @@
       <c r="H1532" s="11"/>
       <c r="I1532" s="11"/>
       <c r="J1532" s="11"/>
-      <c r="K1532" s="9"/>
       <c r="L1532" s="9" t="s">
-        <v>1406</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1533">
-        <v>58774</v>
+        <v>60098</v>
       </c>
       <c r="B1533" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1533" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D1533" s="7" t="s">
-        <v>523</v>
+        <v>61</v>
       </c>
       <c r="F1533" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="H1533" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="J1533" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="1534" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1534" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1534" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1534" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1534" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1534" s="11"/>
-      <c r="F1534" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G1534" s="11"/>
-      <c r="H1534" s="11"/>
-      <c r="I1534" s="11"/>
-      <c r="J1534" s="11"/>
-      <c r="K1534" s="9"/>
-      <c r="L1534" s="9" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1535" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1535" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1535" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D1535" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1535" s="11"/>
-      <c r="F1535" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G1535" s="11"/>
-      <c r="H1535" s="11"/>
-      <c r="I1535" s="11"/>
-      <c r="J1535" s="11"/>
+      <c r="A1534">
+        <v>60098</v>
+      </c>
+      <c r="B1534" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1534" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1534" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1534" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1534" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1534" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>60098</v>
+      </c>
+      <c r="B1535" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1535" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1535" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1535" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1535" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1536" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1536" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1536" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C1536" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1536" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1536" s="11"/>
-      <c r="F1536" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G1536" s="11"/>
-      <c r="H1536" s="11"/>
-      <c r="I1536" s="11"/>
-      <c r="J1536" s="11"/>
-      <c r="K1536" s="9"/>
-      <c r="L1536" s="9"/>
-    </row>
-    <row r="1537" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1537" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1537" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1537" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D1537" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1537" s="11"/>
-      <c r="F1537" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G1537" s="11"/>
-      <c r="H1537" s="11"/>
-      <c r="I1537" s="11"/>
-      <c r="J1537" s="11"/>
+      <c r="A1536">
+        <v>60098</v>
+      </c>
+      <c r="B1536" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1536" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1536" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1536" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1536" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1536" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>60098</v>
+      </c>
+      <c r="B1537" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1537" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1537" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1537" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1537" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1537" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1538" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1538" s="9">
-        <v>58774</v>
-      </c>
-      <c r="B1538" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C1538" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1538" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1538" s="11"/>
-      <c r="F1538" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G1538" s="11"/>
-      <c r="H1538" s="11"/>
-      <c r="I1538" s="11"/>
-      <c r="J1538" s="11"/>
-      <c r="K1538" s="9"/>
-      <c r="L1538" s="9"/>
+      <c r="A1538">
+        <v>60098</v>
+      </c>
+      <c r="B1538" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1538" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1538" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1538" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1538" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1538" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1539">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1539" s="7" t="s">
-        <v>1330</v>
+        <v>451</v>
       </c>
       <c r="C1539" s="7" t="s">
-        <v>1331</v>
+        <v>452</v>
       </c>
       <c r="D1539" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F1539" s="1" t="s">
         <v>1373</v>
@@ -40809,16 +40854,16 @@
     </row>
     <row r="1540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1540">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1540" s="7" t="s">
-        <v>1331</v>
+        <v>452</v>
       </c>
       <c r="C1540" s="7" t="s">
-        <v>1330</v>
+        <v>451</v>
       </c>
       <c r="D1540" s="7" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="F1540" s="1" t="s">
         <v>1373</v>
@@ -40832,16 +40877,16 @@
     </row>
     <row r="1541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1541">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1541" s="7" t="s">
-        <v>1332</v>
+        <v>451</v>
       </c>
       <c r="C1541" s="7" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="D1541" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1541" s="1" t="s">
         <v>1373</v>
@@ -40855,16 +40900,16 @@
     </row>
     <row r="1542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1542">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1542" s="7" t="s">
-        <v>1331</v>
+        <v>452</v>
       </c>
       <c r="C1542" s="7" t="s">
-        <v>1332</v>
+        <v>453</v>
       </c>
       <c r="D1542" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F1542" s="1" t="s">
         <v>1373</v>
@@ -40878,16 +40923,16 @@
     </row>
     <row r="1543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1543">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1543" s="7" t="s">
-        <v>1333</v>
+        <v>453</v>
       </c>
       <c r="C1543" s="7" t="s">
-        <v>1334</v>
+        <v>452</v>
       </c>
       <c r="D1543" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F1543" s="1" t="s">
         <v>1373</v>
@@ -40896,18 +40941,18 @@
         <v>1373</v>
       </c>
       <c r="J1543" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1544">
-        <v>58774</v>
+        <v>60097</v>
       </c>
       <c r="B1544" s="7" t="s">
-        <v>1334</v>
+        <v>741</v>
       </c>
       <c r="C1544" s="7" t="s">
-        <v>1333</v>
+        <v>37</v>
       </c>
       <c r="D1544" s="7" t="s">
         <v>61</v>
@@ -40919,295 +40964,483 @@
         <v>1373</v>
       </c>
       <c r="J1544" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1545">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1545" s="7" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="C1545" s="7" t="s">
-        <v>447</v>
+        <v>741</v>
       </c>
       <c r="D1545" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="F1545" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1545" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1545" s="1" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1546">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1546" s="7" t="s">
-        <v>447</v>
+        <v>779</v>
       </c>
       <c r="C1546" s="7" t="s">
-        <v>446</v>
+        <v>1336</v>
       </c>
       <c r="D1546" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="F1546" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1546" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1546" s="1" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="1547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1547">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1547" s="7" t="s">
-        <v>35</v>
+        <v>1336</v>
       </c>
       <c r="C1547" s="7" t="s">
-        <v>448</v>
+        <v>779</v>
       </c>
       <c r="D1547" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="F1547" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1547" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1547" s="1" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="1548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1548">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1548" s="7" t="s">
-        <v>35</v>
+        <v>455</v>
       </c>
       <c r="C1548" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D1548" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1549">
-        <v>60098</v>
-      </c>
-      <c r="B1549" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1549" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1549" s="7" t="s">
-        <v>61</v>
+        <v>522</v>
+      </c>
+      <c r="F1548" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1548" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1548" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1549" s="9">
+        <v>60097</v>
+      </c>
+      <c r="B1549" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1549" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1549" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1549" s="11"/>
+      <c r="F1549" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1549" s="11"/>
+      <c r="H1549" s="11"/>
+      <c r="I1549" s="11"/>
+      <c r="J1549" s="11"/>
+      <c r="L1549" s="9" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="1550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1550">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1550" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C1550" s="7" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="D1550" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1551">
-        <v>60098</v>
-      </c>
-      <c r="B1551" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1551" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1551" s="7" t="s">
-        <v>121</v>
+        <v>523</v>
+      </c>
+      <c r="F1550" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1550" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1550" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1551" s="9">
+        <v>60097</v>
+      </c>
+      <c r="B1551" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1551" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1551" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1551" s="11"/>
+      <c r="F1551" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1551" s="11"/>
+      <c r="H1551" s="11"/>
+      <c r="I1551" s="11"/>
+      <c r="J1551" s="11"/>
+      <c r="L1551" s="9" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="1552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1552">
-        <v>60098</v>
+        <v>60097</v>
       </c>
       <c r="B1552" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C1552" s="7" t="s">
-        <v>778</v>
+        <v>1337</v>
       </c>
       <c r="D1552" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1553">
-        <v>60097</v>
-      </c>
-      <c r="B1553" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1553" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1553" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F1552" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1552" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1552" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1553" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1553" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1553" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1553" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1553" s="11"/>
+      <c r="F1553" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G1553" s="11"/>
+      <c r="H1553" s="11"/>
+      <c r="I1553" s="11"/>
+      <c r="J1553" s="11"/>
+      <c r="L1553" s="9" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1554" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1554" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1554" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1554" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1554">
-        <v>60097</v>
-      </c>
-      <c r="B1554" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1554" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1554" s="7" t="s">
+      <c r="E1554" s="11"/>
+      <c r="F1554" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G1554" s="11"/>
+      <c r="H1554" s="11"/>
+      <c r="I1554" s="11"/>
+      <c r="J1554" s="11"/>
+      <c r="L1554" s="9" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>57815</v>
+      </c>
+      <c r="B1555" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1555" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1555">
-        <v>60097</v>
-      </c>
-      <c r="B1555" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1555" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D1555" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1555" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1555" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1555" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1556">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1556" s="7" t="s">
-        <v>452</v>
+        <v>780</v>
       </c>
       <c r="C1556" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D1556" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1556" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1556" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1556" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1557">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1557" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C1557" s="7" t="s">
-        <v>452</v>
+        <v>780</v>
       </c>
       <c r="D1557" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1557" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1557" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1557" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1558">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1558" s="7" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="C1558" s="7" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="D1558" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1558" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1558" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1558" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1559">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1559" s="7" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="C1559" s="7" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="D1559" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1559" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1559" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1559" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1560">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1560" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C1560" s="7" t="s">
-        <v>1336</v>
+        <v>460</v>
       </c>
       <c r="D1560" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1560" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1560" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1560" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1561">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1561" s="7" t="s">
-        <v>1336</v>
+        <v>461</v>
       </c>
       <c r="C1561" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D1561" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1561" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1561" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1561" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1562">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1562" s="7" t="s">
-        <v>455</v>
+        <v>780</v>
       </c>
       <c r="C1562" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D1562" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1562" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1562" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1562" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1563">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1563" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C1563" s="7" t="s">
-        <v>456</v>
+        <v>780</v>
       </c>
       <c r="D1563" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1563" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1563" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1563" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1564">
-        <v>60097</v>
+        <v>57815</v>
       </c>
       <c r="B1564" s="7" t="s">
-        <v>454</v>
+        <v>780</v>
       </c>
       <c r="C1564" s="7" t="s">
-        <v>1337</v>
+        <v>462</v>
       </c>
       <c r="D1564" s="7" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1564" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1564" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1564" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1565">
         <v>57815</v>
       </c>
       <c r="B1565" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C1565" s="7" t="s">
         <v>780</v>
@@ -41215,8 +41448,17 @@
       <c r="D1565" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1565" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1565" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1565" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1566">
         <v>57815</v>
       </c>
@@ -41224,746 +41466,1271 @@
         <v>780</v>
       </c>
       <c r="C1566" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D1566" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1566" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1566" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1566" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1567">
         <v>57815</v>
       </c>
       <c r="B1567" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C1567" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1567" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1567" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1567" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1567" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1568">
         <v>57815</v>
       </c>
       <c r="B1568" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1568" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1568" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1568" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1568" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1568" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1569">
         <v>57815</v>
       </c>
       <c r="B1569" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C1569" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1569" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1569" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1569" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1569" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1570">
         <v>57815</v>
       </c>
       <c r="B1570" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1570" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D1570" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1570" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1570" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1570" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1571">
         <v>57815</v>
       </c>
       <c r="B1571" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C1571" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1571" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1571" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1571" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1571" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1572">
         <v>57815</v>
       </c>
       <c r="B1572" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1572" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D1572" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1572" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1572" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1572" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1573">
         <v>57815</v>
       </c>
       <c r="B1573" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C1573" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1573" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1573" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1573" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1573" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1574">
         <v>57815</v>
       </c>
       <c r="B1574" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1574" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D1574" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1574" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1574" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1574" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1575">
         <v>57815</v>
       </c>
       <c r="B1575" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C1575" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1575" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1575" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1575" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1575" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1576">
         <v>57815</v>
       </c>
       <c r="B1576" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1576" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D1576" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1576" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1576" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1576" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1577">
         <v>57815</v>
       </c>
       <c r="B1577" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C1577" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D1577" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1577" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1577" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1577" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1578">
         <v>57815</v>
       </c>
       <c r="B1578" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1578" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D1578" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1578" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1578" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1578" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1579">
         <v>57815</v>
       </c>
       <c r="B1579" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C1579" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D1579" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="F1579" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1579" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1579" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1580">
         <v>57815</v>
       </c>
       <c r="B1580" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C1580" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D1580" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="F1580" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1580" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1580" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1581">
         <v>57815</v>
       </c>
       <c r="B1581" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C1581" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D1581" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="F1581" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1581" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1581" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1582">
         <v>57815</v>
       </c>
       <c r="B1582" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C1582" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D1582" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="F1582" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1582" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1582" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1583">
         <v>57815</v>
       </c>
       <c r="B1583" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C1583" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D1583" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="F1583" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1583" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1583" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1584">
         <v>57815</v>
       </c>
       <c r="B1584" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C1584" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1584" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1584" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1584" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1584" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1585" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1585" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1585" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1585" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1585" s="11"/>
+      <c r="F1585" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1585" s="11"/>
+      <c r="H1585" s="11"/>
+      <c r="I1585" s="11"/>
+      <c r="J1585" s="11"/>
+      <c r="K1585" s="9"/>
+      <c r="L1585" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1586" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1586" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1586" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1586" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1586" s="11"/>
+      <c r="F1586" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1586" s="11"/>
+      <c r="H1586" s="11"/>
+      <c r="I1586" s="11"/>
+      <c r="J1586" s="11"/>
+      <c r="K1586" s="9"/>
+      <c r="L1586" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1587" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1587" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1587" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1587" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1587" s="11"/>
+      <c r="F1587" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1587" s="11"/>
+      <c r="H1587" s="11"/>
+      <c r="I1587" s="11"/>
+      <c r="J1587" s="11"/>
+      <c r="K1587" s="9"/>
+      <c r="L1587" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1588" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1588" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1588" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1588" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1588" s="11"/>
+      <c r="F1588" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1588" s="11"/>
+      <c r="H1588" s="11"/>
+      <c r="I1588" s="11"/>
+      <c r="J1588" s="11"/>
+      <c r="K1588" s="9"/>
+      <c r="L1588" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1589" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1589" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1589" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1589" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1589" s="11"/>
+      <c r="F1589" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1589" s="11"/>
+      <c r="H1589" s="11"/>
+      <c r="I1589" s="11"/>
+      <c r="J1589" s="11"/>
+      <c r="K1589" s="9"/>
+      <c r="L1589" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1590" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1590" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1590" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1590" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1590" s="11"/>
+      <c r="F1590" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1590" s="11"/>
+      <c r="H1590" s="11"/>
+      <c r="I1590" s="11"/>
+      <c r="J1590" s="11"/>
+      <c r="K1590" s="9"/>
+      <c r="L1590" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1591" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1591" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1591" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1591" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1591" s="11"/>
+      <c r="F1591" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1591" s="11"/>
+      <c r="H1591" s="11"/>
+      <c r="I1591" s="11"/>
+      <c r="J1591" s="11"/>
+      <c r="K1591" s="9"/>
+      <c r="L1591" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1592" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1592" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1592" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1592" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1592" s="11"/>
+      <c r="F1592" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1592" s="11"/>
+      <c r="H1592" s="11"/>
+      <c r="I1592" s="11"/>
+      <c r="J1592" s="11"/>
+      <c r="K1592" s="9"/>
+      <c r="L1592" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1593" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1593" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D1584" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1585">
+      <c r="C1593" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1593" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1593" s="11"/>
+      <c r="F1593" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1593" s="11"/>
+      <c r="H1593" s="11"/>
+      <c r="I1593" s="11"/>
+      <c r="J1593" s="11"/>
+      <c r="K1593" s="9"/>
+      <c r="L1593" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1594" s="9">
         <v>57815</v>
       </c>
-      <c r="B1585" s="7" t="s">
+      <c r="B1594" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1594" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1594" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1594" s="11"/>
+      <c r="F1594" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1594" s="11"/>
+      <c r="H1594" s="11"/>
+      <c r="I1594" s="11"/>
+      <c r="J1594" s="11"/>
+      <c r="K1594" s="9"/>
+      <c r="L1594" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1595" s="9">
+        <v>57815</v>
+      </c>
+      <c r="B1595" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C1585" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="D1585" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1586">
+      <c r="C1595" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1595" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1595" s="11"/>
+      <c r="F1595" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1595" s="11"/>
+      <c r="H1595" s="11"/>
+      <c r="I1595" s="11"/>
+      <c r="J1595" s="11"/>
+      <c r="K1595" s="9"/>
+      <c r="L1595" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1596" s="9">
         <v>57815</v>
       </c>
-      <c r="B1586" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="C1586" s="7" t="s">
+      <c r="B1596" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1596" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D1586" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1587">
+      <c r="D1596" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1596" s="11"/>
+      <c r="F1596" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1596" s="11"/>
+      <c r="H1596" s="11"/>
+      <c r="I1596" s="11"/>
+      <c r="J1596" s="11"/>
+      <c r="K1596" s="9"/>
+      <c r="L1596" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1597" s="9">
         <v>57815</v>
       </c>
-      <c r="B1587" s="7" t="s">
+      <c r="B1597" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C1587" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="D1587" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1588">
+      <c r="C1597" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1597" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1597" s="11"/>
+      <c r="F1597" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1597" s="11"/>
+      <c r="H1597" s="11"/>
+      <c r="I1597" s="11"/>
+      <c r="J1597" s="11"/>
+      <c r="K1597" s="9"/>
+      <c r="L1597" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1598" s="9">
         <v>57815</v>
       </c>
-      <c r="B1588" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="C1588" s="7" t="s">
+      <c r="B1598" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1598" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D1588" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1589">
+      <c r="D1598" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1598" s="11"/>
+      <c r="F1598" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1598" s="11"/>
+      <c r="H1598" s="11"/>
+      <c r="I1598" s="11"/>
+      <c r="J1598" s="11"/>
+      <c r="K1598" s="9"/>
+      <c r="L1598" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1599" s="9">
         <v>57815</v>
       </c>
-      <c r="B1589" s="7" t="s">
+      <c r="B1599" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C1589" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="D1589" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1590">
+      <c r="C1599" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1599" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1599" s="11"/>
+      <c r="F1599" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1599" s="11"/>
+      <c r="H1599" s="11"/>
+      <c r="I1599" s="11"/>
+      <c r="J1599" s="11"/>
+      <c r="K1599" s="9"/>
+      <c r="L1599" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1600" s="9">
         <v>57815</v>
       </c>
-      <c r="B1590" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="C1590" s="7" t="s">
+      <c r="B1600" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1600" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D1590" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1591">
+      <c r="D1600" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1600" s="11"/>
+      <c r="F1600" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1600" s="11"/>
+      <c r="H1600" s="11"/>
+      <c r="I1600" s="11"/>
+      <c r="J1600" s="11"/>
+      <c r="K1600" s="9"/>
+      <c r="L1600" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1601">
         <v>57815</v>
       </c>
-      <c r="B1591" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1591" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="D1591" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1592">
+      <c r="B1601" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1601" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1601" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1601" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1601" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1601" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1602">
         <v>57815</v>
       </c>
-      <c r="B1592" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="C1592" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1592" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1593">
+      <c r="B1602" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1602" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1602" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1602" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1602" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1602" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1603">
         <v>57815</v>
       </c>
-      <c r="B1593" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1593" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="D1593" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1594">
-        <v>57815</v>
-      </c>
-      <c r="B1594" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="C1594" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D1594" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1595">
-        <v>57815</v>
-      </c>
-      <c r="B1595" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1595" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="D1595" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1596">
-        <v>57815</v>
-      </c>
-      <c r="B1596" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="C1596" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1596" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1597">
-        <v>57815</v>
-      </c>
-      <c r="B1597" s="7" t="s">
+      <c r="B1603" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1603" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C1597" s="7" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D1597" s="7" t="s">
+      <c r="D1603" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1598">
-        <v>57815</v>
-      </c>
-      <c r="B1598" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C1598" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D1598" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1599">
-        <v>57815</v>
-      </c>
-      <c r="B1599" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C1599" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D1599" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1600">
-        <v>57899</v>
-      </c>
-      <c r="B1600" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1600" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1600" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1601">
-        <v>57899</v>
-      </c>
-      <c r="B1601" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1601" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1601" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1602">
-        <v>57899</v>
-      </c>
-      <c r="B1602" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="C1602" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1602" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1603">
-        <v>57899</v>
-      </c>
-      <c r="B1603" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C1603" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1603" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1603" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1603" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1603" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1604">
         <v>57899</v>
       </c>
       <c r="B1604" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1604" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C1604" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="D1604" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1604" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1604" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1604" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1605">
         <v>57899</v>
       </c>
       <c r="B1605" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1605" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C1605" s="7" t="s">
-        <v>783</v>
-      </c>
       <c r="D1605" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1605" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1605" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1605" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1606">
         <v>57899</v>
       </c>
       <c r="B1606" s="7" t="s">
-        <v>472</v>
+        <v>783</v>
       </c>
       <c r="C1606" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="D1606" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1606" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1606" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1606" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1607">
         <v>57899</v>
       </c>
       <c r="B1607" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1607" s="7" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D1607" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1607" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1607" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1607" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1608">
         <v>57899</v>
       </c>
       <c r="B1608" s="7" t="s">
-        <v>783</v>
+        <v>471</v>
       </c>
       <c r="C1608" s="7" t="s">
-        <v>784</v>
+        <v>473</v>
       </c>
       <c r="D1608" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1608" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1609">
         <v>57899</v>
       </c>
       <c r="B1609" s="7" t="s">
-        <v>784</v>
+        <v>471</v>
       </c>
       <c r="C1609" s="7" t="s">
-        <v>475</v>
+        <v>783</v>
       </c>
       <c r="D1609" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1609" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1609" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1610">
         <v>57899</v>
       </c>
       <c r="B1610" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C1610" s="7" t="s">
-        <v>476</v>
+        <v>784</v>
       </c>
       <c r="D1610" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1610" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1610" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1610" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1611">
         <v>57899</v>
       </c>
       <c r="B1611" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1611" s="7" t="s">
-        <v>475</v>
+        <v>784</v>
       </c>
       <c r="D1611" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1611" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1611" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1611" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1612">
         <v>57899</v>
       </c>
       <c r="B1612" s="7" t="s">
-        <v>472</v>
+        <v>783</v>
       </c>
       <c r="C1612" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1612" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1612" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1612" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1613">
         <v>57899</v>
       </c>
       <c r="B1613" s="7" t="s">
-        <v>473</v>
+        <v>784</v>
       </c>
       <c r="C1613" s="7" t="s">
-        <v>785</v>
+        <v>475</v>
       </c>
       <c r="D1613" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F1613" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1613" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1613" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1614">
         <v>57899</v>
       </c>
       <c r="B1614" s="7" t="s">
-        <v>783</v>
+        <v>475</v>
       </c>
       <c r="C1614" s="7" t="s">
-        <v>785</v>
+        <v>476</v>
       </c>
       <c r="D1614" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F1614" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1614" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1614" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1615">
         <v>57899</v>
       </c>
       <c r="B1615" s="7" t="s">
-        <v>1340</v>
+        <v>474</v>
       </c>
       <c r="C1615" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D1615" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1615" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J1615" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1616">
         <v>57899</v>
       </c>
       <c r="B1616" s="7" t="s">
-        <v>1341</v>
+        <v>472</v>
       </c>
       <c r="C1616" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1616" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1616" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1616" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1616" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1617">
         <v>57899</v>
       </c>
       <c r="B1617" s="7" t="s">
-        <v>1342</v>
+        <v>473</v>
       </c>
       <c r="C1617" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1617" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1617" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1617" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1618">
         <v>57899</v>
       </c>
       <c r="B1618" s="7" t="s">
-        <v>511</v>
+        <v>783</v>
       </c>
       <c r="C1618" s="7" t="s">
-        <v>472</v>
+        <v>785</v>
       </c>
       <c r="D1618" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F1618" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1618" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1618" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1619">
         <v>57899</v>
       </c>
       <c r="B1619" s="7" t="s">
-        <v>41</v>
+        <v>1340</v>
       </c>
       <c r="C1619" s="7" t="s">
         <v>472</v>
@@ -41971,13 +42738,22 @@
       <c r="D1619" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1619" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1619" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1619" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1620">
         <v>57899</v>
       </c>
       <c r="B1620" s="7" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C1620" s="7" t="s">
         <v>472</v>
@@ -41985,13 +42761,22 @@
       <c r="D1620" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1620" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1620" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1620" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1621">
         <v>57899</v>
       </c>
       <c r="B1621" s="7" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C1621" s="7" t="s">
         <v>472</v>
@@ -41999,13 +42784,22 @@
       <c r="D1621" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1621" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1621" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1621" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1622">
         <v>57899</v>
       </c>
       <c r="B1622" s="7" t="s">
-        <v>1345</v>
+        <v>511</v>
       </c>
       <c r="C1622" s="7" t="s">
         <v>472</v>
@@ -42013,13 +42807,22 @@
       <c r="D1622" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1622" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1622" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1622" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1623">
         <v>57899</v>
       </c>
       <c r="B1623" s="7" t="s">
-        <v>1346</v>
+        <v>41</v>
       </c>
       <c r="C1623" s="7" t="s">
         <v>472</v>
@@ -42027,232 +42830,385 @@
       <c r="D1623" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1623" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1623" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1623" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1624">
         <v>57899</v>
       </c>
       <c r="B1624" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1624" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C1624" s="7" t="s">
-        <v>1347</v>
-      </c>
       <c r="D1624" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="F1624" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1624" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1624" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1625">
         <v>57899</v>
       </c>
       <c r="B1625" s="7" t="s">
-        <v>473</v>
+        <v>1344</v>
       </c>
       <c r="C1625" s="7" t="s">
-        <v>1347</v>
+        <v>472</v>
       </c>
       <c r="D1625" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="F1625" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1625" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1625" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1626">
         <v>57899</v>
       </c>
       <c r="B1626" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1626" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1626" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1626" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1626" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1626" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>57899</v>
+      </c>
+      <c r="B1627" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C1627" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1627" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1627" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1627" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1627" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>57899</v>
+      </c>
+      <c r="B1628" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1628" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1628" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1628" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1628" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1628" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>57899</v>
+      </c>
+      <c r="B1629" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1629" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1629" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1629" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1629" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1629" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>57899</v>
+      </c>
+      <c r="B1630" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="C1626" s="7" t="s">
+      <c r="C1630" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="D1626" s="7" t="s">
+      <c r="D1630" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1627">
-        <v>59668</v>
-      </c>
-      <c r="B1627" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C1627" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="D1627" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1628">
-        <v>59668</v>
-      </c>
-      <c r="B1628" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1628" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1628" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1629">
-        <v>59668</v>
-      </c>
-      <c r="B1629" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1629" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1629" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1630">
-        <v>59668</v>
-      </c>
-      <c r="B1630" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C1630" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1630" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1630" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1630" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1630" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1631">
         <v>59668</v>
       </c>
       <c r="B1631" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1631" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C1631" s="7" t="s">
-        <v>1348</v>
-      </c>
       <c r="D1631" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F1631" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1631" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1631" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1632">
         <v>59668</v>
       </c>
       <c r="B1632" s="7" t="s">
-        <v>1348</v>
+        <v>478</v>
       </c>
       <c r="C1632" s="7" t="s">
-        <v>1349</v>
+        <v>477</v>
       </c>
       <c r="D1632" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F1632" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1632" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1632" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1633">
         <v>59668</v>
       </c>
       <c r="B1633" s="7" t="s">
-        <v>1348</v>
+        <v>478</v>
       </c>
       <c r="C1633" s="7" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
       <c r="D1633" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F1633" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1633" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1633" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1634">
         <v>59668</v>
       </c>
       <c r="B1634" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C1634" s="7" t="s">
-        <v>787</v>
+        <v>54</v>
       </c>
       <c r="D1634" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F1634" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1634" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1634" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1635">
         <v>59668</v>
       </c>
       <c r="B1635" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1635" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D1635" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1635" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1635" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1635" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>59668</v>
+      </c>
+      <c r="B1636" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1636" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1636" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1636" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1636" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1636" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>59668</v>
+      </c>
+      <c r="B1637" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1637" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1637" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1637" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1637" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1637" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>59668</v>
+      </c>
+      <c r="B1638" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1638" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1638" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1638" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1638" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1638" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>59668</v>
+      </c>
+      <c r="B1639" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C1635" s="7" t="s">
+      <c r="C1639" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D1635" s="7" t="s">
+      <c r="D1639" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1636">
-        <v>58651</v>
-      </c>
-      <c r="B1636" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C1636" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1636" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1637">
-        <v>58651</v>
-      </c>
-      <c r="B1637" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C1637" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1637" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1638">
-        <v>58651</v>
-      </c>
-      <c r="B1638" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C1638" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1638" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1639">
-        <v>58651</v>
-      </c>
-      <c r="B1639" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1639" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1639" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1639" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H1639" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J1639" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1640">
         <v>58651</v>
       </c>
@@ -42260,18 +43216,18 @@
         <v>482</v>
       </c>
       <c r="C1640" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D1640" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1641">
         <v>58651</v>
       </c>
       <c r="B1641" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C1641" s="7" t="s">
         <v>482</v>
@@ -42280,7 +43236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1642">
         <v>58651</v>
       </c>
@@ -42288,18 +43244,18 @@
         <v>482</v>
       </c>
       <c r="C1642" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D1642" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1643">
         <v>58651</v>
       </c>
       <c r="B1643" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C1643" s="7" t="s">
         <v>482</v>
@@ -42308,7 +43264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1644">
         <v>58651</v>
       </c>
@@ -42316,18 +43272,18 @@
         <v>482</v>
       </c>
       <c r="C1644" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D1644" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1645">
         <v>58651</v>
       </c>
       <c r="B1645" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C1645" s="7" t="s">
         <v>482</v>
@@ -42336,7 +43292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1646">
         <v>58651</v>
       </c>
@@ -42344,38 +43300,38 @@
         <v>482</v>
       </c>
       <c r="C1646" s="7" t="s">
-        <v>741</v>
+        <v>486</v>
       </c>
       <c r="D1646" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1647">
         <v>58651</v>
       </c>
       <c r="B1647" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1647" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C1647" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D1647" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1648">
         <v>58651</v>
       </c>
       <c r="B1648" s="7" t="s">
-        <v>1350</v>
+        <v>482</v>
       </c>
       <c r="C1648" s="7" t="s">
-        <v>741</v>
+        <v>487</v>
       </c>
       <c r="D1648" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
@@ -42383,13 +43339,13 @@
         <v>58651</v>
       </c>
       <c r="B1649" s="7" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="C1649" s="7" t="s">
-        <v>789</v>
+        <v>482</v>
       </c>
       <c r="D1649" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
@@ -42397,13 +43353,13 @@
         <v>58651</v>
       </c>
       <c r="B1650" s="7" t="s">
-        <v>279</v>
+        <v>482</v>
       </c>
       <c r="C1650" s="7" t="s">
-        <v>1351</v>
+        <v>741</v>
       </c>
       <c r="D1650" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
@@ -42411,13 +43367,13 @@
         <v>58651</v>
       </c>
       <c r="B1651" s="7" t="s">
-        <v>789</v>
+        <v>482</v>
       </c>
       <c r="C1651" s="7" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="D1651" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
@@ -42425,13 +43381,13 @@
         <v>58651</v>
       </c>
       <c r="B1652" s="7" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1652" s="7" t="s">
-        <v>279</v>
+        <v>741</v>
       </c>
       <c r="D1652" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
@@ -42439,69 +43395,69 @@
         <v>58651</v>
       </c>
       <c r="B1653" s="7" t="s">
-        <v>1352</v>
+        <v>279</v>
       </c>
       <c r="C1653" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D1653" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1654">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1654" s="7" t="s">
-        <v>490</v>
+        <v>279</v>
       </c>
       <c r="C1654" s="7" t="s">
-        <v>488</v>
+        <v>1351</v>
       </c>
       <c r="D1654" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1655">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1655" s="7" t="s">
-        <v>488</v>
+        <v>789</v>
       </c>
       <c r="C1655" s="7" t="s">
-        <v>490</v>
+        <v>279</v>
       </c>
       <c r="D1655" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1656">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1656" s="7" t="s">
-        <v>489</v>
+        <v>1351</v>
       </c>
       <c r="C1656" s="7" t="s">
-        <v>488</v>
+        <v>279</v>
       </c>
       <c r="D1656" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1657">
-        <v>58837</v>
+        <v>58651</v>
       </c>
       <c r="B1657" s="7" t="s">
-        <v>488</v>
+        <v>1352</v>
       </c>
       <c r="C1657" s="7" t="s">
-        <v>489</v>
+        <v>788</v>
       </c>
       <c r="D1657" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
@@ -42512,10 +43468,10 @@
         <v>490</v>
       </c>
       <c r="C1658" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1658" s="7" t="s">
-        <v>522</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
@@ -42523,13 +43479,13 @@
         <v>58837</v>
       </c>
       <c r="B1659" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1659" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D1659" s="7" t="s">
-        <v>523</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
@@ -42537,13 +43493,13 @@
         <v>58837</v>
       </c>
       <c r="B1660" s="7" t="s">
-        <v>1353</v>
+        <v>489</v>
       </c>
       <c r="C1660" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D1660" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
@@ -42551,13 +43507,13 @@
         <v>58837</v>
       </c>
       <c r="B1661" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C1661" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1661" s="7" t="s">
-        <v>1186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
@@ -42565,13 +43521,13 @@
         <v>58837</v>
       </c>
       <c r="B1662" s="7" t="s">
-        <v>790</v>
+        <v>490</v>
       </c>
       <c r="C1662" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1662" s="7" t="s">
-        <v>1186</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
@@ -42579,13 +43535,13 @@
         <v>58837</v>
       </c>
       <c r="B1663" s="7" t="s">
-        <v>791</v>
+        <v>489</v>
       </c>
       <c r="C1663" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D1663" s="7" t="s">
-        <v>1186</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
@@ -42593,13 +43549,13 @@
         <v>58837</v>
       </c>
       <c r="B1664" s="7" t="s">
-        <v>792</v>
+        <v>1353</v>
       </c>
       <c r="C1664" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D1664" s="7" t="s">
-        <v>1186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
@@ -42607,69 +43563,69 @@
         <v>58837</v>
       </c>
       <c r="B1665" s="7" t="s">
-        <v>1354</v>
+        <v>491</v>
       </c>
       <c r="C1665" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D1665" s="7" t="s">
-        <v>44</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1666">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1666" s="7" t="s">
-        <v>492</v>
+        <v>790</v>
       </c>
       <c r="C1666" s="7" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="D1666" s="7" t="s">
-        <v>10</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1667">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1667" s="7" t="s">
-        <v>74</v>
+        <v>791</v>
       </c>
       <c r="C1667" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D1667" s="7" t="s">
-        <v>47</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1668">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1668" s="7" t="s">
-        <v>492</v>
+        <v>792</v>
       </c>
       <c r="C1668" s="7" t="s">
-        <v>1355</v>
+        <v>490</v>
       </c>
       <c r="D1668" s="7" t="s">
-        <v>23</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1669">
-        <v>59380</v>
+        <v>58837</v>
       </c>
       <c r="B1669" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C1669" s="7" t="s">
-        <v>1356</v>
+        <v>489</v>
       </c>
       <c r="D1669" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
@@ -42677,13 +43633,13 @@
         <v>59380</v>
       </c>
       <c r="B1670" s="7" t="s">
-        <v>1355</v>
+        <v>492</v>
       </c>
       <c r="C1670" s="7" t="s">
-        <v>1357</v>
+        <v>74</v>
       </c>
       <c r="D1670" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
@@ -42691,13 +43647,13 @@
         <v>59380</v>
       </c>
       <c r="B1671" s="7" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="C1671" s="7" t="s">
-        <v>794</v>
+        <v>492</v>
       </c>
       <c r="D1671" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
@@ -42705,13 +43661,13 @@
         <v>59380</v>
       </c>
       <c r="B1672" s="7" t="s">
-        <v>284</v>
+        <v>492</v>
       </c>
       <c r="C1672" s="7" t="s">
-        <v>795</v>
+        <v>1355</v>
       </c>
       <c r="D1672" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
@@ -42719,13 +43675,13 @@
         <v>59380</v>
       </c>
       <c r="B1673" s="7" t="s">
-        <v>284</v>
+        <v>1355</v>
       </c>
       <c r="C1673" s="7" t="s">
-        <v>796</v>
+        <v>1356</v>
       </c>
       <c r="D1673" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
@@ -42733,13 +43689,13 @@
         <v>59380</v>
       </c>
       <c r="B1674" s="7" t="s">
-        <v>798</v>
+        <v>1355</v>
       </c>
       <c r="C1674" s="7" t="s">
-        <v>797</v>
+        <v>1357</v>
       </c>
       <c r="D1674" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
@@ -42747,10 +43703,10 @@
         <v>59380</v>
       </c>
       <c r="B1675" s="7" t="s">
-        <v>798</v>
+        <v>284</v>
       </c>
       <c r="C1675" s="7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D1675" s="7" t="s">
         <v>21</v>
@@ -42761,10 +43717,10 @@
         <v>59380</v>
       </c>
       <c r="B1676" s="7" t="s">
-        <v>801</v>
+        <v>284</v>
       </c>
       <c r="C1676" s="7" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D1676" s="7" t="s">
         <v>21</v>
@@ -42775,13 +43731,13 @@
         <v>59380</v>
       </c>
       <c r="B1677" s="7" t="s">
-        <v>802</v>
+        <v>284</v>
       </c>
       <c r="C1677" s="7" t="s">
-        <v>492</v>
+        <v>796</v>
       </c>
       <c r="D1677" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
@@ -42789,13 +43745,13 @@
         <v>59380</v>
       </c>
       <c r="B1678" s="7" t="s">
-        <v>1358</v>
+        <v>798</v>
       </c>
       <c r="C1678" s="7" t="s">
-        <v>1356</v>
+        <v>797</v>
       </c>
       <c r="D1678" s="7" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
@@ -42803,69 +43759,69 @@
         <v>59380</v>
       </c>
       <c r="B1679" s="7" t="s">
-        <v>1358</v>
+        <v>798</v>
       </c>
       <c r="C1679" s="7" t="s">
-        <v>1357</v>
+        <v>799</v>
       </c>
       <c r="D1679" s="7" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1680">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1680" s="7" t="s">
-        <v>494</v>
+        <v>801</v>
       </c>
       <c r="C1680" s="7" t="s">
-        <v>1359</v>
+        <v>800</v>
       </c>
       <c r="D1680" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1681">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1681" s="7" t="s">
-        <v>1359</v>
+        <v>802</v>
       </c>
       <c r="C1681" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1681" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1682">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1682" s="7" t="s">
-        <v>495</v>
+        <v>1358</v>
       </c>
       <c r="C1682" s="7" t="s">
-        <v>803</v>
+        <v>1356</v>
       </c>
       <c r="D1682" s="7" t="s">
-        <v>10</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1683">
-        <v>58254</v>
+        <v>59380</v>
       </c>
       <c r="B1683" s="7" t="s">
-        <v>803</v>
+        <v>1358</v>
       </c>
       <c r="C1683" s="7" t="s">
-        <v>495</v>
+        <v>1357</v>
       </c>
       <c r="D1683" s="7" t="s">
-        <v>47</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
@@ -42876,10 +43832,10 @@
         <v>494</v>
       </c>
       <c r="C1684" s="7" t="s">
-        <v>496</v>
+        <v>1359</v>
       </c>
       <c r="D1684" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
@@ -42887,13 +43843,13 @@
         <v>58254</v>
       </c>
       <c r="B1685" s="7" t="s">
-        <v>496</v>
+        <v>1359</v>
       </c>
       <c r="C1685" s="7" t="s">
-        <v>1360</v>
+        <v>494</v>
       </c>
       <c r="D1685" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
@@ -42901,13 +43857,13 @@
         <v>58254</v>
       </c>
       <c r="B1686" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1686" s="7" t="s">
-        <v>497</v>
+        <v>803</v>
       </c>
       <c r="D1686" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
@@ -42915,13 +43871,13 @@
         <v>58254</v>
       </c>
       <c r="B1687" s="7" t="s">
-        <v>496</v>
+        <v>803</v>
       </c>
       <c r="C1687" s="7" t="s">
-        <v>804</v>
+        <v>495</v>
       </c>
       <c r="D1687" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
@@ -42929,10 +43885,10 @@
         <v>58254</v>
       </c>
       <c r="B1688" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1688" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="C1688" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="D1688" s="7" t="s">
         <v>23</v>
@@ -42946,10 +43902,10 @@
         <v>496</v>
       </c>
       <c r="C1689" s="7" t="s">
-        <v>499</v>
+        <v>1360</v>
       </c>
       <c r="D1689" s="7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
@@ -42957,13 +43913,13 @@
         <v>58254</v>
       </c>
       <c r="B1690" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C1690" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D1690" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
@@ -42971,13 +43927,13 @@
         <v>58254</v>
       </c>
       <c r="B1691" s="7" t="s">
-        <v>1361</v>
+        <v>496</v>
       </c>
       <c r="C1691" s="7" t="s">
-        <v>496</v>
+        <v>804</v>
       </c>
       <c r="D1691" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
@@ -42985,13 +43941,13 @@
         <v>58254</v>
       </c>
       <c r="B1692" s="7" t="s">
-        <v>805</v>
+        <v>496</v>
       </c>
       <c r="C1692" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D1692" s="7" t="s">
-        <v>806</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
@@ -42999,13 +43955,13 @@
         <v>58254</v>
       </c>
       <c r="B1693" s="7" t="s">
-        <v>807</v>
+        <v>496</v>
       </c>
       <c r="C1693" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D1693" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
@@ -43013,13 +43969,13 @@
         <v>58254</v>
       </c>
       <c r="B1694" s="7" t="s">
-        <v>808</v>
+        <v>500</v>
       </c>
       <c r="C1694" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D1694" s="7" t="s">
-        <v>806</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
@@ -43027,10 +43983,10 @@
         <v>58254</v>
       </c>
       <c r="B1695" s="7" t="s">
-        <v>809</v>
+        <v>1361</v>
       </c>
       <c r="C1695" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D1695" s="7" t="s">
         <v>806</v>
@@ -43038,58 +43994,58 @@
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1696">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1696" s="7" t="s">
-        <v>502</v>
+        <v>805</v>
       </c>
       <c r="C1696" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D1696" s="7" t="s">
-        <v>10</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1697">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1697" s="7" t="s">
-        <v>503</v>
+        <v>807</v>
       </c>
       <c r="C1697" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D1697" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1698">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1698" s="7" t="s">
-        <v>502</v>
+        <v>808</v>
       </c>
       <c r="C1698" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D1698" s="7" t="s">
-        <v>10</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1699">
-        <v>58190</v>
+        <v>58254</v>
       </c>
       <c r="B1699" s="7" t="s">
-        <v>507</v>
+        <v>809</v>
       </c>
       <c r="C1699" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D1699" s="7" t="s">
-        <v>47</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
@@ -43097,13 +44053,13 @@
         <v>58190</v>
       </c>
       <c r="B1700" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1700" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C1700" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="D1700" s="7" t="s">
-        <v>1214</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
@@ -43111,13 +44067,13 @@
         <v>58190</v>
       </c>
       <c r="B1701" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1701" s="7" t="s">
-        <v>810</v>
+        <v>502</v>
       </c>
       <c r="D1701" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
@@ -43125,13 +44081,13 @@
         <v>58190</v>
       </c>
       <c r="B1702" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C1702" s="7" t="s">
-        <v>811</v>
+        <v>507</v>
       </c>
       <c r="D1702" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
@@ -43139,13 +44095,13 @@
         <v>58190</v>
       </c>
       <c r="B1703" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C1703" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D1703" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
@@ -43153,13 +44109,13 @@
         <v>58190</v>
       </c>
       <c r="B1704" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C1704" s="7" t="s">
-        <v>1362</v>
+        <v>504</v>
       </c>
       <c r="D1704" s="7" t="s">
-        <v>23</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
@@ -43167,10 +44123,10 @@
         <v>58190</v>
       </c>
       <c r="B1705" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C1705" s="7" t="s">
-        <v>1363</v>
+        <v>810</v>
       </c>
       <c r="D1705" s="7" t="s">
         <v>23</v>
@@ -43181,10 +44137,10 @@
         <v>58190</v>
       </c>
       <c r="B1706" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C1706" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D1706" s="7" t="s">
         <v>23</v>
@@ -43195,10 +44151,10 @@
         <v>58190</v>
       </c>
       <c r="B1707" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C1707" s="7" t="s">
-        <v>813</v>
+        <v>493</v>
       </c>
       <c r="D1707" s="7" t="s">
         <v>23</v>
@@ -43209,13 +44165,13 @@
         <v>58190</v>
       </c>
       <c r="B1708" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1708" s="7" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D1708" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
@@ -43223,13 +44179,13 @@
         <v>58190</v>
       </c>
       <c r="B1709" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C1709" s="7" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D1709" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
@@ -43237,13 +44193,13 @@
         <v>58190</v>
       </c>
       <c r="B1710" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C1710" s="7" t="s">
-        <v>1364</v>
+        <v>812</v>
       </c>
       <c r="D1710" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
@@ -43251,13 +44207,13 @@
         <v>58190</v>
       </c>
       <c r="B1711" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C1711" s="7" t="s">
-        <v>1364</v>
+        <v>813</v>
       </c>
       <c r="D1711" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
@@ -43268,10 +44224,10 @@
         <v>503</v>
       </c>
       <c r="C1712" s="7" t="s">
-        <v>814</v>
+        <v>1364</v>
       </c>
       <c r="D1712" s="7" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
@@ -43282,66 +44238,66 @@
         <v>506</v>
       </c>
       <c r="C1713" s="7" t="s">
-        <v>814</v>
+        <v>1364</v>
       </c>
       <c r="D1713" s="7" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1714">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1714" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1714" s="7" t="s">
-        <v>407</v>
+        <v>1364</v>
       </c>
       <c r="D1714" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1715">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1715" s="7" t="s">
-        <v>407</v>
+        <v>505</v>
       </c>
       <c r="C1715" s="7" t="s">
-        <v>508</v>
+        <v>1364</v>
       </c>
       <c r="D1715" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1716">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1716" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C1716" s="7" t="s">
-        <v>509</v>
+        <v>814</v>
       </c>
       <c r="D1716" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1717">
-        <v>59196</v>
+        <v>58190</v>
       </c>
       <c r="B1717" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C1717" s="7" t="s">
-        <v>411</v>
+        <v>814</v>
       </c>
       <c r="D1717" s="7" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
@@ -43349,13 +44305,13 @@
         <v>59196</v>
       </c>
       <c r="B1718" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1718" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D1718" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
@@ -43363,13 +44319,13 @@
         <v>59196</v>
       </c>
       <c r="B1719" s="7" t="s">
-        <v>509</v>
+        <v>407</v>
       </c>
       <c r="C1719" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D1719" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
@@ -43377,13 +44333,13 @@
         <v>59196</v>
       </c>
       <c r="B1720" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="C1720" s="7" t="s">
-        <v>816</v>
+        <v>509</v>
       </c>
       <c r="D1720" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
@@ -43391,13 +44347,13 @@
         <v>59196</v>
       </c>
       <c r="B1721" s="7" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
       <c r="C1721" s="7" t="s">
-        <v>817</v>
+        <v>411</v>
       </c>
       <c r="D1721" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
@@ -43405,13 +44361,13 @@
         <v>59196</v>
       </c>
       <c r="B1722" s="7" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
       <c r="C1722" s="7" t="s">
-        <v>818</v>
+        <v>410</v>
       </c>
       <c r="D1722" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
@@ -43419,13 +44375,13 @@
         <v>59196</v>
       </c>
       <c r="B1723" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C1723" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D1723" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
@@ -43433,13 +44389,13 @@
         <v>59196</v>
       </c>
       <c r="B1724" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1724" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D1724" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
@@ -43447,13 +44403,13 @@
         <v>59196</v>
       </c>
       <c r="B1725" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1725" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D1725" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
@@ -43461,13 +44417,13 @@
         <v>59196</v>
       </c>
       <c r="B1726" s="7" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C1726" s="7" t="s">
-        <v>41</v>
+        <v>818</v>
       </c>
       <c r="D1726" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
@@ -43478,10 +44434,10 @@
         <v>508</v>
       </c>
       <c r="C1727" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D1727" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
@@ -43492,10 +44448,10 @@
         <v>508</v>
       </c>
       <c r="C1728" s="7" t="s">
-        <v>513</v>
+        <v>819</v>
       </c>
       <c r="D1728" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
@@ -43506,10 +44462,10 @@
         <v>508</v>
       </c>
       <c r="C1729" s="7" t="s">
-        <v>514</v>
+        <v>820</v>
       </c>
       <c r="D1729" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
@@ -43520,10 +44476,10 @@
         <v>508</v>
       </c>
       <c r="C1730" s="7" t="s">
-        <v>515</v>
+        <v>41</v>
       </c>
       <c r="D1730" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
@@ -43534,7 +44490,7 @@
         <v>508</v>
       </c>
       <c r="C1731" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D1731" s="7" t="s">
         <v>21</v>
@@ -43548,7 +44504,7 @@
         <v>508</v>
       </c>
       <c r="C1732" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D1732" s="7" t="s">
         <v>21</v>
@@ -43559,13 +44515,13 @@
         <v>59196</v>
       </c>
       <c r="B1733" s="7" t="s">
-        <v>821</v>
+        <v>508</v>
       </c>
       <c r="C1733" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D1733" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
@@ -43573,69 +44529,69 @@
         <v>59196</v>
       </c>
       <c r="B1734" s="7" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="C1734" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D1734" s="7" t="s">
-        <v>1365</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1735">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1735" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C1735" s="7" t="s">
-        <v>822</v>
+        <v>516</v>
       </c>
       <c r="D1735" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1736">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1736" s="7" t="s">
-        <v>822</v>
+        <v>508</v>
       </c>
       <c r="C1736" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1736" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1737">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1737" s="7" t="s">
-        <v>518</v>
+        <v>821</v>
       </c>
       <c r="C1737" s="7" t="s">
-        <v>823</v>
+        <v>508</v>
       </c>
       <c r="D1737" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1738">
-        <v>59228</v>
+        <v>59196</v>
       </c>
       <c r="B1738" s="7" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C1738" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D1738" s="7" t="s">
-        <v>47</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
@@ -43646,7 +44602,7 @@
         <v>518</v>
       </c>
       <c r="C1739" s="7" t="s">
-        <v>1366</v>
+        <v>822</v>
       </c>
       <c r="D1739" s="7" t="s">
         <v>10</v>
@@ -43657,7 +44613,7 @@
         <v>59228</v>
       </c>
       <c r="B1740" s="7" t="s">
-        <v>1366</v>
+        <v>822</v>
       </c>
       <c r="C1740" s="7" t="s">
         <v>518</v>
@@ -43674,7 +44630,7 @@
         <v>518</v>
       </c>
       <c r="C1741" s="7" t="s">
-        <v>333</v>
+        <v>823</v>
       </c>
       <c r="D1741" s="7" t="s">
         <v>10</v>
@@ -43685,7 +44641,7 @@
         <v>59228</v>
       </c>
       <c r="B1742" s="7" t="s">
-        <v>333</v>
+        <v>823</v>
       </c>
       <c r="C1742" s="7" t="s">
         <v>518</v>
@@ -43699,13 +44655,13 @@
         <v>59228</v>
       </c>
       <c r="B1743" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1743" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="C1743" s="7" t="s">
-        <v>1367</v>
-      </c>
       <c r="D1743" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
@@ -43713,13 +44669,13 @@
         <v>59228</v>
       </c>
       <c r="B1744" s="7" t="s">
-        <v>333</v>
+        <v>1366</v>
       </c>
       <c r="C1744" s="7" t="s">
-        <v>1367</v>
+        <v>518</v>
       </c>
       <c r="D1744" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
@@ -43730,10 +44686,10 @@
         <v>518</v>
       </c>
       <c r="C1745" s="7" t="s">
-        <v>824</v>
+        <v>333</v>
       </c>
       <c r="D1745" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
@@ -43741,13 +44697,13 @@
         <v>59228</v>
       </c>
       <c r="B1746" s="7" t="s">
-        <v>824</v>
+        <v>333</v>
       </c>
       <c r="C1746" s="7" t="s">
-        <v>1366</v>
+        <v>518</v>
       </c>
       <c r="D1746" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
@@ -43755,13 +44711,13 @@
         <v>59228</v>
       </c>
       <c r="B1747" s="7" t="s">
-        <v>824</v>
+        <v>1366</v>
       </c>
       <c r="C1747" s="7" t="s">
-        <v>333</v>
+        <v>1367</v>
       </c>
       <c r="D1747" s="7" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
@@ -43769,13 +44725,13 @@
         <v>59228</v>
       </c>
       <c r="B1748" s="7" t="s">
-        <v>826</v>
+        <v>333</v>
       </c>
       <c r="C1748" s="7" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D1748" s="7" t="s">
-        <v>827</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
@@ -43783,13 +44739,13 @@
         <v>59228</v>
       </c>
       <c r="B1749" s="7" t="s">
-        <v>826</v>
+        <v>518</v>
       </c>
       <c r="C1749" s="7" t="s">
-        <v>333</v>
+        <v>824</v>
       </c>
       <c r="D1749" s="7" t="s">
-        <v>827</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
@@ -43797,69 +44753,69 @@
         <v>59228</v>
       </c>
       <c r="B1750" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C1750" s="7" t="s">
-        <v>826</v>
+        <v>1366</v>
       </c>
       <c r="D1750" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1751">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1751" s="7" t="s">
-        <v>519</v>
+        <v>824</v>
       </c>
       <c r="C1751" s="7" t="s">
-        <v>828</v>
+        <v>333</v>
       </c>
       <c r="D1751" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1752">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1752" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C1752" s="7" t="s">
-        <v>519</v>
+        <v>1366</v>
       </c>
       <c r="D1752" s="7" t="s">
-        <v>47</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1753">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1753" s="7" t="s">
-        <v>519</v>
+        <v>826</v>
       </c>
       <c r="C1753" s="7" t="s">
-        <v>1368</v>
+        <v>333</v>
       </c>
       <c r="D1753" s="7" t="s">
-        <v>23</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1754">
-        <v>58036</v>
+        <v>59228</v>
       </c>
       <c r="B1754" s="7" t="s">
-        <v>1368</v>
+        <v>825</v>
       </c>
       <c r="C1754" s="7" t="s">
-        <v>519</v>
+        <v>826</v>
       </c>
       <c r="D1754" s="7" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
@@ -43867,13 +44823,13 @@
         <v>58036</v>
       </c>
       <c r="B1755" s="7" t="s">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="C1755" s="7" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="D1755" s="7" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
@@ -43881,13 +44837,13 @@
         <v>58036</v>
       </c>
       <c r="B1756" s="7" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="C1756" s="7" t="s">
-        <v>1369</v>
+        <v>519</v>
       </c>
       <c r="D1756" s="7" t="s">
-        <v>481</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
@@ -43895,13 +44851,13 @@
         <v>58036</v>
       </c>
       <c r="B1757" s="7" t="s">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="C1757" s="7" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D1757" s="7" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
@@ -43909,13 +44865,13 @@
         <v>58036</v>
       </c>
       <c r="B1758" s="7" t="s">
-        <v>793</v>
+        <v>1368</v>
       </c>
       <c r="C1758" s="7" t="s">
-        <v>1371</v>
+        <v>519</v>
       </c>
       <c r="D1758" s="7" t="s">
-        <v>481</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
@@ -43923,13 +44879,13 @@
         <v>58036</v>
       </c>
       <c r="B1759" s="7" t="s">
-        <v>110</v>
+        <v>793</v>
       </c>
       <c r="C1759" s="7" t="s">
-        <v>519</v>
+        <v>856</v>
       </c>
       <c r="D1759" s="7" t="s">
-        <v>61</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
@@ -43937,12 +44893,68 @@
         <v>58036</v>
       </c>
       <c r="B1760" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1760" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D1760" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>58036</v>
+      </c>
+      <c r="B1761" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1761" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1761" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>58036</v>
+      </c>
+      <c r="B1762" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1762" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1762" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>58036</v>
+      </c>
+      <c r="B1763" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1763" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1763" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>58036</v>
+      </c>
+      <c r="B1764" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C1760" s="7" t="s">
+      <c r="C1764" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D1760" s="7" t="s">
+      <c r="D1764" s="7" t="s">
         <v>1372</v>
       </c>
     </row>
